--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.577</v>
+        <v>1.58</v>
       </c>
       <c r="C2" t="n">
-        <v>1.578</v>
+        <v>1.58</v>
       </c>
       <c r="D2" t="n">
-        <v>1.578</v>
+        <v>1.58</v>
       </c>
       <c r="E2" t="n">
-        <v>1.577</v>
+        <v>1.58</v>
       </c>
       <c r="F2" t="n">
-        <v>38053</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.617399999999999</v>
+        <v>1.618299999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.578</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.583</v>
-      </c>
       <c r="D3" t="n">
-        <v>1.583</v>
+        <v>1.578</v>
       </c>
       <c r="E3" t="n">
-        <v>1.578</v>
+        <v>1.577</v>
       </c>
       <c r="F3" t="n">
-        <v>91673</v>
+        <v>38053</v>
       </c>
       <c r="G3" t="n">
-        <v>1.616783333333332</v>
+        <v>1.617399999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.583</v>
+        <v>1.578</v>
       </c>
       <c r="C4" t="n">
         <v>1.583</v>
@@ -512,13 +512,13 @@
         <v>1.583</v>
       </c>
       <c r="E4" t="n">
-        <v>1.583</v>
+        <v>1.578</v>
       </c>
       <c r="F4" t="n">
-        <v>8099</v>
+        <v>91673</v>
       </c>
       <c r="G4" t="n">
-        <v>1.616333333333332</v>
+        <v>1.616783333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.583</v>
       </c>
       <c r="C5" t="n">
-        <v>1.588</v>
+        <v>1.583</v>
       </c>
       <c r="D5" t="n">
-        <v>1.588</v>
+        <v>1.583</v>
       </c>
       <c r="E5" t="n">
         <v>1.583</v>
       </c>
       <c r="F5" t="n">
-        <v>455699.0022</v>
+        <v>8099</v>
       </c>
       <c r="G5" t="n">
-        <v>1.615799999999999</v>
+        <v>1.616333333333332</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -564,53 +564,53 @@
       <c r="J5" t="n">
         <v>1.583</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="F6" t="n">
+        <v>455699.0022</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.615799999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.614983333333332</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.599</v>
+        <v>1.588</v>
       </c>
       <c r="C7" t="n">
         <v>1.599</v>
@@ -629,24 +629,24 @@
         <v>1.599</v>
       </c>
       <c r="E7" t="n">
-        <v>1.599</v>
+        <v>1.588</v>
       </c>
       <c r="F7" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G7" t="n">
-        <v>1.614466666666666</v>
+        <v>1.614983333333332</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -673,10 +673,10 @@
         <v>1.599</v>
       </c>
       <c r="F8" t="n">
-        <v>1721</v>
+        <v>80000</v>
       </c>
       <c r="G8" t="n">
-        <v>1.613949999999999</v>
+        <v>1.614466666666666</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -687,7 +687,9 @@
       <c r="J8" t="n">
         <v>1.599</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -705,30 +707,30 @@
         <v>1.599</v>
       </c>
       <c r="C9" t="n">
-        <v>1.62</v>
+        <v>1.599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.62</v>
+        <v>1.599</v>
       </c>
       <c r="E9" t="n">
         <v>1.599</v>
       </c>
       <c r="F9" t="n">
-        <v>6333000</v>
+        <v>1721</v>
       </c>
       <c r="G9" t="n">
-        <v>1.614916666666666</v>
+        <v>1.613949999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -743,33 +745,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.619</v>
+        <v>1.599</v>
       </c>
       <c r="C10" t="n">
-        <v>1.679</v>
+        <v>1.62</v>
       </c>
       <c r="D10" t="n">
-        <v>1.679</v>
+        <v>1.62</v>
       </c>
       <c r="E10" t="n">
-        <v>1.619</v>
+        <v>1.599</v>
       </c>
       <c r="F10" t="n">
-        <v>6255829.5176</v>
+        <v>6333000</v>
       </c>
       <c r="G10" t="n">
-        <v>1.615349999999999</v>
+        <v>1.614916666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -784,22 +786,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.63</v>
+        <v>1.619</v>
       </c>
       <c r="C11" t="n">
-        <v>1.581</v>
+        <v>1.679</v>
       </c>
       <c r="D11" t="n">
         <v>1.679</v>
       </c>
       <c r="E11" t="n">
-        <v>1.581</v>
+        <v>1.619</v>
       </c>
       <c r="F11" t="n">
-        <v>1576310.9328</v>
+        <v>6255829.5176</v>
       </c>
       <c r="G11" t="n">
-        <v>1.614749999999999</v>
+        <v>1.615349999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -808,7 +810,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -823,22 +827,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.669</v>
+        <v>1.63</v>
       </c>
       <c r="C12" t="n">
-        <v>1.65</v>
+        <v>1.581</v>
       </c>
       <c r="D12" t="n">
         <v>1.679</v>
       </c>
       <c r="E12" t="n">
-        <v>1.641</v>
+        <v>1.581</v>
       </c>
       <c r="F12" t="n">
-        <v>830342.959</v>
+        <v>1576310.9328</v>
       </c>
       <c r="G12" t="n">
-        <v>1.615316666666666</v>
+        <v>1.614749999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -847,7 +851,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,22 +868,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.643</v>
+        <v>1.669</v>
       </c>
       <c r="C13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>1.643</v>
+        <v>1.679</v>
       </c>
       <c r="E13" t="n">
-        <v>1.63</v>
+        <v>1.641</v>
       </c>
       <c r="F13" t="n">
-        <v>512546.9659</v>
+        <v>830342.959</v>
       </c>
       <c r="G13" t="n">
-        <v>1.615549999999999</v>
+        <v>1.615316666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,7 +892,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -901,31 +909,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.659</v>
+        <v>1.643</v>
       </c>
       <c r="C14" t="n">
-        <v>1.573</v>
+        <v>1.63</v>
       </c>
       <c r="D14" t="n">
-        <v>1.67</v>
+        <v>1.643</v>
       </c>
       <c r="E14" t="n">
-        <v>1.573</v>
+        <v>1.63</v>
       </c>
       <c r="F14" t="n">
-        <v>495799.9054</v>
+        <v>512546.9659</v>
       </c>
       <c r="G14" t="n">
-        <v>1.615583333333332</v>
+        <v>1.615549999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -940,22 +950,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.65</v>
+        <v>1.659</v>
       </c>
       <c r="C15" t="n">
-        <v>1.659</v>
+        <v>1.573</v>
       </c>
       <c r="D15" t="n">
-        <v>1.659</v>
+        <v>1.67</v>
       </c>
       <c r="E15" t="n">
-        <v>1.65</v>
+        <v>1.573</v>
       </c>
       <c r="F15" t="n">
-        <v>247042.7777</v>
+        <v>495799.9054</v>
       </c>
       <c r="G15" t="n">
-        <v>1.616566666666666</v>
+        <v>1.615583333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -964,7 +974,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -979,22 +991,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C16" t="n">
-        <v>1.64</v>
+        <v>1.659</v>
       </c>
       <c r="D16" t="n">
-        <v>1.64</v>
+        <v>1.659</v>
       </c>
       <c r="E16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F16" t="n">
-        <v>202847.4733</v>
+        <v>247042.7777</v>
       </c>
       <c r="G16" t="n">
-        <v>1.616966666666666</v>
+        <v>1.616566666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1003,7 +1015,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1018,38 +1032,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.648</v>
+        <v>1.64</v>
       </c>
       <c r="C17" t="n">
-        <v>1.648</v>
+        <v>1.64</v>
       </c>
       <c r="D17" t="n">
-        <v>1.648</v>
+        <v>1.64</v>
       </c>
       <c r="E17" t="n">
-        <v>1.648</v>
+        <v>1.64</v>
       </c>
       <c r="F17" t="n">
-        <v>6823217.1062</v>
+        <v>202847.4733</v>
       </c>
       <c r="G17" t="n">
-        <v>1.617133333333332</v>
+        <v>1.616966666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.583</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>1.031007580543272</v>
       </c>
     </row>
     <row r="18">
@@ -1057,59 +1073,57 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.631</v>
+        <v>1.648</v>
       </c>
       <c r="C18" t="n">
-        <v>1.631</v>
+        <v>1.648</v>
       </c>
       <c r="D18" t="n">
-        <v>1.631</v>
+        <v>1.648</v>
       </c>
       <c r="E18" t="n">
-        <v>1.631</v>
+        <v>1.648</v>
       </c>
       <c r="F18" t="n">
-        <v>46860.2659</v>
+        <v>6823217.1062</v>
       </c>
       <c r="G18" t="n">
-        <v>1.616399999999999</v>
+        <v>1.617133333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.591</v>
+        <v>1.631</v>
       </c>
       <c r="C19" t="n">
-        <v>1.591</v>
+        <v>1.631</v>
       </c>
       <c r="D19" t="n">
-        <v>1.591</v>
+        <v>1.631</v>
       </c>
       <c r="E19" t="n">
-        <v>1.591</v>
+        <v>1.631</v>
       </c>
       <c r="F19" t="n">
-        <v>1695.1428</v>
+        <v>46860.2659</v>
       </c>
       <c r="G19" t="n">
-        <v>1.615416666666666</v>
+        <v>1.616399999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1129,28 +1143,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.628</v>
+        <v>1.591</v>
       </c>
       <c r="C20" t="n">
-        <v>1.629</v>
+        <v>1.591</v>
       </c>
       <c r="D20" t="n">
-        <v>1.629</v>
+        <v>1.591</v>
       </c>
       <c r="E20" t="n">
-        <v>1.628</v>
+        <v>1.591</v>
       </c>
       <c r="F20" t="n">
-        <v>1721</v>
+        <v>1695.1428</v>
       </c>
       <c r="G20" t="n">
-        <v>1.615066666666666</v>
+        <v>1.615416666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1164,22 +1178,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.629</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.542</v>
-      </c>
       <c r="D21" t="n">
-        <v>1.636</v>
+        <v>1.629</v>
       </c>
       <c r="E21" t="n">
-        <v>1.542</v>
+        <v>1.628</v>
       </c>
       <c r="F21" t="n">
-        <v>2537329.6157</v>
+        <v>1721</v>
       </c>
       <c r="G21" t="n">
-        <v>1.613599999999999</v>
+        <v>1.615066666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1199,22 +1213,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.609</v>
+        <v>1.629</v>
       </c>
       <c r="C22" t="n">
-        <v>1.607</v>
+        <v>1.542</v>
       </c>
       <c r="D22" t="n">
-        <v>1.61</v>
+        <v>1.636</v>
       </c>
       <c r="E22" t="n">
-        <v>1.543</v>
+        <v>1.542</v>
       </c>
       <c r="F22" t="n">
-        <v>5123865.5895</v>
+        <v>2537329.6157</v>
       </c>
       <c r="G22" t="n">
-        <v>1.613216666666666</v>
+        <v>1.613599999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1234,22 +1248,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.59</v>
+        <v>1.609</v>
       </c>
       <c r="C23" t="n">
-        <v>1.588</v>
+        <v>1.607</v>
       </c>
       <c r="D23" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="E23" t="n">
-        <v>1.588</v>
+        <v>1.543</v>
       </c>
       <c r="F23" t="n">
-        <v>975890.8432</v>
+        <v>5123865.5895</v>
       </c>
       <c r="G23" t="n">
-        <v>1.612649999999999</v>
+        <v>1.613216666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1272,19 +1286,19 @@
         <v>1.59</v>
       </c>
       <c r="C24" t="n">
-        <v>1.603</v>
+        <v>1.588</v>
       </c>
       <c r="D24" t="n">
-        <v>1.603</v>
+        <v>1.59</v>
       </c>
       <c r="E24" t="n">
-        <v>1.59</v>
+        <v>1.588</v>
       </c>
       <c r="F24" t="n">
-        <v>410506.4553</v>
+        <v>975890.8432</v>
       </c>
       <c r="G24" t="n">
-        <v>1.612699999999999</v>
+        <v>1.612649999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1304,28 +1318,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.614</v>
+        <v>1.59</v>
       </c>
       <c r="C25" t="n">
-        <v>1.612</v>
+        <v>1.603</v>
       </c>
       <c r="D25" t="n">
-        <v>1.614</v>
+        <v>1.603</v>
       </c>
       <c r="E25" t="n">
-        <v>1.612</v>
+        <v>1.59</v>
       </c>
       <c r="F25" t="n">
-        <v>8391679.51</v>
+        <v>410506.4553</v>
       </c>
       <c r="G25" t="n">
-        <v>1.612449999999999</v>
+        <v>1.612699999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1339,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.62</v>
+        <v>1.614</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6</v>
+        <v>1.612</v>
       </c>
       <c r="D26" t="n">
-        <v>1.734</v>
+        <v>1.614</v>
       </c>
       <c r="E26" t="n">
-        <v>1.6</v>
+        <v>1.612</v>
       </c>
       <c r="F26" t="n">
-        <v>246685.6331</v>
+        <v>8391679.51</v>
       </c>
       <c r="G26" t="n">
         <v>1.612449999999999</v>
@@ -1374,28 +1388,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="C27" t="n">
-        <v>1.631</v>
+        <v>1.6</v>
       </c>
       <c r="D27" t="n">
-        <v>1.65</v>
+        <v>1.734</v>
       </c>
       <c r="E27" t="n">
-        <v>1.631</v>
+        <v>1.6</v>
       </c>
       <c r="F27" t="n">
-        <v>404798.4128</v>
+        <v>246685.6331</v>
       </c>
       <c r="G27" t="n">
-        <v>1.612516666666666</v>
+        <v>1.612449999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1409,22 +1423,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C28" t="n">
         <v>1.631</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.67</v>
-      </c>
       <c r="D28" t="n">
-        <v>1.679</v>
+        <v>1.65</v>
       </c>
       <c r="E28" t="n">
         <v>1.631</v>
       </c>
       <c r="F28" t="n">
-        <v>165502.3811</v>
+        <v>404798.4128</v>
       </c>
       <c r="G28" t="n">
-        <v>1.613183333333333</v>
+        <v>1.612516666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1444,22 +1458,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="C29" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="D29" t="n">
-        <v>1.64</v>
+        <v>1.679</v>
       </c>
       <c r="E29" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="F29" t="n">
-        <v>316238.067</v>
+        <v>165502.3811</v>
       </c>
       <c r="G29" t="n">
-        <v>1.613516666666666</v>
+        <v>1.613183333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1479,22 +1493,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="C30" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="D30" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="E30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="F30" t="n">
-        <v>35665.2565</v>
+        <v>316238.067</v>
       </c>
       <c r="G30" t="n">
-        <v>1.614149999999999</v>
+        <v>1.613516666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1514,22 +1528,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="C31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="D31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="E31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="F31" t="n">
-        <v>284747.4716</v>
+        <v>35665.2565</v>
       </c>
       <c r="G31" t="n">
-        <v>1.614866666666666</v>
+        <v>1.614149999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1549,22 +1563,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="C32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="D32" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="E32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F32" t="n">
-        <v>20355.9126</v>
+        <v>284747.4716</v>
       </c>
       <c r="G32" t="n">
-        <v>1.615966666666666</v>
+        <v>1.614866666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1584,22 +1598,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="C33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="D33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="E33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>20355.9126</v>
       </c>
       <c r="G33" t="n">
-        <v>1.615933333333332</v>
+        <v>1.615966666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1619,22 +1633,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.697</v>
+        <v>1.63</v>
       </c>
       <c r="C34" t="n">
-        <v>1.697</v>
+        <v>1.63</v>
       </c>
       <c r="D34" t="n">
-        <v>1.697</v>
+        <v>1.63</v>
       </c>
       <c r="E34" t="n">
-        <v>1.697</v>
+        <v>1.63</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>1.617316666666666</v>
+        <v>1.615933333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1654,22 +1668,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.63</v>
+        <v>1.697</v>
       </c>
       <c r="C35" t="n">
-        <v>1.67</v>
+        <v>1.697</v>
       </c>
       <c r="D35" t="n">
-        <v>1.67</v>
+        <v>1.697</v>
       </c>
       <c r="E35" t="n">
-        <v>1.63</v>
+        <v>1.697</v>
       </c>
       <c r="F35" t="n">
-        <v>129654.8962</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>1.617233333333332</v>
+        <v>1.617316666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1689,22 +1703,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.648</v>
+        <v>1.63</v>
       </c>
       <c r="C36" t="n">
-        <v>1.648</v>
+        <v>1.67</v>
       </c>
       <c r="D36" t="n">
-        <v>1.648</v>
+        <v>1.67</v>
       </c>
       <c r="E36" t="n">
-        <v>1.648</v>
+        <v>1.63</v>
       </c>
       <c r="F36" t="n">
-        <v>1036093.2026</v>
+        <v>129654.8962</v>
       </c>
       <c r="G36" t="n">
-        <v>1.617683333333332</v>
+        <v>1.617233333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1724,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.65</v>
+        <v>1.648</v>
       </c>
       <c r="C37" t="n">
-        <v>1.65</v>
+        <v>1.648</v>
       </c>
       <c r="D37" t="n">
-        <v>1.65</v>
+        <v>1.648</v>
       </c>
       <c r="E37" t="n">
-        <v>1.65</v>
+        <v>1.648</v>
       </c>
       <c r="F37" t="n">
-        <v>346145.5224</v>
+        <v>1036093.2026</v>
       </c>
       <c r="G37" t="n">
-        <v>1.618283333333333</v>
+        <v>1.617683333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1759,22 +1773,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="C38" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="D38" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="E38" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="F38" t="n">
-        <v>195066.4397</v>
+        <v>346145.5224</v>
       </c>
       <c r="G38" t="n">
-        <v>1.618733333333332</v>
+        <v>1.618283333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1794,22 +1808,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="C39" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="D39" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="E39" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="F39" t="n">
-        <v>156302.6484</v>
+        <v>195066.4397</v>
       </c>
       <c r="G39" t="n">
-        <v>1.619066666666666</v>
+        <v>1.618733333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1829,22 +1843,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="C40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="D40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="E40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="F40" t="n">
-        <v>190664.6</v>
+        <v>156302.6484</v>
       </c>
       <c r="G40" t="n">
-        <v>1.619649999999999</v>
+        <v>1.619066666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1867,19 +1881,19 @@
         <v>1.68</v>
       </c>
       <c r="C41" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="D41" t="n">
         <v>1.68</v>
       </c>
       <c r="E41" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="F41" t="n">
-        <v>70520.0453</v>
+        <v>190664.6</v>
       </c>
       <c r="G41" t="n">
-        <v>1.620066666666666</v>
+        <v>1.619649999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1899,22 +1913,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="C42" t="n">
         <v>1.67</v>
       </c>
       <c r="D42" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="E42" t="n">
         <v>1.67</v>
       </c>
       <c r="F42" t="n">
-        <v>200000</v>
+        <v>70520.0453</v>
       </c>
       <c r="G42" t="n">
-        <v>1.620483333333333</v>
+        <v>1.620066666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1946,10 +1960,10 @@
         <v>1.67</v>
       </c>
       <c r="F43" t="n">
-        <v>7293.8772</v>
+        <v>200000</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6209</v>
+        <v>1.620483333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1969,7 +1983,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.611</v>
+        <v>1.67</v>
       </c>
       <c r="C44" t="n">
         <v>1.67</v>
@@ -1978,13 +1992,13 @@
         <v>1.67</v>
       </c>
       <c r="E44" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="F44" t="n">
-        <v>514821.2818</v>
+        <v>7293.8772</v>
       </c>
       <c r="G44" t="n">
-        <v>1.62135</v>
+        <v>1.6209</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +2018,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.63</v>
+        <v>1.611</v>
       </c>
       <c r="C45" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="D45" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="E45" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="F45" t="n">
-        <v>606332.8</v>
+        <v>514821.2818</v>
       </c>
       <c r="G45" t="n">
-        <v>1.6213</v>
+        <v>1.62135</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2039,22 +2053,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.656</v>
+        <v>1.63</v>
       </c>
       <c r="C46" t="n">
-        <v>1.658</v>
+        <v>1.64</v>
       </c>
       <c r="D46" t="n">
-        <v>1.658</v>
+        <v>1.64</v>
       </c>
       <c r="E46" t="n">
-        <v>1.656</v>
+        <v>1.63</v>
       </c>
       <c r="F46" t="n">
-        <v>501830.3008343788</v>
+        <v>606332.8</v>
       </c>
       <c r="G46" t="n">
-        <v>1.621533333333333</v>
+        <v>1.6213</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2074,22 +2088,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.63</v>
+        <v>1.656</v>
       </c>
       <c r="C47" t="n">
-        <v>1.63</v>
+        <v>1.658</v>
       </c>
       <c r="D47" t="n">
-        <v>1.63</v>
+        <v>1.658</v>
       </c>
       <c r="E47" t="n">
-        <v>1.63</v>
+        <v>1.656</v>
       </c>
       <c r="F47" t="n">
-        <v>85518.7224</v>
+        <v>501830.3008343788</v>
       </c>
       <c r="G47" t="n">
-        <v>1.621849999999999</v>
+        <v>1.621533333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2124,7 +2138,7 @@
         <v>85518.7224</v>
       </c>
       <c r="G48" t="n">
-        <v>1.621733333333333</v>
+        <v>1.621849999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2156,10 +2170,10 @@
         <v>1.63</v>
       </c>
       <c r="F49" t="n">
-        <v>22418.9058</v>
+        <v>85518.7224</v>
       </c>
       <c r="G49" t="n">
-        <v>1.622066666666666</v>
+        <v>1.621733333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2179,22 +2193,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="C50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="D50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="E50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="F50" t="n">
-        <v>9000</v>
+        <v>22418.9058</v>
       </c>
       <c r="G50" t="n">
-        <v>1.622399999999999</v>
+        <v>1.622066666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2214,22 +2228,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="C51" t="n">
         <v>1.62</v>
       </c>
       <c r="D51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="E51" t="n">
         <v>1.62</v>
       </c>
       <c r="F51" t="n">
-        <v>3733.2604</v>
+        <v>9000</v>
       </c>
       <c r="G51" t="n">
-        <v>1.622749999999999</v>
+        <v>1.622399999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2252,19 +2266,19 @@
         <v>1.65</v>
       </c>
       <c r="C52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="D52" t="n">
         <v>1.65</v>
       </c>
       <c r="E52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>3733.2604</v>
       </c>
       <c r="G52" t="n">
-        <v>1.623599999999999</v>
+        <v>1.622749999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2299,7 +2313,7 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>1.62445</v>
+        <v>1.623599999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2322,19 +2336,19 @@
         <v>1.65</v>
       </c>
       <c r="C54" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="D54" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="E54" t="n">
         <v>1.65</v>
       </c>
       <c r="F54" t="n">
-        <v>253984</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>1.62555</v>
+        <v>1.62445</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2354,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="C55" t="n">
         <v>1.654</v>
@@ -2363,13 +2377,13 @@
         <v>1.654</v>
       </c>
       <c r="E55" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="F55" t="n">
-        <v>7778</v>
+        <v>253984</v>
       </c>
       <c r="G55" t="n">
-        <v>1.626649999999999</v>
+        <v>1.62555</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2401,10 +2415,10 @@
         <v>1.654</v>
       </c>
       <c r="F56" t="n">
-        <v>150495</v>
+        <v>7778</v>
       </c>
       <c r="G56" t="n">
-        <v>1.62775</v>
+        <v>1.626649999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2436,10 +2450,10 @@
         <v>1.654</v>
       </c>
       <c r="F57" t="n">
-        <v>20000</v>
+        <v>150495</v>
       </c>
       <c r="G57" t="n">
-        <v>1.628983333333333</v>
+        <v>1.62775</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2459,7 +2473,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.65</v>
+        <v>1.654</v>
       </c>
       <c r="C58" t="n">
         <v>1.654</v>
@@ -2468,13 +2482,13 @@
         <v>1.654</v>
       </c>
       <c r="E58" t="n">
-        <v>1.65</v>
+        <v>1.654</v>
       </c>
       <c r="F58" t="n">
-        <v>9071</v>
+        <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>1.630083333333333</v>
+        <v>1.628983333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2494,7 +2508,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="C59" t="n">
         <v>1.654</v>
@@ -2503,13 +2517,13 @@
         <v>1.654</v>
       </c>
       <c r="E59" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="F59" t="n">
-        <v>100000</v>
+        <v>9071</v>
       </c>
       <c r="G59" t="n">
-        <v>1.631316666666666</v>
+        <v>1.630083333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2532,19 +2546,19 @@
         <v>1.654</v>
       </c>
       <c r="C60" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="D60" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="E60" t="n">
         <v>1.654</v>
       </c>
       <c r="F60" t="n">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="G60" t="n">
-        <v>1.633066666666666</v>
+        <v>1.631316666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2564,7 +2578,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="C61" t="n">
         <v>1.659</v>
@@ -2573,13 +2587,13 @@
         <v>1.659</v>
       </c>
       <c r="E61" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="F61" t="n">
-        <v>1188.16</v>
+        <v>60000</v>
       </c>
       <c r="G61" t="n">
-        <v>1.634383333333333</v>
+        <v>1.633066666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2611,10 +2625,10 @@
         <v>1.659</v>
       </c>
       <c r="F62" t="n">
-        <v>20000</v>
+        <v>1188.16</v>
       </c>
       <c r="G62" t="n">
-        <v>1.635733333333333</v>
+        <v>1.634383333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2646,10 +2660,10 @@
         <v>1.659</v>
       </c>
       <c r="F63" t="n">
-        <v>13127.1</v>
+        <v>20000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.637</v>
+        <v>1.635733333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2672,19 +2686,19 @@
         <v>1.659</v>
       </c>
       <c r="C64" t="n">
-        <v>1.67</v>
+        <v>1.659</v>
       </c>
       <c r="D64" t="n">
-        <v>1.67</v>
+        <v>1.659</v>
       </c>
       <c r="E64" t="n">
         <v>1.659</v>
       </c>
       <c r="F64" t="n">
-        <v>375437.95</v>
+        <v>13127.1</v>
       </c>
       <c r="G64" t="n">
-        <v>1.63845</v>
+        <v>1.637</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2704,22 +2718,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.625</v>
+        <v>1.659</v>
       </c>
       <c r="C65" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="D65" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="E65" t="n">
-        <v>1.625</v>
+        <v>1.659</v>
       </c>
       <c r="F65" t="n">
-        <v>939985.1186</v>
+        <v>375437.95</v>
       </c>
       <c r="G65" t="n">
-        <v>1.640883333333333</v>
+        <v>1.63845</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2739,7 +2753,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.734</v>
+        <v>1.625</v>
       </c>
       <c r="C66" t="n">
         <v>1.734</v>
@@ -2748,13 +2762,13 @@
         <v>1.734</v>
       </c>
       <c r="E66" t="n">
-        <v>1.734</v>
+        <v>1.625</v>
       </c>
       <c r="F66" t="n">
-        <v>84639</v>
+        <v>939985.1186</v>
       </c>
       <c r="G66" t="n">
-        <v>1.643133333333333</v>
+        <v>1.640883333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2774,22 +2788,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="C67" t="n">
-        <v>1.63</v>
+        <v>1.734</v>
       </c>
       <c r="D67" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="E67" t="n">
-        <v>1.63</v>
+        <v>1.734</v>
       </c>
       <c r="F67" t="n">
-        <v>8601.863600000001</v>
+        <v>84639</v>
       </c>
       <c r="G67" t="n">
-        <v>1.64365</v>
+        <v>1.643133333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2809,22 +2823,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.728</v>
+        <v>1.73</v>
       </c>
       <c r="C68" t="n">
-        <v>1.728</v>
+        <v>1.63</v>
       </c>
       <c r="D68" t="n">
-        <v>1.728</v>
+        <v>1.73</v>
       </c>
       <c r="E68" t="n">
-        <v>1.728</v>
+        <v>1.63</v>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>8601.863600000001</v>
       </c>
       <c r="G68" t="n">
-        <v>1.6458</v>
+        <v>1.64365</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2844,22 +2858,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.725</v>
+        <v>1.728</v>
       </c>
       <c r="C69" t="n">
-        <v>1.722</v>
+        <v>1.728</v>
       </c>
       <c r="D69" t="n">
-        <v>1.725</v>
+        <v>1.728</v>
       </c>
       <c r="E69" t="n">
-        <v>1.722</v>
+        <v>1.728</v>
       </c>
       <c r="F69" t="n">
-        <v>13616.8157</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="n">
-        <v>1.6475</v>
+        <v>1.6458</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2879,22 +2893,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.7</v>
+        <v>1.725</v>
       </c>
       <c r="C70" t="n">
-        <v>1.69</v>
+        <v>1.722</v>
       </c>
       <c r="D70" t="n">
-        <v>1.7</v>
+        <v>1.725</v>
       </c>
       <c r="E70" t="n">
-        <v>1.69</v>
+        <v>1.722</v>
       </c>
       <c r="F70" t="n">
-        <v>3000</v>
+        <v>13616.8157</v>
       </c>
       <c r="G70" t="n">
-        <v>1.647683333333333</v>
+        <v>1.6475</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2926,10 +2940,10 @@
         <v>1.69</v>
       </c>
       <c r="F71" t="n">
-        <v>10889.0492</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="n">
-        <v>1.649499999999999</v>
+        <v>1.647683333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2949,22 +2963,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.673</v>
+        <v>1.7</v>
       </c>
       <c r="C72" t="n">
-        <v>1.673</v>
+        <v>1.69</v>
       </c>
       <c r="D72" t="n">
-        <v>1.673</v>
+        <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>1.673</v>
+        <v>1.69</v>
       </c>
       <c r="F72" t="n">
-        <v>298.8644</v>
+        <v>10889.0492</v>
       </c>
       <c r="G72" t="n">
-        <v>1.649883333333332</v>
+        <v>1.649499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2996,10 +3010,10 @@
         <v>1.673</v>
       </c>
       <c r="F73" t="n">
-        <v>298.6858</v>
+        <v>298.8644</v>
       </c>
       <c r="G73" t="n">
-        <v>1.650599999999999</v>
+        <v>1.649883333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3031,10 +3045,10 @@
         <v>1.673</v>
       </c>
       <c r="F74" t="n">
-        <v>79154.129</v>
+        <v>298.6858</v>
       </c>
       <c r="G74" t="n">
-        <v>1.652266666666666</v>
+        <v>1.650599999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,10 +3080,10 @@
         <v>1.673</v>
       </c>
       <c r="F75" t="n">
-        <v>11509</v>
+        <v>79154.129</v>
       </c>
       <c r="G75" t="n">
-        <v>1.652499999999999</v>
+        <v>1.652266666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3101,10 +3115,10 @@
         <v>1.673</v>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>11509</v>
       </c>
       <c r="G76" t="n">
-        <v>1.653049999999999</v>
+        <v>1.652499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3136,10 +3150,10 @@
         <v>1.673</v>
       </c>
       <c r="F77" t="n">
-        <v>2503</v>
+        <v>800</v>
       </c>
       <c r="G77" t="n">
-        <v>1.653466666666666</v>
+        <v>1.653049999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3171,10 +3185,10 @@
         <v>1.673</v>
       </c>
       <c r="F78" t="n">
-        <v>1589</v>
+        <v>2503</v>
       </c>
       <c r="G78" t="n">
-        <v>1.654166666666666</v>
+        <v>1.653466666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3206,10 +3220,10 @@
         <v>1.673</v>
       </c>
       <c r="F79" t="n">
-        <v>45407</v>
+        <v>1589</v>
       </c>
       <c r="G79" t="n">
-        <v>1.655533333333333</v>
+        <v>1.654166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3241,10 +3255,10 @@
         <v>1.673</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>45407</v>
       </c>
       <c r="G80" t="n">
-        <v>1.656266666666666</v>
+        <v>1.655533333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3276,10 +3290,10 @@
         <v>1.673</v>
       </c>
       <c r="F81" t="n">
-        <v>21000</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>1.65845</v>
+        <v>1.656266666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3302,19 +3316,19 @@
         <v>1.673</v>
       </c>
       <c r="C82" t="n">
-        <v>1.707</v>
+        <v>1.673</v>
       </c>
       <c r="D82" t="n">
-        <v>1.707</v>
+        <v>1.673</v>
       </c>
       <c r="E82" t="n">
         <v>1.673</v>
       </c>
       <c r="F82" t="n">
-        <v>75297</v>
+        <v>21000</v>
       </c>
       <c r="G82" t="n">
-        <v>1.660116666666666</v>
+        <v>1.65845</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3334,7 +3348,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.707</v>
+        <v>1.673</v>
       </c>
       <c r="C83" t="n">
         <v>1.707</v>
@@ -3343,13 +3357,13 @@
         <v>1.707</v>
       </c>
       <c r="E83" t="n">
-        <v>1.707</v>
+        <v>1.673</v>
       </c>
       <c r="F83" t="n">
-        <v>6889.3025</v>
+        <v>75297</v>
       </c>
       <c r="G83" t="n">
-        <v>1.662099999999999</v>
+        <v>1.660116666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3369,22 +3383,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.709</v>
+        <v>1.707</v>
       </c>
       <c r="C84" t="n">
-        <v>1.708</v>
+        <v>1.707</v>
       </c>
       <c r="D84" t="n">
-        <v>1.709</v>
+        <v>1.707</v>
       </c>
       <c r="E84" t="n">
-        <v>1.708</v>
+        <v>1.707</v>
       </c>
       <c r="F84" t="n">
-        <v>1714.35</v>
+        <v>6889.3025</v>
       </c>
       <c r="G84" t="n">
-        <v>1.66385</v>
+        <v>1.662099999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3404,22 +3418,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.708</v>
       </c>
-      <c r="C85" t="n">
-        <v>1.707</v>
-      </c>
       <c r="D85" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E85" t="n">
         <v>1.708</v>
       </c>
-      <c r="E85" t="n">
-        <v>1.707</v>
-      </c>
       <c r="F85" t="n">
-        <v>20000</v>
+        <v>1714.35</v>
       </c>
       <c r="G85" t="n">
-        <v>1.665433333333333</v>
+        <v>1.66385</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3439,10 +3453,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C86" t="n">
         <v>1.707</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.708</v>
       </c>
       <c r="D86" t="n">
         <v>1.708</v>
@@ -3451,10 +3465,10 @@
         <v>1.707</v>
       </c>
       <c r="F86" t="n">
-        <v>3746.4075</v>
+        <v>20000</v>
       </c>
       <c r="G86" t="n">
-        <v>1.667233333333333</v>
+        <v>1.665433333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3474,22 +3488,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="C87" t="n">
-        <v>1.68</v>
+        <v>1.708</v>
       </c>
       <c r="D87" t="n">
-        <v>1.68</v>
+        <v>1.708</v>
       </c>
       <c r="E87" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="F87" t="n">
-        <v>13665.4175</v>
+        <v>3746.4075</v>
       </c>
       <c r="G87" t="n">
-        <v>1.66805</v>
+        <v>1.667233333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3509,22 +3523,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.675</v>
+        <v>1.68</v>
       </c>
       <c r="C88" t="n">
-        <v>1.675</v>
+        <v>1.68</v>
       </c>
       <c r="D88" t="n">
-        <v>1.675</v>
+        <v>1.68</v>
       </c>
       <c r="E88" t="n">
-        <v>1.675</v>
+        <v>1.68</v>
       </c>
       <c r="F88" t="n">
-        <v>21844.3201</v>
+        <v>13665.4175</v>
       </c>
       <c r="G88" t="n">
-        <v>1.668133333333333</v>
+        <v>1.66805</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3544,22 +3558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.7</v>
+        <v>1.675</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7</v>
+        <v>1.675</v>
       </c>
       <c r="D89" t="n">
-        <v>1.7</v>
+        <v>1.675</v>
       </c>
       <c r="E89" t="n">
-        <v>1.7</v>
+        <v>1.675</v>
       </c>
       <c r="F89" t="n">
-        <v>2677.0871</v>
+        <v>21844.3201</v>
       </c>
       <c r="G89" t="n">
-        <v>1.669133333333333</v>
+        <v>1.668133333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3579,22 +3593,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.676</v>
+        <v>1.7</v>
       </c>
       <c r="C90" t="n">
-        <v>1.676</v>
+        <v>1.7</v>
       </c>
       <c r="D90" t="n">
-        <v>1.676</v>
+        <v>1.7</v>
       </c>
       <c r="E90" t="n">
-        <v>1.676</v>
+        <v>1.7</v>
       </c>
       <c r="F90" t="n">
-        <v>292185.3692</v>
+        <v>2677.0871</v>
       </c>
       <c r="G90" t="n">
-        <v>1.669233333333333</v>
+        <v>1.669133333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3614,22 +3628,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.678</v>
+        <v>1.676</v>
       </c>
       <c r="C91" t="n">
-        <v>1.678</v>
+        <v>1.676</v>
       </c>
       <c r="D91" t="n">
-        <v>1.678</v>
+        <v>1.676</v>
       </c>
       <c r="E91" t="n">
-        <v>1.678</v>
+        <v>1.676</v>
       </c>
       <c r="F91" t="n">
-        <v>42721</v>
+        <v>292185.3692</v>
       </c>
       <c r="G91" t="n">
-        <v>1.6697</v>
+        <v>1.669233333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3661,10 +3675,10 @@
         <v>1.678</v>
       </c>
       <c r="F92" t="n">
-        <v>22553.009</v>
+        <v>42721</v>
       </c>
       <c r="G92" t="n">
-        <v>1.670333333333333</v>
+        <v>1.6697</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3684,22 +3698,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.677</v>
+        <v>1.678</v>
       </c>
       <c r="C93" t="n">
-        <v>1.677</v>
+        <v>1.678</v>
       </c>
       <c r="D93" t="n">
-        <v>1.677</v>
+        <v>1.678</v>
       </c>
       <c r="E93" t="n">
-        <v>1.677</v>
+        <v>1.678</v>
       </c>
       <c r="F93" t="n">
-        <v>5880.1896</v>
+        <v>22553.009</v>
       </c>
       <c r="G93" t="n">
-        <v>1.671116666666666</v>
+        <v>1.670333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3719,22 +3733,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="C94" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="D94" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="E94" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="F94" t="n">
-        <v>1600000</v>
+        <v>5880.1896</v>
       </c>
       <c r="G94" t="n">
-        <v>1.67075</v>
+        <v>1.671116666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3754,22 +3768,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.676</v>
+        <v>1.675</v>
       </c>
       <c r="C95" t="n">
-        <v>1.676</v>
+        <v>1.675</v>
       </c>
       <c r="D95" t="n">
-        <v>1.676</v>
+        <v>1.675</v>
       </c>
       <c r="E95" t="n">
-        <v>1.676</v>
+        <v>1.675</v>
       </c>
       <c r="F95" t="n">
-        <v>16556.25</v>
+        <v>1600000</v>
       </c>
       <c r="G95" t="n">
-        <v>1.67085</v>
+        <v>1.67075</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3789,22 +3803,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="C96" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="D96" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="E96" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="F96" t="n">
-        <v>8241.566000000001</v>
+        <v>16556.25</v>
       </c>
       <c r="G96" t="n">
-        <v>1.671283333333333</v>
+        <v>1.67085</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3824,22 +3838,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.676</v>
+        <v>1.674</v>
       </c>
       <c r="C97" t="n">
-        <v>1.676</v>
+        <v>1.674</v>
       </c>
       <c r="D97" t="n">
-        <v>1.676</v>
+        <v>1.674</v>
       </c>
       <c r="E97" t="n">
-        <v>1.676</v>
+        <v>1.674</v>
       </c>
       <c r="F97" t="n">
-        <v>99154</v>
+        <v>8241.566000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>1.671716666666666</v>
+        <v>1.671283333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3859,22 +3873,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="C98" t="n">
-        <v>1.673</v>
+        <v>1.676</v>
       </c>
       <c r="D98" t="n">
-        <v>1.674</v>
+        <v>1.676</v>
       </c>
       <c r="E98" t="n">
-        <v>1.673</v>
+        <v>1.676</v>
       </c>
       <c r="F98" t="n">
-        <v>896.0577</v>
+        <v>99154</v>
       </c>
       <c r="G98" t="n">
-        <v>1.672016666666666</v>
+        <v>1.671716666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3894,22 +3908,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.673</v>
+        <v>1.674</v>
       </c>
       <c r="C99" t="n">
         <v>1.673</v>
       </c>
       <c r="D99" t="n">
-        <v>1.673</v>
+        <v>1.674</v>
       </c>
       <c r="E99" t="n">
         <v>1.673</v>
       </c>
       <c r="F99" t="n">
-        <v>27335.2939</v>
+        <v>896.0577</v>
       </c>
       <c r="G99" t="n">
-        <v>1.672066666666666</v>
+        <v>1.672016666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3929,22 +3943,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="E100" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="F100" t="n">
-        <v>8266.17</v>
+        <v>27335.2939</v>
       </c>
       <c r="G100" t="n">
-        <v>1.6724</v>
+        <v>1.672066666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3964,22 +3978,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.695</v>
+        <v>1.7</v>
       </c>
       <c r="C101" t="n">
-        <v>1.695</v>
+        <v>1.7</v>
       </c>
       <c r="D101" t="n">
-        <v>1.695</v>
+        <v>1.7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.695</v>
+        <v>1.7</v>
       </c>
       <c r="F101" t="n">
-        <v>20000</v>
+        <v>8266.17</v>
       </c>
       <c r="G101" t="n">
-        <v>1.672816666666666</v>
+        <v>1.6724</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4011,10 +4025,10 @@
         <v>1.695</v>
       </c>
       <c r="F102" t="n">
-        <v>244535.3101</v>
+        <v>20000</v>
       </c>
       <c r="G102" t="n">
-        <v>1.673233333333333</v>
+        <v>1.672816666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4046,10 +4060,10 @@
         <v>1.695</v>
       </c>
       <c r="F103" t="n">
-        <v>49714.0223</v>
+        <v>244535.3101</v>
       </c>
       <c r="G103" t="n">
-        <v>1.673649999999999</v>
+        <v>1.673233333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4081,10 +4095,10 @@
         <v>1.695</v>
       </c>
       <c r="F104" t="n">
-        <v>1090</v>
+        <v>49714.0223</v>
       </c>
       <c r="G104" t="n">
-        <v>1.674066666666666</v>
+        <v>1.673649999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4099,6 +4113,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.674066666666666</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>40000</v>
       </c>
       <c r="G2" t="n">
+        <v>1.5934</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.618299999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>38053</v>
       </c>
       <c r="G3" t="n">
+        <v>1.5912</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.617399999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.58</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>91673</v>
       </c>
       <c r="G4" t="n">
+        <v>1.5876</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.616783333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.578</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,22 +579,27 @@
         <v>8099</v>
       </c>
       <c r="G5" t="n">
+        <v>1.5858</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.616333333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.583</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1.583</v>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -592,26 +623,27 @@
         <v>455699.0022</v>
       </c>
       <c r="G6" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.615799999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.583</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1.583</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -635,24 +667,27 @@
         <v>40000</v>
       </c>
       <c r="G7" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.614983333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -676,26 +711,27 @@
         <v>80000</v>
       </c>
       <c r="G8" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.614466666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.599</v>
       </c>
-      <c r="K8" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -719,24 +755,25 @@
         <v>1721</v>
       </c>
       <c r="G9" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.613949999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,24 +797,27 @@
         <v>6333000</v>
       </c>
       <c r="G10" t="n">
+        <v>1.587133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.614916666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,24 +841,25 @@
         <v>6255829.5176</v>
       </c>
       <c r="G11" t="n">
+        <v>1.5932</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.615349999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -842,24 +883,25 @@
         <v>1576310.9328</v>
       </c>
       <c r="G12" t="n">
+        <v>1.592733333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.614749999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -883,24 +925,25 @@
         <v>830342.959</v>
       </c>
       <c r="G13" t="n">
+        <v>1.597399999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.615316666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,24 +967,25 @@
         <v>512546.9659</v>
       </c>
       <c r="G14" t="n">
+        <v>1.600199999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.615549999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -965,24 +1009,25 @@
         <v>495799.9054</v>
       </c>
       <c r="G15" t="n">
+        <v>1.599733333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.615583333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +1051,25 @@
         <v>247042.7777</v>
       </c>
       <c r="G16" t="n">
+        <v>1.606733333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.616566666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1047,25 +1093,26 @@
         <v>202847.4733</v>
       </c>
       <c r="G17" t="n">
+        <v>1.610733333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.616966666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1.031007580543272</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1088,18 +1135,25 @@
         <v>6823217.1062</v>
       </c>
       <c r="G18" t="n">
+        <v>1.615399999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.617133333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,18 +1177,25 @@
         <v>46860.2659</v>
       </c>
       <c r="G19" t="n">
+        <v>1.618599999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.616399999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,18 +1219,25 @@
         <v>1695.1428</v>
       </c>
       <c r="G20" t="n">
+        <v>1.619133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.615416666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,18 +1261,25 @@
         <v>1721</v>
       </c>
       <c r="G21" t="n">
+        <v>1.621866666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.615066666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,18 +1303,27 @@
         <v>2537329.6157</v>
       </c>
       <c r="G22" t="n">
+        <v>1.618066666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.613599999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.629</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1263,18 +1347,27 @@
         <v>5123865.5895</v>
       </c>
       <c r="G23" t="n">
+        <v>1.6186</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.613216666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.542</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,18 +1391,25 @@
         <v>975890.8432</v>
       </c>
       <c r="G24" t="n">
+        <v>1.617866666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.612649999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,18 +1433,27 @@
         <v>410506.4553</v>
       </c>
       <c r="G25" t="n">
+        <v>1.616733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.612699999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.588</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,18 +1477,27 @@
         <v>8391679.51</v>
       </c>
       <c r="G26" t="n">
+        <v>1.612266666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.612449999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.603</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,18 +1521,25 @@
         <v>246685.6331</v>
       </c>
       <c r="G27" t="n">
+        <v>1.613533333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.612449999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1438,18 +1563,25 @@
         <v>404798.4128</v>
       </c>
       <c r="G28" t="n">
+        <v>1.612266666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.612516666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,18 +1605,25 @@
         <v>165502.3811</v>
       </c>
       <c r="G29" t="n">
+        <v>1.614933333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.613183333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,18 +1647,25 @@
         <v>316238.067</v>
       </c>
       <c r="G30" t="n">
+        <v>1.6194</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.613516666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,18 +1689,25 @@
         <v>35665.2565</v>
       </c>
       <c r="G31" t="n">
+        <v>1.620133333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.614149999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,18 +1731,25 @@
         <v>284747.4716</v>
       </c>
       <c r="G32" t="n">
+        <v>1.6208</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.614866666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,18 +1773,25 @@
         <v>20355.9126</v>
       </c>
       <c r="G33" t="n">
+        <v>1.620266666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.615966666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,18 +1815,25 @@
         <v>20000</v>
       </c>
       <c r="G34" t="n">
+        <v>1.6202</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.615933333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1683,18 +1857,25 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
+        <v>1.627266666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.617316666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,18 +1899,25 @@
         <v>129654.8962</v>
       </c>
       <c r="G36" t="n">
+        <v>1.629999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.617233333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,18 +1941,25 @@
         <v>1036093.2026</v>
       </c>
       <c r="G37" t="n">
+        <v>1.637066666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.617683333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,18 +1983,25 @@
         <v>346145.5224</v>
       </c>
       <c r="G38" t="n">
+        <v>1.639933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.618283333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,18 +2025,25 @@
         <v>195066.4397</v>
       </c>
       <c r="G39" t="n">
+        <v>1.644399999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.618733333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,18 +2067,25 @@
         <v>156302.6484</v>
       </c>
       <c r="G40" t="n">
+        <v>1.648866666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.619066666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,18 +2109,25 @@
         <v>190664.6</v>
       </c>
       <c r="G41" t="n">
+        <v>1.653399999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.619649999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,18 +2151,25 @@
         <v>70520.0453</v>
       </c>
       <c r="G42" t="n">
+        <v>1.658066666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.620066666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,18 +2193,25 @@
         <v>200000</v>
       </c>
       <c r="G43" t="n">
+        <v>1.660666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.620483333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,18 +2235,25 @@
         <v>7293.8772</v>
       </c>
       <c r="G44" t="n">
+        <v>1.660666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.6209</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,18 +2277,25 @@
         <v>514821.2818</v>
       </c>
       <c r="G45" t="n">
+        <v>1.662666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.62135</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,18 +2319,25 @@
         <v>606332.8</v>
       </c>
       <c r="G46" t="n">
+        <v>1.660666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.6213</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2103,18 +2361,25 @@
         <v>501830.3008343788</v>
       </c>
       <c r="G47" t="n">
+        <v>1.6612</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.621533333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,18 +2403,25 @@
         <v>85518.7224</v>
       </c>
       <c r="G48" t="n">
+        <v>1.660533333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.621849999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,18 +2445,25 @@
         <v>85518.7224</v>
       </c>
       <c r="G49" t="n">
+        <v>1.660533333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.621733333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,18 +2487,25 @@
         <v>22418.9058</v>
       </c>
       <c r="G50" t="n">
+        <v>1.656066666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.622066666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,18 +2529,25 @@
         <v>9000</v>
       </c>
       <c r="G51" t="n">
+        <v>1.652733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.622399999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,18 +2571,25 @@
         <v>3733.2604</v>
       </c>
       <c r="G52" t="n">
+        <v>1.650866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.622749999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,18 +2613,25 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
+        <v>1.650866666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.623599999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2348,18 +2655,25 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
+        <v>1.650533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.62445</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,18 +2697,25 @@
         <v>253984</v>
       </c>
       <c r="G55" t="n">
+        <v>1.649466666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.62555</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,18 +2739,25 @@
         <v>7778</v>
       </c>
       <c r="G56" t="n">
+        <v>1.647733333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.626649999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,18 +2781,25 @@
         <v>150495</v>
       </c>
       <c r="G57" t="n">
+        <v>1.646666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.62775</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,18 +2823,25 @@
         <v>20000</v>
       </c>
       <c r="G58" t="n">
+        <v>1.645599999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.628983333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,18 +2865,25 @@
         <v>9071</v>
       </c>
       <c r="G59" t="n">
+        <v>1.644533333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.630083333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,18 +2907,25 @@
         <v>100000</v>
       </c>
       <c r="G60" t="n">
+        <v>1.643466666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.631316666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,18 +2949,25 @@
         <v>60000</v>
       </c>
       <c r="G61" t="n">
+        <v>1.644733333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.633066666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,18 +2991,25 @@
         <v>1188.16</v>
       </c>
       <c r="G62" t="n">
+        <v>1.644799999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.634383333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2663,18 +3033,25 @@
         <v>20000</v>
       </c>
       <c r="G63" t="n">
+        <v>1.646733333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.635733333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,18 +3075,25 @@
         <v>13127.1</v>
       </c>
       <c r="G64" t="n">
+        <v>1.648666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.637</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,18 +3117,25 @@
         <v>375437.95</v>
       </c>
       <c r="G65" t="n">
+        <v>1.651333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.63845</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,18 +3159,25 @@
         <v>939985.1186</v>
       </c>
       <c r="G66" t="n">
+        <v>1.658933333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.640883333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,18 +3201,25 @@
         <v>84639</v>
       </c>
       <c r="G67" t="n">
+        <v>1.666533333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.643133333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,18 +3243,25 @@
         <v>8601.863600000001</v>
       </c>
       <c r="G68" t="n">
+        <v>1.665199999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.64365</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,18 +3285,25 @@
         <v>2000</v>
       </c>
       <c r="G69" t="n">
+        <v>1.670399999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.6458</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,18 +3327,25 @@
         <v>13616.8157</v>
       </c>
       <c r="G70" t="n">
+        <v>1.674933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.6475</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,18 +3369,25 @@
         <v>3000</v>
       </c>
       <c r="G71" t="n">
+        <v>1.677333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.647683333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,18 +3411,25 @@
         <v>10889.0492</v>
       </c>
       <c r="G72" t="n">
+        <v>1.679733333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.649499999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,18 +3453,25 @@
         <v>298.8644</v>
       </c>
       <c r="G73" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.649883333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,18 +3495,25 @@
         <v>298.6858</v>
       </c>
       <c r="G74" t="n">
+        <v>1.682266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.650599999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3083,18 +3537,25 @@
         <v>79154.129</v>
       </c>
       <c r="G75" t="n">
+        <v>1.683533333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.652266666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,18 +3579,25 @@
         <v>11509</v>
       </c>
       <c r="G76" t="n">
+        <v>1.684466666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.652499999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,18 +3621,25 @@
         <v>800</v>
       </c>
       <c r="G77" t="n">
+        <v>1.685399999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.653049999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,18 +3663,25 @@
         <v>2503</v>
       </c>
       <c r="G78" t="n">
+        <v>1.686333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.653466666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,18 +3705,25 @@
         <v>1589</v>
       </c>
       <c r="G79" t="n">
+        <v>1.687266666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.654166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,18 +3747,25 @@
         <v>45407</v>
       </c>
       <c r="G80" t="n">
+        <v>1.687466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.655533333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,18 +3789,25 @@
         <v>1000</v>
       </c>
       <c r="G81" t="n">
+        <v>1.6834</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.656266666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,20 +3831,25 @@
         <v>21000</v>
       </c>
       <c r="G82" t="n">
+        <v>1.679333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.65845</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3363,18 +3871,21 @@
         <v>75297</v>
       </c>
       <c r="G83" t="n">
+        <v>1.684466666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.660116666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,18 +3909,21 @@
         <v>6889.3025</v>
       </c>
       <c r="G84" t="n">
+        <v>1.683066666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.662099999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,18 +3947,21 @@
         <v>1714.35</v>
       </c>
       <c r="G85" t="n">
+        <v>1.682133333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.66385</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,18 +3985,21 @@
         <v>20000</v>
       </c>
       <c r="G86" t="n">
+        <v>1.683266666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.665433333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,18 +4023,21 @@
         <v>3746.4075</v>
       </c>
       <c r="G87" t="n">
+        <v>1.684466666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.667233333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,18 +4061,21 @@
         <v>13665.4175</v>
       </c>
       <c r="G88" t="n">
+        <v>1.684933333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.66805</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,18 +4099,21 @@
         <v>21844.3201</v>
       </c>
       <c r="G89" t="n">
+        <v>1.685066666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.668133333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,18 +4137,21 @@
         <v>2677.0871</v>
       </c>
       <c r="G90" t="n">
+        <v>1.686866666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.669133333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,18 +4175,21 @@
         <v>292185.3692</v>
       </c>
       <c r="G91" t="n">
+        <v>1.687066666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.669233333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,18 +4213,21 @@
         <v>42721</v>
       </c>
       <c r="G92" t="n">
+        <v>1.6874</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.6697</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,18 +4251,21 @@
         <v>22553.009</v>
       </c>
       <c r="G93" t="n">
+        <v>1.687733333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.670333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,18 +4289,21 @@
         <v>5880.1896</v>
       </c>
       <c r="G94" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.671116666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3783,18 +4327,21 @@
         <v>1600000</v>
       </c>
       <c r="G95" t="n">
+        <v>1.688133333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.67075</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,18 +4365,21 @@
         <v>16556.25</v>
       </c>
       <c r="G96" t="n">
+        <v>1.688333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.67085</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,18 +4403,21 @@
         <v>8241.566000000001</v>
       </c>
       <c r="G97" t="n">
+        <v>1.6884</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.671283333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,18 +4441,21 @@
         <v>99154</v>
       </c>
       <c r="G98" t="n">
+        <v>1.686333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.671716666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,18 +4479,21 @@
         <v>896.0577</v>
       </c>
       <c r="G99" t="n">
+        <v>1.684066666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.672016666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,18 +4517,21 @@
         <v>27335.2939</v>
       </c>
       <c r="G100" t="n">
+        <v>1.681733333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.672066666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,18 +4555,21 @@
         <v>8266.17</v>
       </c>
       <c r="G101" t="n">
+        <v>1.681266666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.6724</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,18 +4593,21 @@
         <v>20000</v>
       </c>
       <c r="G102" t="n">
+        <v>1.6804</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.672816666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,18 +4631,21 @@
         <v>244535.3101</v>
       </c>
       <c r="G103" t="n">
+        <v>1.6814</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.673233333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,18 +4669,21 @@
         <v>49714.0223</v>
       </c>
       <c r="G104" t="n">
+        <v>1.682733333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.673649999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4133,18 +4707,401 @@
         <v>1090</v>
       </c>
       <c r="G105" t="n">
+        <v>1.6824</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.674066666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F106" t="n">
+        <v>119559.9115</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.683666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.674983333333332</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2661.9365</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.682666666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.675066666666666</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F108" t="n">
+        <v>316716.1863</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.684533333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.676333333333332</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9994.0448</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.684066666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.676999999999999</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28717.3988</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.687066666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.678499999999999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>340587.7553</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.680166666666666</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F112" t="n">
+        <v>312836.8902</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.681816666666666</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15575.5441</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.695866666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.682966666666665</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1329.0553</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.694533333333334</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.683016666666665</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F115" t="n">
+        <v>182781.4203</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.697666666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.684116666666665</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.58</v>
+        <v>1.591</v>
       </c>
       <c r="C2" t="n">
-        <v>1.58</v>
+        <v>1.574</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>1.632</v>
       </c>
       <c r="E2" t="n">
-        <v>1.58</v>
+        <v>1.574</v>
       </c>
       <c r="F2" t="n">
-        <v>40000</v>
+        <v>2308730.4631</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5934</v>
+        <v>-1749487.844855069</v>
       </c>
       <c r="H2" t="n">
-        <v>1.618299999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.577</v>
+        <v>1.581</v>
       </c>
       <c r="C3" t="n">
-        <v>1.578</v>
+        <v>1.632</v>
       </c>
       <c r="D3" t="n">
-        <v>1.578</v>
+        <v>1.632</v>
       </c>
       <c r="E3" t="n">
-        <v>1.577</v>
+        <v>1.581</v>
       </c>
       <c r="F3" t="n">
-        <v>38053</v>
+        <v>820000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5912</v>
+        <v>-929487.8448550689</v>
       </c>
       <c r="H3" t="n">
-        <v>1.617399999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.578</v>
+        <v>1.59</v>
       </c>
       <c r="C4" t="n">
-        <v>1.583</v>
+        <v>1.614</v>
       </c>
       <c r="D4" t="n">
-        <v>1.583</v>
+        <v>1.614</v>
       </c>
       <c r="E4" t="n">
-        <v>1.578</v>
+        <v>1.577</v>
       </c>
       <c r="F4" t="n">
-        <v>91673</v>
+        <v>814190.5181</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5876</v>
+        <v>-1743678.362955069</v>
       </c>
       <c r="H4" t="n">
-        <v>1.616783333333332</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.583</v>
+        <v>1.59</v>
       </c>
       <c r="C5" t="n">
-        <v>1.583</v>
+        <v>1.675</v>
       </c>
       <c r="D5" t="n">
-        <v>1.583</v>
+        <v>1.675</v>
       </c>
       <c r="E5" t="n">
-        <v>1.583</v>
+        <v>1.59</v>
       </c>
       <c r="F5" t="n">
-        <v>8099</v>
+        <v>1652709.0168</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5858</v>
+        <v>-90969.34615506884</v>
       </c>
       <c r="H5" t="n">
-        <v>1.616333333333332</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.583</v>
+        <v>1.675</v>
       </c>
       <c r="C6" t="n">
-        <v>1.588</v>
+        <v>1.621</v>
       </c>
       <c r="D6" t="n">
-        <v>1.588</v>
+        <v>1.675</v>
       </c>
       <c r="E6" t="n">
-        <v>1.583</v>
+        <v>1.61</v>
       </c>
       <c r="F6" t="n">
-        <v>455699.0022</v>
+        <v>465294.6656</v>
       </c>
       <c r="G6" t="n">
-        <v>1.585</v>
+        <v>-556264.0117550688</v>
       </c>
       <c r="H6" t="n">
-        <v>1.615799999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.588</v>
+        <v>1.627</v>
       </c>
       <c r="C7" t="n">
-        <v>1.599</v>
+        <v>1.614</v>
       </c>
       <c r="D7" t="n">
-        <v>1.599</v>
+        <v>1.627</v>
       </c>
       <c r="E7" t="n">
-        <v>1.588</v>
+        <v>1.614</v>
       </c>
       <c r="F7" t="n">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="G7" t="n">
-        <v>1.585</v>
+        <v>-756264.0117550688</v>
       </c>
       <c r="H7" t="n">
-        <v>1.614983333333332</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.599</v>
+        <v>1.614</v>
       </c>
       <c r="C8" t="n">
-        <v>1.599</v>
+        <v>1.628</v>
       </c>
       <c r="D8" t="n">
-        <v>1.599</v>
+        <v>1.628</v>
       </c>
       <c r="E8" t="n">
-        <v>1.599</v>
+        <v>1.614</v>
       </c>
       <c r="F8" t="n">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="G8" t="n">
-        <v>1.585</v>
+        <v>-436264.0117550688</v>
       </c>
       <c r="H8" t="n">
-        <v>1.614466666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.599</v>
+        <v>1.65</v>
       </c>
       <c r="C9" t="n">
-        <v>1.599</v>
+        <v>1.65</v>
       </c>
       <c r="D9" t="n">
-        <v>1.599</v>
+        <v>1.65</v>
       </c>
       <c r="E9" t="n">
-        <v>1.599</v>
+        <v>1.65</v>
       </c>
       <c r="F9" t="n">
-        <v>1721</v>
+        <v>410723.9813</v>
       </c>
       <c r="G9" t="n">
-        <v>1.585</v>
+        <v>-25540.0304550688</v>
       </c>
       <c r="H9" t="n">
-        <v>1.613949999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.599</v>
+        <v>1.645</v>
       </c>
       <c r="C10" t="n">
-        <v>1.62</v>
+        <v>1.645</v>
       </c>
       <c r="D10" t="n">
-        <v>1.62</v>
+        <v>1.645</v>
       </c>
       <c r="E10" t="n">
-        <v>1.599</v>
+        <v>1.645</v>
       </c>
       <c r="F10" t="n">
-        <v>6333000</v>
+        <v>31339</v>
       </c>
       <c r="G10" t="n">
-        <v>1.587133333333333</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H10" t="n">
-        <v>1.614916666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.619</v>
+        <v>1.645</v>
       </c>
       <c r="C11" t="n">
-        <v>1.679</v>
+        <v>1.645</v>
       </c>
       <c r="D11" t="n">
-        <v>1.679</v>
+        <v>1.645</v>
       </c>
       <c r="E11" t="n">
-        <v>1.619</v>
+        <v>1.645</v>
       </c>
       <c r="F11" t="n">
-        <v>6255829.5176</v>
+        <v>3501</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5932</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H11" t="n">
-        <v>1.615349999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.63</v>
+        <v>1.645</v>
       </c>
       <c r="C12" t="n">
-        <v>1.581</v>
+        <v>1.645</v>
       </c>
       <c r="D12" t="n">
-        <v>1.679</v>
+        <v>1.645</v>
       </c>
       <c r="E12" t="n">
-        <v>1.581</v>
+        <v>1.645</v>
       </c>
       <c r="F12" t="n">
-        <v>1576310.9328</v>
+        <v>8460.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.592733333333333</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H12" t="n">
-        <v>1.614749999999999</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.669</v>
+        <v>1.645</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="D13" t="n">
-        <v>1.679</v>
+        <v>1.645</v>
       </c>
       <c r="E13" t="n">
-        <v>1.641</v>
+        <v>1.645</v>
       </c>
       <c r="F13" t="n">
-        <v>830342.959</v>
+        <v>55392.7036</v>
       </c>
       <c r="G13" t="n">
-        <v>1.597399999999999</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.615316666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,37 +856,30 @@
         <v>1.643</v>
       </c>
       <c r="C14" t="n">
-        <v>1.63</v>
+        <v>1.643</v>
       </c>
       <c r="D14" t="n">
         <v>1.643</v>
       </c>
       <c r="E14" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="F14" t="n">
-        <v>512546.9659</v>
+        <v>558380.8624</v>
       </c>
       <c r="G14" t="n">
-        <v>1.600199999999999</v>
+        <v>-615259.8928550688</v>
       </c>
       <c r="H14" t="n">
-        <v>1.615549999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.659</v>
+        <v>1.64</v>
       </c>
       <c r="C15" t="n">
-        <v>1.573</v>
+        <v>1.643</v>
       </c>
       <c r="D15" t="n">
-        <v>1.67</v>
+        <v>1.643</v>
       </c>
       <c r="E15" t="n">
-        <v>1.573</v>
+        <v>1.64</v>
       </c>
       <c r="F15" t="n">
-        <v>495799.9054</v>
+        <v>51850</v>
       </c>
       <c r="G15" t="n">
-        <v>1.599733333333333</v>
+        <v>-615259.8928550688</v>
       </c>
       <c r="H15" t="n">
-        <v>1.615583333333332</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1036,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.65</v>
+        <v>1.601</v>
       </c>
       <c r="C16" t="n">
-        <v>1.659</v>
+        <v>1.644</v>
       </c>
       <c r="D16" t="n">
-        <v>1.659</v>
+        <v>1.644</v>
       </c>
       <c r="E16" t="n">
-        <v>1.65</v>
+        <v>1.601</v>
       </c>
       <c r="F16" t="n">
-        <v>247042.7777</v>
+        <v>371922.4916</v>
       </c>
       <c r="G16" t="n">
-        <v>1.606733333333332</v>
+        <v>-243337.4012550688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.616566666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.64</v>
+        <v>1.611</v>
       </c>
       <c r="C17" t="n">
-        <v>1.64</v>
+        <v>1.611</v>
       </c>
       <c r="D17" t="n">
-        <v>1.64</v>
+        <v>1.611</v>
       </c>
       <c r="E17" t="n">
-        <v>1.64</v>
+        <v>1.611</v>
       </c>
       <c r="F17" t="n">
-        <v>202847.4733</v>
+        <v>174520.3986</v>
       </c>
       <c r="G17" t="n">
-        <v>1.610733333333332</v>
+        <v>-417857.7998550688</v>
       </c>
       <c r="H17" t="n">
-        <v>1.616966666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.648</v>
+        <v>1.612</v>
       </c>
       <c r="C18" t="n">
-        <v>1.648</v>
+        <v>1.637</v>
       </c>
       <c r="D18" t="n">
-        <v>1.648</v>
+        <v>1.638</v>
       </c>
       <c r="E18" t="n">
-        <v>1.648</v>
+        <v>1.612</v>
       </c>
       <c r="F18" t="n">
-        <v>6823217.1062</v>
+        <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.615399999999999</v>
+        <v>-377857.7998550688</v>
       </c>
       <c r="H18" t="n">
-        <v>1.617133333333332</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,40 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.631</v>
+        <v>1.61</v>
       </c>
       <c r="C19" t="n">
-        <v>1.631</v>
+        <v>1.61</v>
       </c>
       <c r="D19" t="n">
-        <v>1.631</v>
+        <v>1.61</v>
       </c>
       <c r="E19" t="n">
-        <v>1.631</v>
+        <v>1.61</v>
       </c>
       <c r="F19" t="n">
-        <v>46860.2659</v>
+        <v>23334.7259</v>
       </c>
       <c r="G19" t="n">
-        <v>1.618599999999999</v>
+        <v>-401192.5257550688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.616399999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1204,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.591</v>
+        <v>1.61</v>
       </c>
       <c r="C20" t="n">
-        <v>1.591</v>
+        <v>1.6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.591</v>
+        <v>1.61</v>
       </c>
       <c r="E20" t="n">
-        <v>1.591</v>
+        <v>1.6</v>
       </c>
       <c r="F20" t="n">
-        <v>1695.1428</v>
+        <v>75022.0941</v>
       </c>
       <c r="G20" t="n">
-        <v>1.619133333333333</v>
+        <v>-476214.6198550688</v>
       </c>
       <c r="H20" t="n">
-        <v>1.615416666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,40 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.628</v>
+        <v>1.599</v>
       </c>
       <c r="C21" t="n">
-        <v>1.629</v>
+        <v>1.599</v>
       </c>
       <c r="D21" t="n">
-        <v>1.629</v>
+        <v>1.599</v>
       </c>
       <c r="E21" t="n">
-        <v>1.628</v>
+        <v>1.599</v>
       </c>
       <c r="F21" t="n">
-        <v>1721</v>
+        <v>154520.398</v>
       </c>
       <c r="G21" t="n">
-        <v>1.621866666666666</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H21" t="n">
-        <v>1.615066666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.629</v>
+        <v>1.599</v>
       </c>
       <c r="C22" t="n">
-        <v>1.542</v>
+        <v>1.599</v>
       </c>
       <c r="D22" t="n">
-        <v>1.636</v>
+        <v>1.599</v>
       </c>
       <c r="E22" t="n">
-        <v>1.542</v>
+        <v>1.599</v>
       </c>
       <c r="F22" t="n">
-        <v>2537329.6157</v>
+        <v>771345.0072</v>
       </c>
       <c r="G22" t="n">
-        <v>1.618066666666666</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.613599999999999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.609</v>
+        <v>1.599</v>
       </c>
       <c r="C23" t="n">
-        <v>1.607</v>
+        <v>1.599</v>
       </c>
       <c r="D23" t="n">
-        <v>1.61</v>
+        <v>1.599</v>
       </c>
       <c r="E23" t="n">
-        <v>1.543</v>
+        <v>1.599</v>
       </c>
       <c r="F23" t="n">
-        <v>5123865.5895</v>
+        <v>787.8552</v>
       </c>
       <c r="G23" t="n">
-        <v>1.6186</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H23" t="n">
-        <v>1.613216666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.59</v>
+        <v>1.588</v>
       </c>
       <c r="C24" t="n">
         <v>1.588</v>
       </c>
       <c r="D24" t="n">
-        <v>1.59</v>
+        <v>1.588</v>
       </c>
       <c r="E24" t="n">
         <v>1.588</v>
       </c>
       <c r="F24" t="n">
-        <v>975890.8432</v>
+        <v>321182.4247</v>
       </c>
       <c r="G24" t="n">
-        <v>1.617866666666666</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H24" t="n">
-        <v>1.612649999999999</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.59</v>
+        <v>1.582</v>
       </c>
       <c r="C25" t="n">
-        <v>1.603</v>
+        <v>1.588</v>
       </c>
       <c r="D25" t="n">
-        <v>1.603</v>
+        <v>1.588</v>
       </c>
       <c r="E25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="F25" t="n">
-        <v>410506.4553</v>
+        <v>337554.7571</v>
       </c>
       <c r="G25" t="n">
-        <v>1.616733333333333</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.612699999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.614</v>
+        <v>1.58</v>
       </c>
       <c r="C26" t="n">
-        <v>1.612</v>
+        <v>1.588</v>
       </c>
       <c r="D26" t="n">
-        <v>1.614</v>
+        <v>1.588</v>
       </c>
       <c r="E26" t="n">
-        <v>1.612</v>
+        <v>1.542</v>
       </c>
       <c r="F26" t="n">
-        <v>8391679.51</v>
+        <v>1662453.4058</v>
       </c>
       <c r="G26" t="n">
-        <v>1.612266666666666</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H26" t="n">
-        <v>1.612449999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="D27" t="n">
-        <v>1.734</v>
+        <v>1.58</v>
       </c>
       <c r="E27" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="F27" t="n">
-        <v>246685.6331</v>
+        <v>212651.1</v>
       </c>
       <c r="G27" t="n">
-        <v>1.613533333333333</v>
+        <v>-1164568.542555069</v>
       </c>
       <c r="H27" t="n">
-        <v>1.612449999999999</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,40 +1343,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="C28" t="n">
-        <v>1.631</v>
+        <v>1.588</v>
       </c>
       <c r="D28" t="n">
-        <v>1.65</v>
+        <v>1.588</v>
       </c>
       <c r="E28" t="n">
-        <v>1.631</v>
+        <v>1.58</v>
       </c>
       <c r="F28" t="n">
-        <v>404798.4128</v>
+        <v>309736.5866</v>
       </c>
       <c r="G28" t="n">
-        <v>1.612266666666667</v>
+        <v>-854831.9559550688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.612516666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,40 +1384,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.631</v>
+        <v>1.58</v>
       </c>
       <c r="C29" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="D29" t="n">
-        <v>1.679</v>
+        <v>1.58</v>
       </c>
       <c r="E29" t="n">
-        <v>1.631</v>
+        <v>1.58</v>
       </c>
       <c r="F29" t="n">
-        <v>165502.3811</v>
+        <v>46028.906</v>
       </c>
       <c r="G29" t="n">
-        <v>1.614933333333333</v>
+        <v>-900860.8619550688</v>
       </c>
       <c r="H29" t="n">
-        <v>1.613183333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,40 +1423,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.63</v>
+        <v>1.554</v>
       </c>
       <c r="C30" t="n">
-        <v>1.64</v>
+        <v>1.554</v>
       </c>
       <c r="D30" t="n">
-        <v>1.64</v>
+        <v>1.554</v>
       </c>
       <c r="E30" t="n">
-        <v>1.63</v>
+        <v>1.554</v>
       </c>
       <c r="F30" t="n">
-        <v>316238.067</v>
+        <v>5854.9625</v>
       </c>
       <c r="G30" t="n">
-        <v>1.6194</v>
+        <v>-906715.8244550688</v>
       </c>
       <c r="H30" t="n">
-        <v>1.613516666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,40 +1462,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="C31" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="D31" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="E31" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="F31" t="n">
-        <v>35665.2565</v>
+        <v>40000</v>
       </c>
       <c r="G31" t="n">
-        <v>1.620133333333333</v>
+        <v>-866715.8244550688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.614149999999999</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.554</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,40 +1503,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.66</v>
+        <v>1.577</v>
       </c>
       <c r="C32" t="n">
-        <v>1.65</v>
+        <v>1.578</v>
       </c>
       <c r="D32" t="n">
-        <v>1.66</v>
+        <v>1.578</v>
       </c>
       <c r="E32" t="n">
-        <v>1.65</v>
+        <v>1.577</v>
       </c>
       <c r="F32" t="n">
-        <v>284747.4716</v>
+        <v>38053</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6208</v>
+        <v>-904768.8244550688</v>
       </c>
       <c r="H32" t="n">
-        <v>1.614866666666666</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,40 +1544,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.64</v>
+        <v>1.578</v>
       </c>
       <c r="C33" t="n">
-        <v>1.64</v>
+        <v>1.583</v>
       </c>
       <c r="D33" t="n">
-        <v>1.64</v>
+        <v>1.583</v>
       </c>
       <c r="E33" t="n">
-        <v>1.64</v>
+        <v>1.578</v>
       </c>
       <c r="F33" t="n">
-        <v>20355.9126</v>
+        <v>91673</v>
       </c>
       <c r="G33" t="n">
-        <v>1.620266666666667</v>
+        <v>-813095.8244550688</v>
       </c>
       <c r="H33" t="n">
-        <v>1.615966666666666</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.578</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,40 +1585,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.63</v>
+        <v>1.583</v>
       </c>
       <c r="C34" t="n">
-        <v>1.63</v>
+        <v>1.583</v>
       </c>
       <c r="D34" t="n">
-        <v>1.63</v>
+        <v>1.583</v>
       </c>
       <c r="E34" t="n">
-        <v>1.63</v>
+        <v>1.583</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>8099</v>
       </c>
       <c r="G34" t="n">
-        <v>1.6202</v>
+        <v>-813095.8244550688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.615933333333332</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.583</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,40 +1626,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.697</v>
+        <v>1.583</v>
       </c>
       <c r="C35" t="n">
-        <v>1.697</v>
+        <v>1.588</v>
       </c>
       <c r="D35" t="n">
-        <v>1.697</v>
+        <v>1.588</v>
       </c>
       <c r="E35" t="n">
-        <v>1.697</v>
+        <v>1.583</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>455699.0022</v>
       </c>
       <c r="G35" t="n">
-        <v>1.627266666666666</v>
+        <v>-357396.8222550688</v>
       </c>
       <c r="H35" t="n">
-        <v>1.617316666666666</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.583</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,40 +1667,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.63</v>
+        <v>1.588</v>
       </c>
       <c r="C36" t="n">
-        <v>1.67</v>
+        <v>1.599</v>
       </c>
       <c r="D36" t="n">
-        <v>1.67</v>
+        <v>1.599</v>
       </c>
       <c r="E36" t="n">
-        <v>1.63</v>
+        <v>1.588</v>
       </c>
       <c r="F36" t="n">
-        <v>129654.8962</v>
+        <v>40000</v>
       </c>
       <c r="G36" t="n">
-        <v>1.629999999999999</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H36" t="n">
-        <v>1.617233333333332</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,40 +1708,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.648</v>
+        <v>1.599</v>
       </c>
       <c r="C37" t="n">
-        <v>1.648</v>
+        <v>1.599</v>
       </c>
       <c r="D37" t="n">
-        <v>1.648</v>
+        <v>1.599</v>
       </c>
       <c r="E37" t="n">
-        <v>1.648</v>
+        <v>1.599</v>
       </c>
       <c r="F37" t="n">
-        <v>1036093.2026</v>
+        <v>80000</v>
       </c>
       <c r="G37" t="n">
-        <v>1.637066666666666</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.617683333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,40 +1747,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.65</v>
+        <v>1.599</v>
       </c>
       <c r="C38" t="n">
-        <v>1.65</v>
+        <v>1.599</v>
       </c>
       <c r="D38" t="n">
-        <v>1.65</v>
+        <v>1.599</v>
       </c>
       <c r="E38" t="n">
-        <v>1.65</v>
+        <v>1.599</v>
       </c>
       <c r="F38" t="n">
-        <v>346145.5224</v>
+        <v>1721</v>
       </c>
       <c r="G38" t="n">
-        <v>1.639933333333333</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H38" t="n">
-        <v>1.618283333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,40 +1786,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.655</v>
+        <v>1.599</v>
       </c>
       <c r="C39" t="n">
-        <v>1.655</v>
+        <v>1.62</v>
       </c>
       <c r="D39" t="n">
-        <v>1.655</v>
+        <v>1.62</v>
       </c>
       <c r="E39" t="n">
-        <v>1.655</v>
+        <v>1.599</v>
       </c>
       <c r="F39" t="n">
-        <v>195066.4397</v>
+        <v>6333000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.644399999999999</v>
+        <v>6015603.177744932</v>
       </c>
       <c r="H39" t="n">
-        <v>1.618733333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,40 +1825,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.67</v>
+        <v>1.619</v>
       </c>
       <c r="C40" t="n">
-        <v>1.67</v>
+        <v>1.679</v>
       </c>
       <c r="D40" t="n">
-        <v>1.67</v>
+        <v>1.679</v>
       </c>
       <c r="E40" t="n">
-        <v>1.67</v>
+        <v>1.619</v>
       </c>
       <c r="F40" t="n">
-        <v>156302.6484</v>
+        <v>6255829.5176</v>
       </c>
       <c r="G40" t="n">
-        <v>1.648866666666666</v>
+        <v>12271432.69534493</v>
       </c>
       <c r="H40" t="n">
-        <v>1.619066666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,40 +1864,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="C41" t="n">
-        <v>1.68</v>
+        <v>1.581</v>
       </c>
       <c r="D41" t="n">
-        <v>1.68</v>
+        <v>1.679</v>
       </c>
       <c r="E41" t="n">
-        <v>1.68</v>
+        <v>1.581</v>
       </c>
       <c r="F41" t="n">
-        <v>190664.6</v>
+        <v>1576310.9328</v>
       </c>
       <c r="G41" t="n">
-        <v>1.653399999999999</v>
+        <v>10695121.76254493</v>
       </c>
       <c r="H41" t="n">
-        <v>1.619649999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,40 +1903,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.68</v>
+        <v>1.669</v>
       </c>
       <c r="C42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="D42" t="n">
-        <v>1.68</v>
+        <v>1.679</v>
       </c>
       <c r="E42" t="n">
-        <v>1.67</v>
+        <v>1.641</v>
       </c>
       <c r="F42" t="n">
-        <v>70520.0453</v>
+        <v>830342.959</v>
       </c>
       <c r="G42" t="n">
-        <v>1.658066666666666</v>
+        <v>11525464.72154493</v>
       </c>
       <c r="H42" t="n">
-        <v>1.620066666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,40 +1942,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.67</v>
+        <v>1.643</v>
       </c>
       <c r="C43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="D43" t="n">
-        <v>1.67</v>
+        <v>1.643</v>
       </c>
       <c r="E43" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="F43" t="n">
-        <v>200000</v>
+        <v>512546.9659</v>
       </c>
       <c r="G43" t="n">
-        <v>1.660666666666666</v>
+        <v>11012917.75564493</v>
       </c>
       <c r="H43" t="n">
-        <v>1.620483333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2220,40 +1981,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.67</v>
+        <v>1.659</v>
       </c>
       <c r="C44" t="n">
-        <v>1.67</v>
+        <v>1.573</v>
       </c>
       <c r="D44" t="n">
         <v>1.67</v>
       </c>
       <c r="E44" t="n">
-        <v>1.67</v>
+        <v>1.573</v>
       </c>
       <c r="F44" t="n">
-        <v>7293.8772</v>
+        <v>495799.9054</v>
       </c>
       <c r="G44" t="n">
-        <v>1.660666666666666</v>
+        <v>10517117.85024493</v>
       </c>
       <c r="H44" t="n">
-        <v>1.6209</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,40 +2020,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.611</v>
+        <v>1.65</v>
       </c>
       <c r="C45" t="n">
-        <v>1.67</v>
+        <v>1.659</v>
       </c>
       <c r="D45" t="n">
-        <v>1.67</v>
+        <v>1.659</v>
       </c>
       <c r="E45" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="F45" t="n">
-        <v>514821.2818</v>
+        <v>247042.7777</v>
       </c>
       <c r="G45" t="n">
-        <v>1.662666666666666</v>
+        <v>10764160.62794493</v>
       </c>
       <c r="H45" t="n">
-        <v>1.62135</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,7 +2059,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="C46" t="n">
         <v>1.64</v>
@@ -2313,31 +2068,28 @@
         <v>1.64</v>
       </c>
       <c r="E46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="F46" t="n">
-        <v>606332.8</v>
+        <v>202847.4733</v>
       </c>
       <c r="G46" t="n">
-        <v>1.660666666666666</v>
+        <v>10561313.15464493</v>
       </c>
       <c r="H46" t="n">
-        <v>1.6213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,40 +2098,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.656</v>
+        <v>1.648</v>
       </c>
       <c r="C47" t="n">
-        <v>1.658</v>
+        <v>1.648</v>
       </c>
       <c r="D47" t="n">
-        <v>1.658</v>
+        <v>1.648</v>
       </c>
       <c r="E47" t="n">
-        <v>1.656</v>
+        <v>1.648</v>
       </c>
       <c r="F47" t="n">
-        <v>501830.3008343788</v>
+        <v>6823217.1062</v>
       </c>
       <c r="G47" t="n">
-        <v>1.6612</v>
+        <v>17384530.26084493</v>
       </c>
       <c r="H47" t="n">
-        <v>1.621533333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,40 +2137,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="C48" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="D48" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="E48" t="n">
-        <v>1.63</v>
+        <v>1.631</v>
       </c>
       <c r="F48" t="n">
-        <v>85518.7224</v>
+        <v>46860.2659</v>
       </c>
       <c r="G48" t="n">
-        <v>1.660533333333333</v>
+        <v>17337669.99494493</v>
       </c>
       <c r="H48" t="n">
-        <v>1.621849999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,40 +2176,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.63</v>
+        <v>1.591</v>
       </c>
       <c r="C49" t="n">
-        <v>1.63</v>
+        <v>1.591</v>
       </c>
       <c r="D49" t="n">
-        <v>1.63</v>
+        <v>1.591</v>
       </c>
       <c r="E49" t="n">
-        <v>1.63</v>
+        <v>1.591</v>
       </c>
       <c r="F49" t="n">
-        <v>85518.7224</v>
+        <v>1695.1428</v>
       </c>
       <c r="G49" t="n">
-        <v>1.660533333333333</v>
+        <v>17335974.85214493</v>
       </c>
       <c r="H49" t="n">
-        <v>1.621733333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,40 +2215,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="C50" t="n">
-        <v>1.63</v>
+        <v>1.629</v>
       </c>
       <c r="D50" t="n">
-        <v>1.63</v>
+        <v>1.629</v>
       </c>
       <c r="E50" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="F50" t="n">
-        <v>22418.9058</v>
+        <v>1721</v>
       </c>
       <c r="G50" t="n">
-        <v>1.656066666666666</v>
+        <v>17337695.85214493</v>
       </c>
       <c r="H50" t="n">
-        <v>1.622066666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,40 +2254,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.62</v>
+        <v>1.629</v>
       </c>
       <c r="C51" t="n">
-        <v>1.62</v>
+        <v>1.542</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62</v>
+        <v>1.636</v>
       </c>
       <c r="E51" t="n">
-        <v>1.62</v>
+        <v>1.542</v>
       </c>
       <c r="F51" t="n">
-        <v>9000</v>
+        <v>2537329.6157</v>
       </c>
       <c r="G51" t="n">
-        <v>1.652733333333333</v>
+        <v>14800366.23644493</v>
       </c>
       <c r="H51" t="n">
-        <v>1.622399999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,40 +2293,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.65</v>
+        <v>1.609</v>
       </c>
       <c r="C52" t="n">
-        <v>1.62</v>
+        <v>1.607</v>
       </c>
       <c r="D52" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="E52" t="n">
-        <v>1.62</v>
+        <v>1.543</v>
       </c>
       <c r="F52" t="n">
-        <v>3733.2604</v>
+        <v>5123865.5895</v>
       </c>
       <c r="G52" t="n">
-        <v>1.650866666666666</v>
+        <v>19924231.82594493</v>
       </c>
       <c r="H52" t="n">
-        <v>1.622749999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,40 +2332,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="C53" t="n">
-        <v>1.65</v>
+        <v>1.588</v>
       </c>
       <c r="D53" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="E53" t="n">
-        <v>1.65</v>
+        <v>1.588</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>975890.8432</v>
       </c>
       <c r="G53" t="n">
-        <v>1.650866666666666</v>
+        <v>18948340.98274493</v>
       </c>
       <c r="H53" t="n">
-        <v>1.623599999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,40 +2371,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="C54" t="n">
-        <v>1.65</v>
+        <v>1.603</v>
       </c>
       <c r="D54" t="n">
-        <v>1.65</v>
+        <v>1.603</v>
       </c>
       <c r="E54" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>410506.4553</v>
       </c>
       <c r="G54" t="n">
-        <v>1.650533333333333</v>
+        <v>19358847.43804493</v>
       </c>
       <c r="H54" t="n">
-        <v>1.62445</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,40 +2410,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.65</v>
+        <v>1.614</v>
       </c>
       <c r="C55" t="n">
-        <v>1.654</v>
+        <v>1.612</v>
       </c>
       <c r="D55" t="n">
-        <v>1.654</v>
+        <v>1.614</v>
       </c>
       <c r="E55" t="n">
-        <v>1.65</v>
+        <v>1.612</v>
       </c>
       <c r="F55" t="n">
-        <v>253984</v>
+        <v>8391679.51</v>
       </c>
       <c r="G55" t="n">
-        <v>1.649466666666666</v>
+        <v>27750526.94804493</v>
       </c>
       <c r="H55" t="n">
-        <v>1.62555</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,40 +2449,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.654</v>
+        <v>1.62</v>
       </c>
       <c r="C56" t="n">
-        <v>1.654</v>
+        <v>1.6</v>
       </c>
       <c r="D56" t="n">
-        <v>1.654</v>
+        <v>1.734</v>
       </c>
       <c r="E56" t="n">
-        <v>1.654</v>
+        <v>1.6</v>
       </c>
       <c r="F56" t="n">
-        <v>7778</v>
+        <v>246685.6331</v>
       </c>
       <c r="G56" t="n">
-        <v>1.647733333333333</v>
+        <v>27503841.31494493</v>
       </c>
       <c r="H56" t="n">
-        <v>1.626649999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2766,40 +2488,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="C57" t="n">
-        <v>1.654</v>
+        <v>1.631</v>
       </c>
       <c r="D57" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="E57" t="n">
-        <v>1.654</v>
+        <v>1.631</v>
       </c>
       <c r="F57" t="n">
-        <v>150495</v>
+        <v>404798.4128</v>
       </c>
       <c r="G57" t="n">
-        <v>1.646666666666666</v>
+        <v>27908639.72774493</v>
       </c>
       <c r="H57" t="n">
-        <v>1.62775</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,40 +2527,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.654</v>
+        <v>1.631</v>
       </c>
       <c r="C58" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="D58" t="n">
-        <v>1.654</v>
+        <v>1.679</v>
       </c>
       <c r="E58" t="n">
-        <v>1.654</v>
+        <v>1.631</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>165502.3811</v>
       </c>
       <c r="G58" t="n">
-        <v>1.645599999999999</v>
+        <v>28074142.10884493</v>
       </c>
       <c r="H58" t="n">
-        <v>1.628983333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,40 +2566,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="C59" t="n">
-        <v>1.654</v>
+        <v>1.64</v>
       </c>
       <c r="D59" t="n">
-        <v>1.654</v>
+        <v>1.64</v>
       </c>
       <c r="E59" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="F59" t="n">
-        <v>9071</v>
+        <v>316238.067</v>
       </c>
       <c r="G59" t="n">
-        <v>1.644533333333333</v>
+        <v>27757904.04184493</v>
       </c>
       <c r="H59" t="n">
-        <v>1.630083333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,40 +2605,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="C60" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="D60" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="E60" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="F60" t="n">
-        <v>100000</v>
+        <v>35665.2565</v>
       </c>
       <c r="G60" t="n">
-        <v>1.643466666666666</v>
+        <v>27793569.29834493</v>
       </c>
       <c r="H60" t="n">
-        <v>1.631316666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,40 +2644,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.654</v>
+        <v>1.66</v>
       </c>
       <c r="C61" t="n">
-        <v>1.659</v>
+        <v>1.65</v>
       </c>
       <c r="D61" t="n">
-        <v>1.659</v>
+        <v>1.66</v>
       </c>
       <c r="E61" t="n">
-        <v>1.654</v>
+        <v>1.65</v>
       </c>
       <c r="F61" t="n">
-        <v>60000</v>
+        <v>284747.4716</v>
       </c>
       <c r="G61" t="n">
-        <v>1.644733333333333</v>
+        <v>27508821.82674493</v>
       </c>
       <c r="H61" t="n">
-        <v>1.633066666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,40 +2683,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.659</v>
+        <v>1.64</v>
       </c>
       <c r="C62" t="n">
-        <v>1.659</v>
+        <v>1.64</v>
       </c>
       <c r="D62" t="n">
-        <v>1.659</v>
+        <v>1.64</v>
       </c>
       <c r="E62" t="n">
-        <v>1.659</v>
+        <v>1.64</v>
       </c>
       <c r="F62" t="n">
-        <v>1188.16</v>
+        <v>20355.9126</v>
       </c>
       <c r="G62" t="n">
-        <v>1.644799999999999</v>
+        <v>27488465.91414493</v>
       </c>
       <c r="H62" t="n">
-        <v>1.634383333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,40 +2722,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="C63" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="D63" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="E63" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="F63" t="n">
         <v>20000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.646733333333333</v>
+        <v>27468465.91414493</v>
       </c>
       <c r="H63" t="n">
-        <v>1.635733333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,40 +2761,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.659</v>
+        <v>1.697</v>
       </c>
       <c r="C64" t="n">
-        <v>1.659</v>
+        <v>1.697</v>
       </c>
       <c r="D64" t="n">
-        <v>1.659</v>
+        <v>1.697</v>
       </c>
       <c r="E64" t="n">
-        <v>1.659</v>
+        <v>1.697</v>
       </c>
       <c r="F64" t="n">
-        <v>13127.1</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>1.648666666666666</v>
+        <v>27469465.91414493</v>
       </c>
       <c r="H64" t="n">
-        <v>1.637</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,7 +2800,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="C65" t="n">
         <v>1.67</v>
@@ -3111,31 +2809,28 @@
         <v>1.67</v>
       </c>
       <c r="E65" t="n">
-        <v>1.659</v>
+        <v>1.63</v>
       </c>
       <c r="F65" t="n">
-        <v>375437.95</v>
+        <v>129654.8962</v>
       </c>
       <c r="G65" t="n">
-        <v>1.651333333333333</v>
+        <v>27339811.01794493</v>
       </c>
       <c r="H65" t="n">
-        <v>1.63845</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,40 +2839,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.625</v>
+        <v>1.648</v>
       </c>
       <c r="C66" t="n">
-        <v>1.734</v>
+        <v>1.648</v>
       </c>
       <c r="D66" t="n">
-        <v>1.734</v>
+        <v>1.648</v>
       </c>
       <c r="E66" t="n">
-        <v>1.625</v>
+        <v>1.648</v>
       </c>
       <c r="F66" t="n">
-        <v>939985.1186</v>
+        <v>1036093.2026</v>
       </c>
       <c r="G66" t="n">
-        <v>1.658933333333333</v>
+        <v>26303717.81534493</v>
       </c>
       <c r="H66" t="n">
-        <v>1.640883333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,40 +2878,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.734</v>
+        <v>1.65</v>
       </c>
       <c r="C67" t="n">
-        <v>1.734</v>
+        <v>1.65</v>
       </c>
       <c r="D67" t="n">
-        <v>1.734</v>
+        <v>1.65</v>
       </c>
       <c r="E67" t="n">
-        <v>1.734</v>
+        <v>1.65</v>
       </c>
       <c r="F67" t="n">
-        <v>84639</v>
+        <v>346145.5224</v>
       </c>
       <c r="G67" t="n">
-        <v>1.666533333333333</v>
+        <v>26649863.33774493</v>
       </c>
       <c r="H67" t="n">
-        <v>1.643133333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,40 +2917,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.73</v>
+        <v>1.655</v>
       </c>
       <c r="C68" t="n">
-        <v>1.63</v>
+        <v>1.655</v>
       </c>
       <c r="D68" t="n">
-        <v>1.73</v>
+        <v>1.655</v>
       </c>
       <c r="E68" t="n">
-        <v>1.63</v>
+        <v>1.655</v>
       </c>
       <c r="F68" t="n">
-        <v>8601.863600000001</v>
+        <v>195066.4397</v>
       </c>
       <c r="G68" t="n">
-        <v>1.665199999999999</v>
+        <v>26844929.77744493</v>
       </c>
       <c r="H68" t="n">
-        <v>1.64365</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,40 +2956,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.728</v>
+        <v>1.67</v>
       </c>
       <c r="C69" t="n">
-        <v>1.728</v>
+        <v>1.67</v>
       </c>
       <c r="D69" t="n">
-        <v>1.728</v>
+        <v>1.67</v>
       </c>
       <c r="E69" t="n">
-        <v>1.728</v>
+        <v>1.67</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>156302.6484</v>
       </c>
       <c r="G69" t="n">
-        <v>1.670399999999999</v>
+        <v>27001232.42584493</v>
       </c>
       <c r="H69" t="n">
-        <v>1.6458</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,40 +2995,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.725</v>
+        <v>1.68</v>
       </c>
       <c r="C70" t="n">
-        <v>1.722</v>
+        <v>1.68</v>
       </c>
       <c r="D70" t="n">
-        <v>1.725</v>
+        <v>1.68</v>
       </c>
       <c r="E70" t="n">
-        <v>1.722</v>
+        <v>1.68</v>
       </c>
       <c r="F70" t="n">
-        <v>13616.8157</v>
+        <v>190664.6</v>
       </c>
       <c r="G70" t="n">
-        <v>1.674933333333333</v>
+        <v>27191897.02584493</v>
       </c>
       <c r="H70" t="n">
-        <v>1.6475</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,40 +3034,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="C71" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="D71" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="E71" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="F71" t="n">
-        <v>3000</v>
+        <v>70520.0453</v>
       </c>
       <c r="G71" t="n">
-        <v>1.677333333333333</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H71" t="n">
-        <v>1.647683333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,40 +3073,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="D72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="E72" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="F72" t="n">
-        <v>10889.0492</v>
+        <v>200000</v>
       </c>
       <c r="G72" t="n">
-        <v>1.679733333333333</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H72" t="n">
-        <v>1.649499999999999</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,40 +3112,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="C73" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="D73" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="E73" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="F73" t="n">
-        <v>298.8644</v>
+        <v>7293.8772</v>
       </c>
       <c r="G73" t="n">
-        <v>1.681</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H73" t="n">
-        <v>1.649883333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,40 +3151,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.673</v>
+        <v>1.611</v>
       </c>
       <c r="C74" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="D74" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="E74" t="n">
-        <v>1.673</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="n">
-        <v>298.6858</v>
+        <v>514821.2818</v>
       </c>
       <c r="G74" t="n">
-        <v>1.682266666666666</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H74" t="n">
-        <v>1.650599999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,40 +3190,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="C75" t="n">
-        <v>1.673</v>
+        <v>1.64</v>
       </c>
       <c r="D75" t="n">
-        <v>1.673</v>
+        <v>1.64</v>
       </c>
       <c r="E75" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="F75" t="n">
-        <v>79154.129</v>
+        <v>606332.8</v>
       </c>
       <c r="G75" t="n">
-        <v>1.683533333333333</v>
+        <v>26515044.18054493</v>
       </c>
       <c r="H75" t="n">
-        <v>1.652266666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,40 +3229,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.673</v>
+        <v>1.656</v>
       </c>
       <c r="C76" t="n">
-        <v>1.673</v>
+        <v>1.658</v>
       </c>
       <c r="D76" t="n">
-        <v>1.673</v>
+        <v>1.658</v>
       </c>
       <c r="E76" t="n">
-        <v>1.673</v>
+        <v>1.656</v>
       </c>
       <c r="F76" t="n">
-        <v>11509</v>
+        <v>501830.3008343788</v>
       </c>
       <c r="G76" t="n">
-        <v>1.684466666666666</v>
+        <v>27016874.48137931</v>
       </c>
       <c r="H76" t="n">
-        <v>1.652499999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,40 +3268,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="C77" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="D77" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="E77" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>85518.7224</v>
       </c>
       <c r="G77" t="n">
-        <v>1.685399999999999</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H77" t="n">
-        <v>1.653049999999999</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,40 +3307,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="C78" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="D78" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="E78" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="F78" t="n">
-        <v>2503</v>
+        <v>85518.7224</v>
       </c>
       <c r="G78" t="n">
-        <v>1.686333333333333</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H78" t="n">
-        <v>1.653466666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,40 +3346,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="C79" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="D79" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="E79" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="F79" t="n">
-        <v>1589</v>
+        <v>22418.9058</v>
       </c>
       <c r="G79" t="n">
-        <v>1.687266666666666</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H79" t="n">
-        <v>1.654166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,40 +3385,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="C80" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="D80" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="E80" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="F80" t="n">
-        <v>45407</v>
+        <v>9000</v>
       </c>
       <c r="G80" t="n">
-        <v>1.687466666666666</v>
+        <v>26922355.75897931</v>
       </c>
       <c r="H80" t="n">
-        <v>1.655533333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,40 +3424,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="C81" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="D81" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="E81" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>3733.2604</v>
       </c>
       <c r="G81" t="n">
-        <v>1.6834</v>
+        <v>26922355.75897931</v>
       </c>
       <c r="H81" t="n">
-        <v>1.656266666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,76 +3463,76 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="C82" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="D82" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="E82" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="F82" t="n">
-        <v>21000</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>1.679333333333333</v>
+        <v>26923355.75897931</v>
       </c>
       <c r="H82" t="n">
-        <v>1.65845</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="C83" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="D83" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="E83" t="n">
-        <v>1.673</v>
+        <v>1.65</v>
       </c>
       <c r="F83" t="n">
-        <v>75297</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>1.684466666666667</v>
+        <v>26923355.75897931</v>
       </c>
       <c r="H83" t="n">
-        <v>1.660116666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,36 +3541,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="C84" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="D84" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="E84" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="F84" t="n">
-        <v>6889.3025</v>
+        <v>253984</v>
       </c>
       <c r="G84" t="n">
-        <v>1.683066666666666</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H84" t="n">
-        <v>1.662099999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,36 +3580,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.709</v>
+        <v>1.654</v>
       </c>
       <c r="C85" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="D85" t="n">
-        <v>1.709</v>
+        <v>1.654</v>
       </c>
       <c r="E85" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="F85" t="n">
-        <v>1714.35</v>
+        <v>7778</v>
       </c>
       <c r="G85" t="n">
-        <v>1.682133333333333</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H85" t="n">
-        <v>1.66385</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,36 +3619,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="C86" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="D86" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="E86" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="F86" t="n">
-        <v>20000</v>
+        <v>150495</v>
       </c>
       <c r="G86" t="n">
-        <v>1.683266666666666</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H86" t="n">
-        <v>1.665433333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,36 +3658,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="C87" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="D87" t="n">
-        <v>1.708</v>
+        <v>1.654</v>
       </c>
       <c r="E87" t="n">
-        <v>1.707</v>
+        <v>1.654</v>
       </c>
       <c r="F87" t="n">
-        <v>3746.4075</v>
+        <v>20000</v>
       </c>
       <c r="G87" t="n">
-        <v>1.684466666666666</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H87" t="n">
-        <v>1.667233333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,36 +3697,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68</v>
+        <v>1.654</v>
       </c>
       <c r="D88" t="n">
-        <v>1.68</v>
+        <v>1.654</v>
       </c>
       <c r="E88" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="F88" t="n">
-        <v>13665.4175</v>
+        <v>9071</v>
       </c>
       <c r="G88" t="n">
-        <v>1.684933333333333</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H88" t="n">
-        <v>1.66805</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,36 +3736,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.675</v>
+        <v>1.654</v>
       </c>
       <c r="C89" t="n">
-        <v>1.675</v>
+        <v>1.654</v>
       </c>
       <c r="D89" t="n">
-        <v>1.675</v>
+        <v>1.654</v>
       </c>
       <c r="E89" t="n">
-        <v>1.675</v>
+        <v>1.654</v>
       </c>
       <c r="F89" t="n">
-        <v>21844.3201</v>
+        <v>100000</v>
       </c>
       <c r="G89" t="n">
-        <v>1.685066666666666</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H89" t="n">
-        <v>1.668133333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,36 +3775,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.7</v>
+        <v>1.654</v>
       </c>
       <c r="C90" t="n">
-        <v>1.7</v>
+        <v>1.659</v>
       </c>
       <c r="D90" t="n">
-        <v>1.7</v>
+        <v>1.659</v>
       </c>
       <c r="E90" t="n">
-        <v>1.7</v>
+        <v>1.654</v>
       </c>
       <c r="F90" t="n">
-        <v>2677.0871</v>
+        <v>60000</v>
       </c>
       <c r="G90" t="n">
-        <v>1.686866666666667</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H90" t="n">
-        <v>1.669133333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,36 +3814,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.676</v>
+        <v>1.659</v>
       </c>
       <c r="C91" t="n">
-        <v>1.676</v>
+        <v>1.659</v>
       </c>
       <c r="D91" t="n">
-        <v>1.676</v>
+        <v>1.659</v>
       </c>
       <c r="E91" t="n">
-        <v>1.676</v>
+        <v>1.659</v>
       </c>
       <c r="F91" t="n">
-        <v>292185.3692</v>
+        <v>1188.16</v>
       </c>
       <c r="G91" t="n">
-        <v>1.687066666666666</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H91" t="n">
-        <v>1.669233333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,36 +3853,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="C92" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="D92" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="E92" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="F92" t="n">
-        <v>42721</v>
+        <v>20000</v>
       </c>
       <c r="G92" t="n">
-        <v>1.6874</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H92" t="n">
-        <v>1.6697</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,36 +3892,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="C93" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="D93" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="E93" t="n">
-        <v>1.678</v>
+        <v>1.659</v>
       </c>
       <c r="F93" t="n">
-        <v>22553.009</v>
+        <v>13127.1</v>
       </c>
       <c r="G93" t="n">
-        <v>1.687733333333334</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H93" t="n">
-        <v>1.670333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,36 +3931,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.677</v>
+        <v>1.659</v>
       </c>
       <c r="C94" t="n">
-        <v>1.677</v>
+        <v>1.67</v>
       </c>
       <c r="D94" t="n">
-        <v>1.677</v>
+        <v>1.67</v>
       </c>
       <c r="E94" t="n">
-        <v>1.677</v>
+        <v>1.659</v>
       </c>
       <c r="F94" t="n">
-        <v>5880.1896</v>
+        <v>375437.95</v>
       </c>
       <c r="G94" t="n">
-        <v>1.688</v>
+        <v>27612777.70897931</v>
       </c>
       <c r="H94" t="n">
-        <v>1.671116666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,36 +3970,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.675</v>
+        <v>1.625</v>
       </c>
       <c r="C95" t="n">
-        <v>1.675</v>
+        <v>1.734</v>
       </c>
       <c r="D95" t="n">
-        <v>1.675</v>
+        <v>1.734</v>
       </c>
       <c r="E95" t="n">
-        <v>1.675</v>
+        <v>1.625</v>
       </c>
       <c r="F95" t="n">
-        <v>1600000</v>
+        <v>939985.1186</v>
       </c>
       <c r="G95" t="n">
-        <v>1.688133333333333</v>
+        <v>28552762.82757931</v>
       </c>
       <c r="H95" t="n">
-        <v>1.67075</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,36 +4009,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.676</v>
+        <v>1.734</v>
       </c>
       <c r="C96" t="n">
-        <v>1.676</v>
+        <v>1.734</v>
       </c>
       <c r="D96" t="n">
-        <v>1.676</v>
+        <v>1.734</v>
       </c>
       <c r="E96" t="n">
-        <v>1.676</v>
+        <v>1.734</v>
       </c>
       <c r="F96" t="n">
-        <v>16556.25</v>
+        <v>84639</v>
       </c>
       <c r="G96" t="n">
-        <v>1.688333333333333</v>
+        <v>28552762.82757931</v>
       </c>
       <c r="H96" t="n">
-        <v>1.67085</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,36 +4048,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.674</v>
+        <v>1.73</v>
       </c>
       <c r="C97" t="n">
-        <v>1.674</v>
+        <v>1.63</v>
       </c>
       <c r="D97" t="n">
-        <v>1.674</v>
+        <v>1.73</v>
       </c>
       <c r="E97" t="n">
-        <v>1.674</v>
+        <v>1.63</v>
       </c>
       <c r="F97" t="n">
-        <v>8241.566000000001</v>
+        <v>8601.863600000001</v>
       </c>
       <c r="G97" t="n">
-        <v>1.6884</v>
+        <v>28544160.96397931</v>
       </c>
       <c r="H97" t="n">
-        <v>1.671283333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,36 +4087,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.676</v>
+        <v>1.728</v>
       </c>
       <c r="C98" t="n">
-        <v>1.676</v>
+        <v>1.728</v>
       </c>
       <c r="D98" t="n">
-        <v>1.676</v>
+        <v>1.728</v>
       </c>
       <c r="E98" t="n">
-        <v>1.676</v>
+        <v>1.728</v>
       </c>
       <c r="F98" t="n">
-        <v>99154</v>
+        <v>2000</v>
       </c>
       <c r="G98" t="n">
-        <v>1.686333333333333</v>
+        <v>28546160.96397931</v>
       </c>
       <c r="H98" t="n">
-        <v>1.671716666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,36 +4126,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.674</v>
+        <v>1.725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.673</v>
+        <v>1.722</v>
       </c>
       <c r="D99" t="n">
-        <v>1.674</v>
+        <v>1.725</v>
       </c>
       <c r="E99" t="n">
-        <v>1.673</v>
+        <v>1.722</v>
       </c>
       <c r="F99" t="n">
-        <v>896.0577</v>
+        <v>13616.8157</v>
       </c>
       <c r="G99" t="n">
-        <v>1.684066666666666</v>
+        <v>28532544.14827931</v>
       </c>
       <c r="H99" t="n">
-        <v>1.672016666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,36 +4165,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.673</v>
+        <v>1.7</v>
       </c>
       <c r="C100" t="n">
-        <v>1.673</v>
+        <v>1.69</v>
       </c>
       <c r="D100" t="n">
-        <v>1.673</v>
+        <v>1.7</v>
       </c>
       <c r="E100" t="n">
-        <v>1.673</v>
+        <v>1.69</v>
       </c>
       <c r="F100" t="n">
-        <v>27335.2939</v>
+        <v>3000</v>
       </c>
       <c r="G100" t="n">
-        <v>1.681733333333333</v>
+        <v>28529544.14827931</v>
       </c>
       <c r="H100" t="n">
-        <v>1.672066666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,33 +4207,34 @@
         <v>1.7</v>
       </c>
       <c r="C101" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="D101" t="n">
         <v>1.7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="F101" t="n">
-        <v>8266.17</v>
+        <v>10889.0492</v>
       </c>
       <c r="G101" t="n">
-        <v>1.681266666666666</v>
+        <v>28529544.14827931</v>
       </c>
       <c r="H101" t="n">
-        <v>1.6724</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,36 +4243,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="C102" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="D102" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="E102" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="F102" t="n">
-        <v>20000</v>
+        <v>298.8644</v>
       </c>
       <c r="G102" t="n">
-        <v>1.6804</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H102" t="n">
-        <v>1.672816666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,36 +4282,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="C103" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="D103" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="E103" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="F103" t="n">
-        <v>244535.3101</v>
+        <v>298.6858</v>
       </c>
       <c r="G103" t="n">
-        <v>1.6814</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H103" t="n">
-        <v>1.673233333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,36 +4321,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="C104" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="D104" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="E104" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="F104" t="n">
-        <v>49714.0223</v>
+        <v>79154.129</v>
       </c>
       <c r="G104" t="n">
-        <v>1.682733333333333</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H104" t="n">
-        <v>1.673649999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,36 +4360,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="C105" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="D105" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="E105" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="F105" t="n">
-        <v>1090</v>
+        <v>11509</v>
       </c>
       <c r="G105" t="n">
-        <v>1.6824</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H105" t="n">
-        <v>1.674066666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,36 +4399,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.672</v>
+        <v>1.673</v>
       </c>
       <c r="C106" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="D106" t="n">
-        <v>1.695</v>
+        <v>1.673</v>
       </c>
       <c r="E106" t="n">
-        <v>1.672</v>
+        <v>1.673</v>
       </c>
       <c r="F106" t="n">
-        <v>119559.9115</v>
+        <v>800</v>
       </c>
       <c r="G106" t="n">
-        <v>1.683666666666667</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H106" t="n">
-        <v>1.674983333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,36 +4438,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.663</v>
+        <v>1.673</v>
       </c>
       <c r="C107" t="n">
-        <v>1.663</v>
+        <v>1.673</v>
       </c>
       <c r="D107" t="n">
-        <v>1.663</v>
+        <v>1.673</v>
       </c>
       <c r="E107" t="n">
-        <v>1.663</v>
+        <v>1.673</v>
       </c>
       <c r="F107" t="n">
-        <v>2661.9365</v>
+        <v>2503</v>
       </c>
       <c r="G107" t="n">
-        <v>1.682666666666667</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H107" t="n">
-        <v>1.675066666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,36 +4477,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.672</v>
+        <v>1.673</v>
       </c>
       <c r="C108" t="n">
-        <v>1.706</v>
+        <v>1.673</v>
       </c>
       <c r="D108" t="n">
-        <v>1.706</v>
+        <v>1.673</v>
       </c>
       <c r="E108" t="n">
-        <v>1.672</v>
+        <v>1.673</v>
       </c>
       <c r="F108" t="n">
-        <v>316716.1863</v>
+        <v>1589</v>
       </c>
       <c r="G108" t="n">
-        <v>1.684533333333333</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H108" t="n">
-        <v>1.676333333333332</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,36 +4516,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="C109" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="D109" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="E109" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="F109" t="n">
-        <v>9994.0448</v>
+        <v>45407</v>
       </c>
       <c r="G109" t="n">
-        <v>1.684066666666667</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H109" t="n">
-        <v>1.676999999999999</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,36 +4555,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.705</v>
+        <v>1.673</v>
       </c>
       <c r="C110" t="n">
-        <v>1.72</v>
+        <v>1.673</v>
       </c>
       <c r="D110" t="n">
-        <v>1.72</v>
+        <v>1.673</v>
       </c>
       <c r="E110" t="n">
-        <v>1.705</v>
+        <v>1.673</v>
       </c>
       <c r="F110" t="n">
-        <v>28717.3988</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>1.687066666666667</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H110" t="n">
-        <v>1.678499999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,36 +4594,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="C111" t="n">
-        <v>1.72</v>
+        <v>1.673</v>
       </c>
       <c r="D111" t="n">
-        <v>1.72</v>
+        <v>1.673</v>
       </c>
       <c r="E111" t="n">
-        <v>1.7</v>
+        <v>1.673</v>
       </c>
       <c r="F111" t="n">
-        <v>340587.7553</v>
+        <v>21000</v>
       </c>
       <c r="G111" t="n">
-        <v>1.69</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H111" t="n">
-        <v>1.680166666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,36 +4633,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.719</v>
+        <v>1.673</v>
       </c>
       <c r="C112" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="D112" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="E112" t="n">
-        <v>1.719</v>
+        <v>1.673</v>
       </c>
       <c r="F112" t="n">
-        <v>312836.8902</v>
+        <v>75297</v>
       </c>
       <c r="G112" t="n">
-        <v>1.693</v>
+        <v>28604542.28387931</v>
       </c>
       <c r="H112" t="n">
-        <v>1.681816666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,36 +4672,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="C113" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="D113" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="E113" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="F113" t="n">
-        <v>15575.5441</v>
+        <v>6889.3025</v>
       </c>
       <c r="G113" t="n">
-        <v>1.695866666666667</v>
+        <v>28604542.28387931</v>
       </c>
       <c r="H113" t="n">
-        <v>1.682966666666665</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,74 +4711,1085 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.654</v>
+        <v>1.709</v>
       </c>
       <c r="C114" t="n">
-        <v>1.653</v>
+        <v>1.708</v>
       </c>
       <c r="D114" t="n">
-        <v>1.654</v>
+        <v>1.709</v>
       </c>
       <c r="E114" t="n">
-        <v>1.653</v>
+        <v>1.708</v>
       </c>
       <c r="F114" t="n">
-        <v>1329.0553</v>
+        <v>1714.35</v>
       </c>
       <c r="G114" t="n">
-        <v>1.694533333333334</v>
+        <v>28606256.63387932</v>
       </c>
       <c r="H114" t="n">
-        <v>1.683016666666665</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.653</v>
+        <v>1.708</v>
       </c>
       <c r="C115" t="n">
-        <v>1.72</v>
+        <v>1.707</v>
       </c>
       <c r="D115" t="n">
-        <v>1.72</v>
+        <v>1.708</v>
       </c>
       <c r="E115" t="n">
-        <v>1.653</v>
+        <v>1.707</v>
       </c>
       <c r="F115" t="n">
-        <v>182781.4203</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="n">
-        <v>1.697666666666667</v>
+        <v>28586256.63387932</v>
       </c>
       <c r="H115" t="n">
-        <v>1.684116666666665</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3746.4075</v>
+      </c>
+      <c r="G116" t="n">
+        <v>28590003.04137931</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13665.4175</v>
+      </c>
+      <c r="G117" t="n">
+        <v>28576337.62387931</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F118" t="n">
+        <v>21844.3201</v>
+      </c>
+      <c r="G118" t="n">
+        <v>28554493.30377932</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2677.0871</v>
+      </c>
+      <c r="G119" t="n">
+        <v>28557170.39087931</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F120" t="n">
+        <v>292185.3692</v>
+      </c>
+      <c r="G120" t="n">
+        <v>28264985.02167932</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="F121" t="n">
+        <v>42721</v>
+      </c>
+      <c r="G121" t="n">
+        <v>28307706.02167932</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22553.009</v>
+      </c>
+      <c r="G122" t="n">
+        <v>28307706.02167932</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5880.1896</v>
+      </c>
+      <c r="G123" t="n">
+        <v>28301825.83207932</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>26701825.83207932</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16556.25</v>
+      </c>
+      <c r="G125" t="n">
+        <v>26718382.08207932</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8241.566000000001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>26710140.51607932</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F127" t="n">
+        <v>99154</v>
+      </c>
+      <c r="G127" t="n">
+        <v>26809294.51607932</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F128" t="n">
+        <v>896.0577</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26808398.45837932</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F129" t="n">
+        <v>27335.2939</v>
+      </c>
+      <c r="G129" t="n">
+        <v>26808398.45837932</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8266.17</v>
+      </c>
+      <c r="G130" t="n">
+        <v>26816664.62837932</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F132" t="n">
+        <v>244535.3101</v>
+      </c>
+      <c r="G132" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F133" t="n">
+        <v>49714.0223</v>
+      </c>
+      <c r="G133" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F135" t="n">
+        <v>119559.9115</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2661.9365</v>
+      </c>
+      <c r="G136" t="n">
+        <v>26794002.69187932</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F137" t="n">
+        <v>316716.1863</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27110718.87817932</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9994.0448</v>
+      </c>
+      <c r="G138" t="n">
+        <v>27100724.83337932</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28717.3988</v>
+      </c>
+      <c r="G139" t="n">
+        <v>27129442.23217932</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>340587.7553</v>
+      </c>
+      <c r="G140" t="n">
+        <v>27129442.23217932</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F141" t="n">
+        <v>312836.8902</v>
+      </c>
+      <c r="G141" t="n">
+        <v>26816605.34197932</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15575.5441</v>
+      </c>
+      <c r="G142" t="n">
+        <v>26816605.34197932</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1329.0553</v>
+      </c>
+      <c r="G143" t="n">
+        <v>26815276.28667932</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F144" t="n">
+        <v>182781.4203</v>
+      </c>
+      <c r="G144" t="n">
+        <v>26998057.70697932</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.591</v>
+        <v>1.659</v>
       </c>
       <c r="C2" t="n">
-        <v>1.574</v>
+        <v>1.573</v>
       </c>
       <c r="D2" t="n">
-        <v>1.632</v>
+        <v>1.67</v>
       </c>
       <c r="E2" t="n">
-        <v>1.574</v>
+        <v>1.573</v>
       </c>
       <c r="F2" t="n">
-        <v>2308730.4631</v>
+        <v>495799.9054</v>
       </c>
       <c r="G2" t="n">
-        <v>-1749487.844855069</v>
+        <v>10517117.85024493</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,98 +467,113 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.581</v>
+        <v>1.65</v>
       </c>
       <c r="C3" t="n">
-        <v>1.632</v>
+        <v>1.659</v>
       </c>
       <c r="D3" t="n">
-        <v>1.632</v>
+        <v>1.659</v>
       </c>
       <c r="E3" t="n">
-        <v>1.581</v>
+        <v>1.65</v>
       </c>
       <c r="F3" t="n">
-        <v>820000</v>
+        <v>247042.7777</v>
       </c>
       <c r="G3" t="n">
-        <v>-929487.8448550689</v>
+        <v>10764160.62794493</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.573</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="C4" t="n">
-        <v>1.614</v>
+        <v>1.64</v>
       </c>
       <c r="D4" t="n">
-        <v>1.614</v>
+        <v>1.64</v>
       </c>
       <c r="E4" t="n">
-        <v>1.577</v>
+        <v>1.64</v>
       </c>
       <c r="F4" t="n">
-        <v>814190.5181</v>
+        <v>202847.4733</v>
       </c>
       <c r="G4" t="n">
-        <v>-1743678.362955069</v>
+        <v>10561313.15464493</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.59</v>
+        <v>1.648</v>
       </c>
       <c r="C5" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="D5" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="E5" t="n">
-        <v>1.59</v>
+        <v>1.648</v>
       </c>
       <c r="F5" t="n">
-        <v>1652709.0168</v>
+        <v>6823217.1062</v>
       </c>
       <c r="G5" t="n">
-        <v>-90969.34615506884</v>
+        <v>17384530.26084493</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,33 +582,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.675</v>
+        <v>1.631</v>
       </c>
       <c r="C6" t="n">
-        <v>1.621</v>
+        <v>1.631</v>
       </c>
       <c r="D6" t="n">
-        <v>1.675</v>
+        <v>1.631</v>
       </c>
       <c r="E6" t="n">
-        <v>1.61</v>
+        <v>1.631</v>
       </c>
       <c r="F6" t="n">
-        <v>465294.6656</v>
+        <v>46860.2659</v>
       </c>
       <c r="G6" t="n">
-        <v>-556264.0117550688</v>
+        <v>17337669.99494493</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +629,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.627</v>
+        <v>1.591</v>
       </c>
       <c r="C7" t="n">
-        <v>1.614</v>
+        <v>1.591</v>
       </c>
       <c r="D7" t="n">
-        <v>1.627</v>
+        <v>1.591</v>
       </c>
       <c r="E7" t="n">
-        <v>1.614</v>
+        <v>1.591</v>
       </c>
       <c r="F7" t="n">
-        <v>200000</v>
+        <v>1695.1428</v>
       </c>
       <c r="G7" t="n">
-        <v>-756264.0117550688</v>
+        <v>17335974.85214493</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +665,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.614</v>
+        <v>1.628</v>
       </c>
       <c r="C8" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.628</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.628</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.614</v>
-      </c>
       <c r="F8" t="n">
-        <v>320000</v>
+        <v>1721</v>
       </c>
       <c r="G8" t="n">
-        <v>-436264.0117550688</v>
+        <v>17337695.85214493</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +701,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.65</v>
+        <v>1.629</v>
       </c>
       <c r="C9" t="n">
-        <v>1.65</v>
+        <v>1.542</v>
       </c>
       <c r="D9" t="n">
-        <v>1.65</v>
+        <v>1.636</v>
       </c>
       <c r="E9" t="n">
-        <v>1.65</v>
+        <v>1.542</v>
       </c>
       <c r="F9" t="n">
-        <v>410723.9813</v>
+        <v>2537329.6157</v>
       </c>
       <c r="G9" t="n">
-        <v>-25540.0304550688</v>
+        <v>14800366.23644493</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +737,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.645</v>
+        <v>1.609</v>
       </c>
       <c r="C10" t="n">
-        <v>1.645</v>
+        <v>1.607</v>
       </c>
       <c r="D10" t="n">
-        <v>1.645</v>
+        <v>1.61</v>
       </c>
       <c r="E10" t="n">
-        <v>1.645</v>
+        <v>1.543</v>
       </c>
       <c r="F10" t="n">
-        <v>31339</v>
+        <v>5123865.5895</v>
       </c>
       <c r="G10" t="n">
-        <v>-56879.0304550688</v>
+        <v>19924231.82594493</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +773,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.645</v>
+        <v>1.59</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645</v>
+        <v>1.588</v>
       </c>
       <c r="D11" t="n">
-        <v>1.645</v>
+        <v>1.59</v>
       </c>
       <c r="E11" t="n">
-        <v>1.645</v>
+        <v>1.588</v>
       </c>
       <c r="F11" t="n">
-        <v>3501</v>
+        <v>975890.8432</v>
       </c>
       <c r="G11" t="n">
-        <v>-56879.0304550688</v>
+        <v>18948340.98274493</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,63 +809,69 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.645</v>
+        <v>1.59</v>
       </c>
       <c r="C12" t="n">
-        <v>1.645</v>
+        <v>1.603</v>
       </c>
       <c r="D12" t="n">
-        <v>1.645</v>
+        <v>1.603</v>
       </c>
       <c r="E12" t="n">
-        <v>1.645</v>
+        <v>1.59</v>
       </c>
       <c r="F12" t="n">
-        <v>8460.6</v>
+        <v>410506.4553</v>
       </c>
       <c r="G12" t="n">
-        <v>-56879.0304550688</v>
+        <v>19358847.43804493</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.588</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.645</v>
+        <v>1.614</v>
       </c>
       <c r="C13" t="n">
-        <v>1.645</v>
+        <v>1.612</v>
       </c>
       <c r="D13" t="n">
-        <v>1.645</v>
+        <v>1.614</v>
       </c>
       <c r="E13" t="n">
-        <v>1.645</v>
+        <v>1.612</v>
       </c>
       <c r="F13" t="n">
-        <v>55392.7036</v>
+        <v>8391679.51</v>
       </c>
       <c r="G13" t="n">
-        <v>-56879.0304550688</v>
+        <v>27750526.94804493</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +880,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.643</v>
+        <v>1.62</v>
       </c>
       <c r="C14" t="n">
-        <v>1.643</v>
+        <v>1.6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.643</v>
+        <v>1.734</v>
       </c>
       <c r="E14" t="n">
         <v>1.6</v>
       </c>
       <c r="F14" t="n">
-        <v>558380.8624</v>
+        <v>246685.6331</v>
       </c>
       <c r="G14" t="n">
-        <v>-615259.8928550688</v>
+        <v>27503841.31494493</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +922,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C15" t="n">
-        <v>1.643</v>
+        <v>1.631</v>
       </c>
       <c r="D15" t="n">
-        <v>1.643</v>
+        <v>1.65</v>
       </c>
       <c r="E15" t="n">
-        <v>1.64</v>
+        <v>1.631</v>
       </c>
       <c r="F15" t="n">
-        <v>51850</v>
+        <v>404798.4128</v>
       </c>
       <c r="G15" t="n">
-        <v>-615259.8928550688</v>
+        <v>27908639.72774493</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +969,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.601</v>
+        <v>1.631</v>
       </c>
       <c r="C16" t="n">
-        <v>1.644</v>
+        <v>1.67</v>
       </c>
       <c r="D16" t="n">
-        <v>1.644</v>
+        <v>1.679</v>
       </c>
       <c r="E16" t="n">
-        <v>1.601</v>
+        <v>1.631</v>
       </c>
       <c r="F16" t="n">
-        <v>371922.4916</v>
+        <v>165502.3811</v>
       </c>
       <c r="G16" t="n">
-        <v>-243337.4012550688</v>
+        <v>28074142.10884493</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +1005,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.611</v>
+        <v>1.63</v>
       </c>
       <c r="C17" t="n">
-        <v>1.611</v>
+        <v>1.64</v>
       </c>
       <c r="D17" t="n">
-        <v>1.611</v>
+        <v>1.64</v>
       </c>
       <c r="E17" t="n">
-        <v>1.611</v>
+        <v>1.63</v>
       </c>
       <c r="F17" t="n">
-        <v>174520.3986</v>
+        <v>316238.067</v>
       </c>
       <c r="G17" t="n">
-        <v>-417857.7998550688</v>
+        <v>27757904.04184493</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1041,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.612</v>
+        <v>1.67</v>
       </c>
       <c r="C18" t="n">
-        <v>1.637</v>
+        <v>1.67</v>
       </c>
       <c r="D18" t="n">
-        <v>1.638</v>
+        <v>1.67</v>
       </c>
       <c r="E18" t="n">
-        <v>1.612</v>
+        <v>1.67</v>
       </c>
       <c r="F18" t="n">
-        <v>40000</v>
+        <v>35665.2565</v>
       </c>
       <c r="G18" t="n">
-        <v>-377857.7998550688</v>
+        <v>27793569.29834493</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1077,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="C19" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="D19" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="E19" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="F19" t="n">
-        <v>23334.7259</v>
+        <v>284747.4716</v>
       </c>
       <c r="G19" t="n">
-        <v>-401192.5257550688</v>
+        <v>27508821.82674493</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1113,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="C20" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="D20" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="E20" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="F20" t="n">
-        <v>75022.0941</v>
+        <v>20355.9126</v>
       </c>
       <c r="G20" t="n">
-        <v>-476214.6198550688</v>
+        <v>27488465.91414493</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1149,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="C21" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="D21" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="E21" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="F21" t="n">
-        <v>154520.398</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="n">
-        <v>-630735.0178550688</v>
+        <v>27468465.91414493</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1185,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.599</v>
+        <v>1.697</v>
       </c>
       <c r="C22" t="n">
-        <v>1.599</v>
+        <v>1.697</v>
       </c>
       <c r="D22" t="n">
-        <v>1.599</v>
+        <v>1.697</v>
       </c>
       <c r="E22" t="n">
-        <v>1.599</v>
+        <v>1.697</v>
       </c>
       <c r="F22" t="n">
-        <v>771345.0072</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>-630735.0178550688</v>
+        <v>27469465.91414493</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1221,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="C23" t="n">
-        <v>1.599</v>
+        <v>1.67</v>
       </c>
       <c r="D23" t="n">
-        <v>1.599</v>
+        <v>1.67</v>
       </c>
       <c r="E23" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="F23" t="n">
-        <v>787.8552</v>
+        <v>129654.8962</v>
       </c>
       <c r="G23" t="n">
-        <v>-630735.0178550688</v>
+        <v>27339811.01794493</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1257,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.588</v>
+        <v>1.648</v>
       </c>
       <c r="C24" t="n">
-        <v>1.588</v>
+        <v>1.648</v>
       </c>
       <c r="D24" t="n">
-        <v>1.588</v>
+        <v>1.648</v>
       </c>
       <c r="E24" t="n">
-        <v>1.588</v>
+        <v>1.648</v>
       </c>
       <c r="F24" t="n">
-        <v>321182.4247</v>
+        <v>1036093.2026</v>
       </c>
       <c r="G24" t="n">
-        <v>-951917.4425550688</v>
+        <v>26303717.81534493</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1293,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.582</v>
+        <v>1.65</v>
       </c>
       <c r="C25" t="n">
-        <v>1.588</v>
+        <v>1.65</v>
       </c>
       <c r="D25" t="n">
-        <v>1.588</v>
+        <v>1.65</v>
       </c>
       <c r="E25" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="F25" t="n">
-        <v>337554.7571</v>
+        <v>346145.5224</v>
       </c>
       <c r="G25" t="n">
-        <v>-951917.4425550688</v>
+        <v>26649863.33774493</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1329,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.58</v>
+        <v>1.655</v>
       </c>
       <c r="C26" t="n">
-        <v>1.588</v>
+        <v>1.655</v>
       </c>
       <c r="D26" t="n">
-        <v>1.588</v>
+        <v>1.655</v>
       </c>
       <c r="E26" t="n">
-        <v>1.542</v>
+        <v>1.655</v>
       </c>
       <c r="F26" t="n">
-        <v>1662453.4058</v>
+        <v>195066.4397</v>
       </c>
       <c r="G26" t="n">
-        <v>-951917.4425550688</v>
+        <v>26844929.77744493</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1365,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="C27" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="D27" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="E27" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="F27" t="n">
-        <v>212651.1</v>
+        <v>156302.6484</v>
       </c>
       <c r="G27" t="n">
-        <v>-1164568.542555069</v>
+        <v>27001232.42584493</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,69 +1401,65 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="C28" t="n">
-        <v>1.588</v>
+        <v>1.68</v>
       </c>
       <c r="D28" t="n">
-        <v>1.588</v>
+        <v>1.68</v>
       </c>
       <c r="E28" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="F28" t="n">
-        <v>309736.5866</v>
+        <v>190664.6</v>
       </c>
       <c r="G28" t="n">
-        <v>-854831.9559550688</v>
+        <v>27191897.02584493</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.58</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="C29" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="D29" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="E29" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="F29" t="n">
-        <v>46028.906</v>
+        <v>70520.0453</v>
       </c>
       <c r="G29" t="n">
-        <v>-900860.8619550688</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1409,36 +1469,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.554</v>
+        <v>1.67</v>
       </c>
       <c r="C30" t="n">
-        <v>1.554</v>
+        <v>1.67</v>
       </c>
       <c r="D30" t="n">
-        <v>1.554</v>
+        <v>1.67</v>
       </c>
       <c r="E30" t="n">
-        <v>1.554</v>
+        <v>1.67</v>
       </c>
       <c r="F30" t="n">
-        <v>5854.9625</v>
+        <v>200000</v>
       </c>
       <c r="G30" t="n">
-        <v>-906715.8244550688</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,282 +1505,249 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="C31" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="D31" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="E31" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="F31" t="n">
-        <v>40000</v>
+        <v>7293.8772</v>
       </c>
       <c r="G31" t="n">
-        <v>-866715.8244550688</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.554</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.577</v>
+        <v>1.611</v>
       </c>
       <c r="C32" t="n">
-        <v>1.578</v>
+        <v>1.67</v>
       </c>
       <c r="D32" t="n">
-        <v>1.578</v>
+        <v>1.67</v>
       </c>
       <c r="E32" t="n">
-        <v>1.577</v>
+        <v>1.57</v>
       </c>
       <c r="F32" t="n">
-        <v>38053</v>
+        <v>514821.2818</v>
       </c>
       <c r="G32" t="n">
-        <v>-904768.8244550688</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.58</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.578</v>
+        <v>1.63</v>
       </c>
       <c r="C33" t="n">
-        <v>1.583</v>
+        <v>1.64</v>
       </c>
       <c r="D33" t="n">
-        <v>1.583</v>
+        <v>1.64</v>
       </c>
       <c r="E33" t="n">
-        <v>1.578</v>
+        <v>1.63</v>
       </c>
       <c r="F33" t="n">
-        <v>91673</v>
+        <v>606332.8</v>
       </c>
       <c r="G33" t="n">
-        <v>-813095.8244550688</v>
+        <v>26515044.18054493</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1.578</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.583</v>
+        <v>1.656</v>
       </c>
       <c r="C34" t="n">
-        <v>1.583</v>
+        <v>1.658</v>
       </c>
       <c r="D34" t="n">
-        <v>1.583</v>
+        <v>1.658</v>
       </c>
       <c r="E34" t="n">
-        <v>1.583</v>
+        <v>1.656</v>
       </c>
       <c r="F34" t="n">
-        <v>8099</v>
+        <v>501830.3008343788</v>
       </c>
       <c r="G34" t="n">
-        <v>-813095.8244550688</v>
+        <v>27016874.48137931</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.583</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.583</v>
+        <v>1.63</v>
       </c>
       <c r="C35" t="n">
-        <v>1.588</v>
+        <v>1.63</v>
       </c>
       <c r="D35" t="n">
-        <v>1.588</v>
+        <v>1.63</v>
       </c>
       <c r="E35" t="n">
-        <v>1.583</v>
+        <v>1.63</v>
       </c>
       <c r="F35" t="n">
-        <v>455699.0022</v>
+        <v>85518.7224</v>
       </c>
       <c r="G35" t="n">
-        <v>-357396.8222550688</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.583</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.588</v>
+        <v>1.63</v>
       </c>
       <c r="C36" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="D36" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="E36" t="n">
-        <v>1.588</v>
+        <v>1.63</v>
       </c>
       <c r="F36" t="n">
-        <v>40000</v>
+        <v>85518.7224</v>
       </c>
       <c r="G36" t="n">
-        <v>-317396.8222550688</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.588</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="C37" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="D37" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="E37" t="n">
-        <v>1.599</v>
+        <v>1.63</v>
       </c>
       <c r="F37" t="n">
-        <v>80000</v>
+        <v>22418.9058</v>
       </c>
       <c r="G37" t="n">
-        <v>-317396.8222550688</v>
+        <v>26931355.75897931</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1733,36 +1757,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.599</v>
+        <v>1.62</v>
       </c>
       <c r="C38" t="n">
-        <v>1.599</v>
+        <v>1.62</v>
       </c>
       <c r="D38" t="n">
-        <v>1.599</v>
+        <v>1.62</v>
       </c>
       <c r="E38" t="n">
-        <v>1.599</v>
+        <v>1.62</v>
       </c>
       <c r="F38" t="n">
-        <v>1721</v>
+        <v>9000</v>
       </c>
       <c r="G38" t="n">
-        <v>-317396.8222550688</v>
+        <v>26922355.75897931</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1772,36 +1793,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.599</v>
+        <v>1.65</v>
       </c>
       <c r="C39" t="n">
         <v>1.62</v>
       </c>
       <c r="D39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E39" t="n">
         <v>1.62</v>
       </c>
-      <c r="E39" t="n">
-        <v>1.599</v>
-      </c>
       <c r="F39" t="n">
-        <v>6333000</v>
+        <v>3733.2604</v>
       </c>
       <c r="G39" t="n">
-        <v>6015603.177744932</v>
+        <v>26922355.75897931</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1811,36 +1829,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.619</v>
+        <v>1.65</v>
       </c>
       <c r="C40" t="n">
-        <v>1.679</v>
+        <v>1.65</v>
       </c>
       <c r="D40" t="n">
-        <v>1.679</v>
+        <v>1.65</v>
       </c>
       <c r="E40" t="n">
-        <v>1.619</v>
+        <v>1.65</v>
       </c>
       <c r="F40" t="n">
-        <v>6255829.5176</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>12271432.69534493</v>
+        <v>26923355.75897931</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1850,36 +1865,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="C41" t="n">
-        <v>1.581</v>
+        <v>1.65</v>
       </c>
       <c r="D41" t="n">
-        <v>1.679</v>
+        <v>1.65</v>
       </c>
       <c r="E41" t="n">
-        <v>1.581</v>
+        <v>1.65</v>
       </c>
       <c r="F41" t="n">
-        <v>1576310.9328</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>10695121.76254493</v>
+        <v>26923355.75897931</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1889,36 +1901,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.669</v>
+        <v>1.65</v>
       </c>
       <c r="C42" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E42" t="n">
         <v>1.65</v>
       </c>
-      <c r="D42" t="n">
-        <v>1.679</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.641</v>
-      </c>
       <c r="F42" t="n">
-        <v>830342.959</v>
+        <v>253984</v>
       </c>
       <c r="G42" t="n">
-        <v>11525464.72154493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1928,36 +1937,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.643</v>
+        <v>1.654</v>
       </c>
       <c r="C43" t="n">
-        <v>1.63</v>
+        <v>1.654</v>
       </c>
       <c r="D43" t="n">
-        <v>1.643</v>
+        <v>1.654</v>
       </c>
       <c r="E43" t="n">
-        <v>1.63</v>
+        <v>1.654</v>
       </c>
       <c r="F43" t="n">
-        <v>512546.9659</v>
+        <v>7778</v>
       </c>
       <c r="G43" t="n">
-        <v>11012917.75564493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1967,36 +1973,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="C44" t="n">
-        <v>1.573</v>
+        <v>1.654</v>
       </c>
       <c r="D44" t="n">
-        <v>1.67</v>
+        <v>1.654</v>
       </c>
       <c r="E44" t="n">
-        <v>1.573</v>
+        <v>1.654</v>
       </c>
       <c r="F44" t="n">
-        <v>495799.9054</v>
+        <v>150495</v>
       </c>
       <c r="G44" t="n">
-        <v>10517117.85024493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2006,36 +2009,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.65</v>
+        <v>1.654</v>
       </c>
       <c r="C45" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="D45" t="n">
-        <v>1.659</v>
+        <v>1.654</v>
       </c>
       <c r="E45" t="n">
-        <v>1.65</v>
+        <v>1.654</v>
       </c>
       <c r="F45" t="n">
-        <v>247042.7777</v>
+        <v>20000</v>
       </c>
       <c r="G45" t="n">
-        <v>10764160.62794493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2045,36 +2045,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C46" t="n">
-        <v>1.64</v>
+        <v>1.654</v>
       </c>
       <c r="D46" t="n">
-        <v>1.64</v>
+        <v>1.654</v>
       </c>
       <c r="E46" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F46" t="n">
-        <v>202847.4733</v>
+        <v>9071</v>
       </c>
       <c r="G46" t="n">
-        <v>10561313.15464493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2084,36 +2081,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.648</v>
+        <v>1.654</v>
       </c>
       <c r="C47" t="n">
-        <v>1.648</v>
+        <v>1.654</v>
       </c>
       <c r="D47" t="n">
-        <v>1.648</v>
+        <v>1.654</v>
       </c>
       <c r="E47" t="n">
-        <v>1.648</v>
+        <v>1.654</v>
       </c>
       <c r="F47" t="n">
-        <v>6823217.1062</v>
+        <v>100000</v>
       </c>
       <c r="G47" t="n">
-        <v>17384530.26084493</v>
+        <v>27177339.75897931</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2123,36 +2117,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.631</v>
+        <v>1.654</v>
       </c>
       <c r="C48" t="n">
-        <v>1.631</v>
+        <v>1.659</v>
       </c>
       <c r="D48" t="n">
-        <v>1.631</v>
+        <v>1.659</v>
       </c>
       <c r="E48" t="n">
-        <v>1.631</v>
+        <v>1.654</v>
       </c>
       <c r="F48" t="n">
-        <v>46860.2659</v>
+        <v>60000</v>
       </c>
       <c r="G48" t="n">
-        <v>17337669.99494493</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2162,36 +2153,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.591</v>
+        <v>1.659</v>
       </c>
       <c r="C49" t="n">
-        <v>1.591</v>
+        <v>1.659</v>
       </c>
       <c r="D49" t="n">
-        <v>1.591</v>
+        <v>1.659</v>
       </c>
       <c r="E49" t="n">
-        <v>1.591</v>
+        <v>1.659</v>
       </c>
       <c r="F49" t="n">
-        <v>1695.1428</v>
+        <v>1188.16</v>
       </c>
       <c r="G49" t="n">
-        <v>17335974.85214493</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2201,36 +2189,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.628</v>
+        <v>1.659</v>
       </c>
       <c r="C50" t="n">
-        <v>1.629</v>
+        <v>1.659</v>
       </c>
       <c r="D50" t="n">
-        <v>1.629</v>
+        <v>1.659</v>
       </c>
       <c r="E50" t="n">
-        <v>1.628</v>
+        <v>1.659</v>
       </c>
       <c r="F50" t="n">
-        <v>1721</v>
+        <v>20000</v>
       </c>
       <c r="G50" t="n">
-        <v>17337695.85214493</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2240,36 +2225,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.629</v>
+        <v>1.659</v>
       </c>
       <c r="C51" t="n">
-        <v>1.542</v>
+        <v>1.659</v>
       </c>
       <c r="D51" t="n">
-        <v>1.636</v>
+        <v>1.659</v>
       </c>
       <c r="E51" t="n">
-        <v>1.542</v>
+        <v>1.659</v>
       </c>
       <c r="F51" t="n">
-        <v>2537329.6157</v>
+        <v>13127.1</v>
       </c>
       <c r="G51" t="n">
-        <v>14800366.23644493</v>
+        <v>27237339.75897931</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2279,36 +2261,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.609</v>
+        <v>1.659</v>
       </c>
       <c r="C52" t="n">
-        <v>1.607</v>
+        <v>1.67</v>
       </c>
       <c r="D52" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="E52" t="n">
-        <v>1.543</v>
+        <v>1.659</v>
       </c>
       <c r="F52" t="n">
-        <v>5123865.5895</v>
+        <v>375437.95</v>
       </c>
       <c r="G52" t="n">
-        <v>19924231.82594493</v>
+        <v>27612777.70897931</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2318,36 +2297,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.59</v>
+        <v>1.625</v>
       </c>
       <c r="C53" t="n">
-        <v>1.588</v>
+        <v>1.734</v>
       </c>
       <c r="D53" t="n">
-        <v>1.59</v>
+        <v>1.734</v>
       </c>
       <c r="E53" t="n">
-        <v>1.588</v>
+        <v>1.625</v>
       </c>
       <c r="F53" t="n">
-        <v>975890.8432</v>
+        <v>939985.1186</v>
       </c>
       <c r="G53" t="n">
-        <v>18948340.98274493</v>
+        <v>28552762.82757931</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2357,36 +2333,33 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.59</v>
+        <v>1.734</v>
       </c>
       <c r="C54" t="n">
-        <v>1.603</v>
+        <v>1.734</v>
       </c>
       <c r="D54" t="n">
-        <v>1.603</v>
+        <v>1.734</v>
       </c>
       <c r="E54" t="n">
-        <v>1.59</v>
+        <v>1.734</v>
       </c>
       <c r="F54" t="n">
-        <v>410506.4553</v>
+        <v>84639</v>
       </c>
       <c r="G54" t="n">
-        <v>19358847.43804493</v>
+        <v>28552762.82757931</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2396,36 +2369,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.614</v>
+        <v>1.73</v>
       </c>
       <c r="C55" t="n">
-        <v>1.612</v>
+        <v>1.63</v>
       </c>
       <c r="D55" t="n">
-        <v>1.614</v>
+        <v>1.73</v>
       </c>
       <c r="E55" t="n">
-        <v>1.612</v>
+        <v>1.63</v>
       </c>
       <c r="F55" t="n">
-        <v>8391679.51</v>
+        <v>8601.863600000001</v>
       </c>
       <c r="G55" t="n">
-        <v>27750526.94804493</v>
+        <v>28544160.96397931</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2435,36 +2405,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.62</v>
+        <v>1.728</v>
       </c>
       <c r="C56" t="n">
-        <v>1.6</v>
+        <v>1.728</v>
       </c>
       <c r="D56" t="n">
-        <v>1.734</v>
+        <v>1.728</v>
       </c>
       <c r="E56" t="n">
-        <v>1.6</v>
+        <v>1.728</v>
       </c>
       <c r="F56" t="n">
-        <v>246685.6331</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="n">
-        <v>27503841.31494493</v>
+        <v>28546160.96397931</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2474,36 +2441,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.65</v>
+        <v>1.725</v>
       </c>
       <c r="C57" t="n">
-        <v>1.631</v>
+        <v>1.722</v>
       </c>
       <c r="D57" t="n">
-        <v>1.65</v>
+        <v>1.725</v>
       </c>
       <c r="E57" t="n">
-        <v>1.631</v>
+        <v>1.722</v>
       </c>
       <c r="F57" t="n">
-        <v>404798.4128</v>
+        <v>13616.8157</v>
       </c>
       <c r="G57" t="n">
-        <v>27908639.72774493</v>
+        <v>28532544.14827931</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2513,36 +2477,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.631</v>
+        <v>1.7</v>
       </c>
       <c r="C58" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="D58" t="n">
-        <v>1.679</v>
+        <v>1.7</v>
       </c>
       <c r="E58" t="n">
-        <v>1.631</v>
+        <v>1.69</v>
       </c>
       <c r="F58" t="n">
-        <v>165502.3811</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="n">
-        <v>28074142.10884493</v>
+        <v>28529544.14827931</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2552,36 +2513,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="C59" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="D59" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="E59" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="F59" t="n">
-        <v>316238.067</v>
+        <v>10889.0492</v>
       </c>
       <c r="G59" t="n">
-        <v>27757904.04184493</v>
+        <v>28529544.14827931</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2591,36 +2549,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="C60" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="D60" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="E60" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="F60" t="n">
-        <v>35665.2565</v>
+        <v>298.8644</v>
       </c>
       <c r="G60" t="n">
-        <v>27793569.29834493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2630,36 +2585,33 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.66</v>
+        <v>1.673</v>
       </c>
       <c r="C61" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="D61" t="n">
-        <v>1.66</v>
+        <v>1.673</v>
       </c>
       <c r="E61" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="F61" t="n">
-        <v>284747.4716</v>
+        <v>298.6858</v>
       </c>
       <c r="G61" t="n">
-        <v>27508821.82674493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2669,36 +2621,33 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.64</v>
+        <v>1.673</v>
       </c>
       <c r="C62" t="n">
-        <v>1.64</v>
+        <v>1.673</v>
       </c>
       <c r="D62" t="n">
-        <v>1.64</v>
+        <v>1.673</v>
       </c>
       <c r="E62" t="n">
-        <v>1.64</v>
+        <v>1.673</v>
       </c>
       <c r="F62" t="n">
-        <v>20355.9126</v>
+        <v>79154.129</v>
       </c>
       <c r="G62" t="n">
-        <v>27488465.91414493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2708,36 +2657,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="C63" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="D63" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="E63" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="F63" t="n">
-        <v>20000</v>
+        <v>11509</v>
       </c>
       <c r="G63" t="n">
-        <v>27468465.91414493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2747,36 +2693,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.697</v>
+        <v>1.673</v>
       </c>
       <c r="C64" t="n">
-        <v>1.697</v>
+        <v>1.673</v>
       </c>
       <c r="D64" t="n">
-        <v>1.697</v>
+        <v>1.673</v>
       </c>
       <c r="E64" t="n">
-        <v>1.697</v>
+        <v>1.673</v>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G64" t="n">
-        <v>27469465.91414493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2786,36 +2729,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="C65" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="D65" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="E65" t="n">
-        <v>1.63</v>
+        <v>1.673</v>
       </c>
       <c r="F65" t="n">
-        <v>129654.8962</v>
+        <v>2503</v>
       </c>
       <c r="G65" t="n">
-        <v>27339811.01794493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2825,36 +2765,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.648</v>
+        <v>1.673</v>
       </c>
       <c r="C66" t="n">
-        <v>1.648</v>
+        <v>1.673</v>
       </c>
       <c r="D66" t="n">
-        <v>1.648</v>
+        <v>1.673</v>
       </c>
       <c r="E66" t="n">
-        <v>1.648</v>
+        <v>1.673</v>
       </c>
       <c r="F66" t="n">
-        <v>1036093.2026</v>
+        <v>1589</v>
       </c>
       <c r="G66" t="n">
-        <v>26303717.81534493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2864,36 +2801,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="C67" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="D67" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="E67" t="n">
-        <v>1.65</v>
+        <v>1.673</v>
       </c>
       <c r="F67" t="n">
-        <v>346145.5224</v>
+        <v>45407</v>
       </c>
       <c r="G67" t="n">
-        <v>26649863.33774493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2903,36 +2837,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.655</v>
+        <v>1.673</v>
       </c>
       <c r="C68" t="n">
-        <v>1.655</v>
+        <v>1.673</v>
       </c>
       <c r="D68" t="n">
-        <v>1.655</v>
+        <v>1.673</v>
       </c>
       <c r="E68" t="n">
-        <v>1.655</v>
+        <v>1.673</v>
       </c>
       <c r="F68" t="n">
-        <v>195066.4397</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>26844929.77744493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2942,36 +2873,33 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="C69" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="D69" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="E69" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="F69" t="n">
-        <v>156302.6484</v>
+        <v>21000</v>
       </c>
       <c r="G69" t="n">
-        <v>27001232.42584493</v>
+        <v>28529245.28387931</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2981,36 +2909,33 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.68</v>
+        <v>1.673</v>
       </c>
       <c r="C70" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="D70" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="E70" t="n">
-        <v>1.68</v>
+        <v>1.673</v>
       </c>
       <c r="F70" t="n">
-        <v>190664.6</v>
+        <v>75297</v>
       </c>
       <c r="G70" t="n">
-        <v>27191897.02584493</v>
+        <v>28604542.28387931</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3020,36 +2945,33 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="C71" t="n">
-        <v>1.67</v>
+        <v>1.707</v>
       </c>
       <c r="D71" t="n">
-        <v>1.68</v>
+        <v>1.707</v>
       </c>
       <c r="E71" t="n">
-        <v>1.67</v>
+        <v>1.707</v>
       </c>
       <c r="F71" t="n">
-        <v>70520.0453</v>
+        <v>6889.3025</v>
       </c>
       <c r="G71" t="n">
-        <v>27121376.98054493</v>
+        <v>28604542.28387931</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3059,36 +2981,33 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.67</v>
+        <v>1.709</v>
       </c>
       <c r="C72" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="D72" t="n">
-        <v>1.67</v>
+        <v>1.709</v>
       </c>
       <c r="E72" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="F72" t="n">
-        <v>200000</v>
+        <v>1714.35</v>
       </c>
       <c r="G72" t="n">
-        <v>27121376.98054493</v>
+        <v>28606256.63387932</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3098,36 +3017,33 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="C73" t="n">
-        <v>1.67</v>
+        <v>1.707</v>
       </c>
       <c r="D73" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="E73" t="n">
-        <v>1.67</v>
+        <v>1.707</v>
       </c>
       <c r="F73" t="n">
-        <v>7293.8772</v>
+        <v>20000</v>
       </c>
       <c r="G73" t="n">
-        <v>27121376.98054493</v>
+        <v>28586256.63387932</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3137,36 +3053,33 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.611</v>
+        <v>1.707</v>
       </c>
       <c r="C74" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="D74" t="n">
-        <v>1.67</v>
+        <v>1.708</v>
       </c>
       <c r="E74" t="n">
-        <v>1.57</v>
+        <v>1.707</v>
       </c>
       <c r="F74" t="n">
-        <v>514821.2818</v>
+        <v>3746.4075</v>
       </c>
       <c r="G74" t="n">
-        <v>27121376.98054493</v>
+        <v>28590003.04137931</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3176,36 +3089,33 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="C75" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="D75" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="E75" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="F75" t="n">
-        <v>606332.8</v>
+        <v>13665.4175</v>
       </c>
       <c r="G75" t="n">
-        <v>26515044.18054493</v>
+        <v>28576337.62387931</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3215,36 +3125,33 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.656</v>
+        <v>1.675</v>
       </c>
       <c r="C76" t="n">
-        <v>1.658</v>
+        <v>1.675</v>
       </c>
       <c r="D76" t="n">
-        <v>1.658</v>
+        <v>1.675</v>
       </c>
       <c r="E76" t="n">
-        <v>1.656</v>
+        <v>1.675</v>
       </c>
       <c r="F76" t="n">
-        <v>501830.3008343788</v>
+        <v>21844.3201</v>
       </c>
       <c r="G76" t="n">
-        <v>27016874.48137931</v>
+        <v>28554493.30377932</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3254,36 +3161,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="C77" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="D77" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="E77" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="F77" t="n">
-        <v>85518.7224</v>
+        <v>2677.0871</v>
       </c>
       <c r="G77" t="n">
-        <v>26931355.75897931</v>
+        <v>28557170.39087931</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3293,36 +3197,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.63</v>
+        <v>1.676</v>
       </c>
       <c r="C78" t="n">
-        <v>1.63</v>
+        <v>1.676</v>
       </c>
       <c r="D78" t="n">
-        <v>1.63</v>
+        <v>1.676</v>
       </c>
       <c r="E78" t="n">
-        <v>1.63</v>
+        <v>1.676</v>
       </c>
       <c r="F78" t="n">
-        <v>85518.7224</v>
+        <v>292185.3692</v>
       </c>
       <c r="G78" t="n">
-        <v>26931355.75897931</v>
+        <v>28264985.02167932</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3332,36 +3233,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.63</v>
+        <v>1.678</v>
       </c>
       <c r="C79" t="n">
-        <v>1.63</v>
+        <v>1.678</v>
       </c>
       <c r="D79" t="n">
-        <v>1.63</v>
+        <v>1.678</v>
       </c>
       <c r="E79" t="n">
-        <v>1.63</v>
+        <v>1.678</v>
       </c>
       <c r="F79" t="n">
-        <v>22418.9058</v>
+        <v>42721</v>
       </c>
       <c r="G79" t="n">
-        <v>26931355.75897931</v>
+        <v>28307706.02167932</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3371,36 +3269,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62</v>
+        <v>1.678</v>
       </c>
       <c r="C80" t="n">
-        <v>1.62</v>
+        <v>1.678</v>
       </c>
       <c r="D80" t="n">
-        <v>1.62</v>
+        <v>1.678</v>
       </c>
       <c r="E80" t="n">
-        <v>1.62</v>
+        <v>1.678</v>
       </c>
       <c r="F80" t="n">
-        <v>9000</v>
+        <v>22553.009</v>
       </c>
       <c r="G80" t="n">
-        <v>26922355.75897931</v>
+        <v>28307706.02167932</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3410,36 +3305,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.65</v>
+        <v>1.677</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62</v>
+        <v>1.677</v>
       </c>
       <c r="D81" t="n">
-        <v>1.65</v>
+        <v>1.677</v>
       </c>
       <c r="E81" t="n">
-        <v>1.62</v>
+        <v>1.677</v>
       </c>
       <c r="F81" t="n">
-        <v>3733.2604</v>
+        <v>5880.1896</v>
       </c>
       <c r="G81" t="n">
-        <v>26922355.75897931</v>
+        <v>28301825.83207932</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3449,36 +3341,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65</v>
+        <v>1.675</v>
       </c>
       <c r="C82" t="n">
-        <v>1.65</v>
+        <v>1.675</v>
       </c>
       <c r="D82" t="n">
-        <v>1.65</v>
+        <v>1.675</v>
       </c>
       <c r="E82" t="n">
-        <v>1.65</v>
+        <v>1.675</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>1600000</v>
       </c>
       <c r="G82" t="n">
-        <v>26923355.75897931</v>
+        <v>26701825.83207932</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3488,36 +3377,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.65</v>
+        <v>1.676</v>
       </c>
       <c r="C83" t="n">
-        <v>1.65</v>
+        <v>1.676</v>
       </c>
       <c r="D83" t="n">
-        <v>1.65</v>
+        <v>1.676</v>
       </c>
       <c r="E83" t="n">
-        <v>1.65</v>
+        <v>1.676</v>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>16556.25</v>
       </c>
       <c r="G83" t="n">
-        <v>26923355.75897931</v>
+        <v>26718382.08207932</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3527,36 +3413,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.65</v>
+        <v>1.674</v>
       </c>
       <c r="C84" t="n">
-        <v>1.654</v>
+        <v>1.674</v>
       </c>
       <c r="D84" t="n">
-        <v>1.654</v>
+        <v>1.674</v>
       </c>
       <c r="E84" t="n">
-        <v>1.65</v>
+        <v>1.674</v>
       </c>
       <c r="F84" t="n">
-        <v>253984</v>
+        <v>8241.566000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>27177339.75897931</v>
+        <v>26710140.51607932</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3566,36 +3449,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.654</v>
+        <v>1.676</v>
       </c>
       <c r="C85" t="n">
-        <v>1.654</v>
+        <v>1.676</v>
       </c>
       <c r="D85" t="n">
-        <v>1.654</v>
+        <v>1.676</v>
       </c>
       <c r="E85" t="n">
-        <v>1.654</v>
+        <v>1.676</v>
       </c>
       <c r="F85" t="n">
-        <v>7778</v>
+        <v>99154</v>
       </c>
       <c r="G85" t="n">
-        <v>27177339.75897931</v>
+        <v>26809294.51607932</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3605,36 +3485,33 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.654</v>
+        <v>1.674</v>
       </c>
       <c r="C86" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="D86" t="n">
-        <v>1.654</v>
+        <v>1.674</v>
       </c>
       <c r="E86" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="F86" t="n">
-        <v>150495</v>
+        <v>896.0577</v>
       </c>
       <c r="G86" t="n">
-        <v>27177339.75897931</v>
+        <v>26808398.45837932</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3644,36 +3521,33 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="C87" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="D87" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="E87" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="F87" t="n">
-        <v>20000</v>
+        <v>27335.2939</v>
       </c>
       <c r="G87" t="n">
-        <v>27177339.75897931</v>
+        <v>26808398.45837932</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3683,36 +3557,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="C88" t="n">
-        <v>1.654</v>
+        <v>1.7</v>
       </c>
       <c r="D88" t="n">
-        <v>1.654</v>
+        <v>1.7</v>
       </c>
       <c r="E88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="F88" t="n">
-        <v>9071</v>
+        <v>8266.17</v>
       </c>
       <c r="G88" t="n">
-        <v>27177339.75897931</v>
+        <v>26816664.62837932</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3722,36 +3593,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="C89" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="D89" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="E89" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="F89" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G89" t="n">
-        <v>27177339.75897931</v>
+        <v>26796664.62837932</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3761,153 +3629,141 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="C90" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="D90" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="E90" t="n">
-        <v>1.654</v>
+        <v>1.695</v>
       </c>
       <c r="F90" t="n">
-        <v>60000</v>
+        <v>244535.3101</v>
       </c>
       <c r="G90" t="n">
-        <v>27237339.75897931</v>
+        <v>26796664.62837932</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="C91" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="D91" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="E91" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="F91" t="n">
-        <v>1188.16</v>
+        <v>49714.0223</v>
       </c>
       <c r="G91" t="n">
-        <v>27237339.75897931</v>
+        <v>26796664.62837932</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="C92" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="D92" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="E92" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="F92" t="n">
-        <v>20000</v>
+        <v>1090</v>
       </c>
       <c r="G92" t="n">
-        <v>27237339.75897931</v>
+        <v>26796664.62837932</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.659</v>
+        <v>1.672</v>
       </c>
       <c r="C93" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="D93" t="n">
-        <v>1.659</v>
+        <v>1.695</v>
       </c>
       <c r="E93" t="n">
-        <v>1.659</v>
+        <v>1.672</v>
       </c>
       <c r="F93" t="n">
-        <v>13127.1</v>
+        <v>119559.9115</v>
       </c>
       <c r="G93" t="n">
-        <v>27237339.75897931</v>
+        <v>26796664.62837932</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3917,36 +3773,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.659</v>
+        <v>1.663</v>
       </c>
       <c r="C94" t="n">
-        <v>1.67</v>
+        <v>1.663</v>
       </c>
       <c r="D94" t="n">
-        <v>1.67</v>
+        <v>1.663</v>
       </c>
       <c r="E94" t="n">
-        <v>1.659</v>
+        <v>1.663</v>
       </c>
       <c r="F94" t="n">
-        <v>375437.95</v>
+        <v>2661.9365</v>
       </c>
       <c r="G94" t="n">
-        <v>27612777.70897931</v>
+        <v>26794002.69187932</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3956,36 +3809,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.625</v>
+        <v>1.672</v>
       </c>
       <c r="C95" t="n">
-        <v>1.734</v>
+        <v>1.706</v>
       </c>
       <c r="D95" t="n">
-        <v>1.734</v>
+        <v>1.706</v>
       </c>
       <c r="E95" t="n">
-        <v>1.625</v>
+        <v>1.672</v>
       </c>
       <c r="F95" t="n">
-        <v>939985.1186</v>
+        <v>316716.1863</v>
       </c>
       <c r="G95" t="n">
-        <v>28552762.82757931</v>
+        <v>27110718.87817932</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3995,36 +3845,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="C96" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="D96" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="E96" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="F96" t="n">
-        <v>84639</v>
+        <v>9994.0448</v>
       </c>
       <c r="G96" t="n">
-        <v>28552762.82757931</v>
+        <v>27100724.83337932</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4034,36 +3881,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.73</v>
+        <v>1.705</v>
       </c>
       <c r="C97" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="D97" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="E97" t="n">
-        <v>1.63</v>
+        <v>1.705</v>
       </c>
       <c r="F97" t="n">
-        <v>8601.863600000001</v>
+        <v>28717.3988</v>
       </c>
       <c r="G97" t="n">
-        <v>28544160.96397931</v>
+        <v>27129442.23217932</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4073,1725 +3917,191 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.728</v>
+        <v>1.7</v>
       </c>
       <c r="C98" t="n">
-        <v>1.728</v>
+        <v>1.72</v>
       </c>
       <c r="D98" t="n">
-        <v>1.728</v>
+        <v>1.72</v>
       </c>
       <c r="E98" t="n">
-        <v>1.728</v>
+        <v>1.7</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>340587.7553</v>
       </c>
       <c r="G98" t="n">
-        <v>28546160.96397931</v>
+        <v>27129442.23217932</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.725</v>
+        <v>1.719</v>
       </c>
       <c r="C99" t="n">
-        <v>1.722</v>
+        <v>1.719</v>
       </c>
       <c r="D99" t="n">
-        <v>1.725</v>
+        <v>1.719</v>
       </c>
       <c r="E99" t="n">
-        <v>1.722</v>
+        <v>1.719</v>
       </c>
       <c r="F99" t="n">
-        <v>13616.8157</v>
+        <v>312836.8902</v>
       </c>
       <c r="G99" t="n">
-        <v>28532544.14827931</v>
+        <v>26816605.34197932</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="C100" t="n">
-        <v>1.69</v>
+        <v>1.719</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7</v>
+        <v>1.719</v>
       </c>
       <c r="E100" t="n">
-        <v>1.69</v>
+        <v>1.719</v>
       </c>
       <c r="F100" t="n">
-        <v>3000</v>
+        <v>15575.5441</v>
       </c>
       <c r="G100" t="n">
-        <v>28529544.14827931</v>
+        <v>26816605.34197932</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.7</v>
+        <v>1.654</v>
       </c>
       <c r="C101" t="n">
-        <v>1.69</v>
+        <v>1.653</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7</v>
+        <v>1.654</v>
       </c>
       <c r="E101" t="n">
-        <v>1.69</v>
+        <v>1.653</v>
       </c>
       <c r="F101" t="n">
-        <v>10889.0492</v>
+        <v>1329.0553</v>
       </c>
       <c r="G101" t="n">
-        <v>28529544.14827931</v>
+        <v>26815276.28667932</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.673</v>
+        <v>1.653</v>
       </c>
       <c r="C102" t="n">
-        <v>1.673</v>
+        <v>1.72</v>
       </c>
       <c r="D102" t="n">
-        <v>1.673</v>
+        <v>1.72</v>
       </c>
       <c r="E102" t="n">
-        <v>1.673</v>
+        <v>1.653</v>
       </c>
       <c r="F102" t="n">
-        <v>298.8644</v>
+        <v>182781.4203</v>
       </c>
       <c r="G102" t="n">
-        <v>28529245.28387931</v>
+        <v>26998057.70697932</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F103" t="n">
-        <v>298.6858</v>
-      </c>
-      <c r="G103" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F104" t="n">
-        <v>79154.129</v>
-      </c>
-      <c r="G104" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F105" t="n">
-        <v>11509</v>
-      </c>
-      <c r="G105" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F106" t="n">
-        <v>800</v>
-      </c>
-      <c r="G106" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2503</v>
-      </c>
-      <c r="G107" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1589</v>
-      </c>
-      <c r="G108" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F109" t="n">
-        <v>45407</v>
-      </c>
-      <c r="G109" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F111" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F112" t="n">
-        <v>75297</v>
-      </c>
-      <c r="G112" t="n">
-        <v>28604542.28387931</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="F113" t="n">
-        <v>6889.3025</v>
-      </c>
-      <c r="G113" t="n">
-        <v>28604542.28387931</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1714.35</v>
-      </c>
-      <c r="G114" t="n">
-        <v>28606256.63387932</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="F115" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>28586256.63387932</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3746.4075</v>
-      </c>
-      <c r="G116" t="n">
-        <v>28590003.04137931</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F117" t="n">
-        <v>13665.4175</v>
-      </c>
-      <c r="G117" t="n">
-        <v>28576337.62387931</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="F118" t="n">
-        <v>21844.3201</v>
-      </c>
-      <c r="G118" t="n">
-        <v>28554493.30377932</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2677.0871</v>
-      </c>
-      <c r="G119" t="n">
-        <v>28557170.39087931</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="F120" t="n">
-        <v>292185.3692</v>
-      </c>
-      <c r="G120" t="n">
-        <v>28264985.02167932</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="F121" t="n">
-        <v>42721</v>
-      </c>
-      <c r="G121" t="n">
-        <v>28307706.02167932</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.678</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22553.009</v>
-      </c>
-      <c r="G122" t="n">
-        <v>28307706.02167932</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.677</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.677</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.677</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.677</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5880.1896</v>
-      </c>
-      <c r="G123" t="n">
-        <v>28301825.83207932</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>26701825.83207932</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="F125" t="n">
-        <v>16556.25</v>
-      </c>
-      <c r="G125" t="n">
-        <v>26718382.08207932</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="F126" t="n">
-        <v>8241.566000000001</v>
-      </c>
-      <c r="G126" t="n">
-        <v>26710140.51607932</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.676</v>
-      </c>
-      <c r="F127" t="n">
-        <v>99154</v>
-      </c>
-      <c r="G127" t="n">
-        <v>26809294.51607932</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.674</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F128" t="n">
-        <v>896.0577</v>
-      </c>
-      <c r="G128" t="n">
-        <v>26808398.45837932</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="F129" t="n">
-        <v>27335.2939</v>
-      </c>
-      <c r="G129" t="n">
-        <v>26808398.45837932</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8266.17</v>
-      </c>
-      <c r="G130" t="n">
-        <v>26816664.62837932</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F131" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F132" t="n">
-        <v>244535.3101</v>
-      </c>
-      <c r="G132" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F133" t="n">
-        <v>49714.0223</v>
-      </c>
-      <c r="G133" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1090</v>
-      </c>
-      <c r="G134" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.672</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.695</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.672</v>
-      </c>
-      <c r="F135" t="n">
-        <v>119559.9115</v>
-      </c>
-      <c r="G135" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2661.9365</v>
-      </c>
-      <c r="G136" t="n">
-        <v>26794002.69187932</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.672</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.706</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.672</v>
-      </c>
-      <c r="F137" t="n">
-        <v>316716.1863</v>
-      </c>
-      <c r="G137" t="n">
-        <v>27110718.87817932</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F138" t="n">
-        <v>9994.0448</v>
-      </c>
-      <c r="G138" t="n">
-        <v>27100724.83337932</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="F139" t="n">
-        <v>28717.3988</v>
-      </c>
-      <c r="G139" t="n">
-        <v>27129442.23217932</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>340587.7553</v>
-      </c>
-      <c r="G140" t="n">
-        <v>27129442.23217932</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="F141" t="n">
-        <v>312836.8902</v>
-      </c>
-      <c r="G141" t="n">
-        <v>26816605.34197932</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15575.5441</v>
-      </c>
-      <c r="G142" t="n">
-        <v>26816605.34197932</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.654</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.654</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1329.0553</v>
-      </c>
-      <c r="G143" t="n">
-        <v>26815276.28667932</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.653</v>
-      </c>
-      <c r="F144" t="n">
-        <v>182781.4203</v>
-      </c>
-      <c r="G144" t="n">
-        <v>26998057.70697932</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.659</v>
+        <v>1.632</v>
       </c>
       <c r="C2" t="n">
-        <v>1.573</v>
+        <v>1.62</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>1.653</v>
       </c>
       <c r="E2" t="n">
-        <v>1.573</v>
+        <v>1.62</v>
       </c>
       <c r="F2" t="n">
-        <v>495799.9054</v>
+        <v>584784.198</v>
       </c>
       <c r="G2" t="n">
-        <v>10517117.85024493</v>
+        <v>-3111036.167855069</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="C3" t="n">
-        <v>1.659</v>
+        <v>1.61</v>
       </c>
       <c r="D3" t="n">
-        <v>1.659</v>
+        <v>1.62</v>
       </c>
       <c r="E3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="F3" t="n">
-        <v>247042.7777</v>
+        <v>163278.724</v>
       </c>
       <c r="G3" t="n">
-        <v>10764160.62794493</v>
+        <v>-3274314.891855069</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.573</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.573</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="C4" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="D4" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="E4" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F4" t="n">
-        <v>202847.4733</v>
+        <v>216821</v>
       </c>
       <c r="G4" t="n">
-        <v>10561313.15464493</v>
+        <v>-3057493.891855069</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +540,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.573</v>
-      </c>
+        <v>1.61</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.648</v>
+        <v>1.62</v>
       </c>
       <c r="C5" t="n">
         <v>1.648</v>
@@ -567,27 +567,27 @@
         <v>1.648</v>
       </c>
       <c r="E5" t="n">
-        <v>1.648</v>
+        <v>1.62</v>
       </c>
       <c r="F5" t="n">
-        <v>6823217.1062</v>
+        <v>163093.5482</v>
       </c>
       <c r="G5" t="n">
-        <v>17384530.26084493</v>
+        <v>-2894400.343655069</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1.573</v>
-      </c>
+      <c r="J5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -600,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.631</v>
+        <v>1.63</v>
       </c>
       <c r="C6" t="n">
-        <v>1.631</v>
+        <v>1.63</v>
       </c>
       <c r="D6" t="n">
-        <v>1.631</v>
+        <v>1.63</v>
       </c>
       <c r="E6" t="n">
-        <v>1.631</v>
+        <v>1.63</v>
       </c>
       <c r="F6" t="n">
-        <v>46860.2659</v>
+        <v>159022</v>
       </c>
       <c r="G6" t="n">
-        <v>17337669.99494493</v>
+        <v>-3053422.343655069</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.648</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.591</v>
+        <v>1.63</v>
       </c>
       <c r="C7" t="n">
-        <v>1.591</v>
+        <v>1.63</v>
       </c>
       <c r="D7" t="n">
-        <v>1.591</v>
+        <v>1.63</v>
       </c>
       <c r="E7" t="n">
-        <v>1.591</v>
+        <v>1.63</v>
       </c>
       <c r="F7" t="n">
-        <v>1695.1428</v>
+        <v>1282978</v>
       </c>
       <c r="G7" t="n">
-        <v>17335974.85214493</v>
+        <v>-3053422.343655069</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.63</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -672,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.628</v>
+        <v>1.62</v>
       </c>
       <c r="C8" t="n">
-        <v>1.629</v>
+        <v>1.562</v>
       </c>
       <c r="D8" t="n">
-        <v>1.629</v>
+        <v>1.62</v>
       </c>
       <c r="E8" t="n">
-        <v>1.628</v>
+        <v>1.562</v>
       </c>
       <c r="F8" t="n">
-        <v>1721</v>
+        <v>500000</v>
       </c>
       <c r="G8" t="n">
-        <v>17337695.85214493</v>
+        <v>-3553422.343655069</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1.63</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.629</v>
+        <v>1.619</v>
       </c>
       <c r="C9" t="n">
-        <v>1.542</v>
+        <v>1.653</v>
       </c>
       <c r="D9" t="n">
-        <v>1.636</v>
+        <v>1.654</v>
       </c>
       <c r="E9" t="n">
-        <v>1.542</v>
+        <v>1.61</v>
       </c>
       <c r="F9" t="n">
-        <v>2537329.6157</v>
+        <v>140000</v>
       </c>
       <c r="G9" t="n">
-        <v>14800366.23644493</v>
+        <v>-3413422.343655069</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1.562</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -744,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.609</v>
+        <v>1.591</v>
       </c>
       <c r="C10" t="n">
-        <v>1.607</v>
+        <v>1.617</v>
       </c>
       <c r="D10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="E10" t="n">
-        <v>1.543</v>
+        <v>1.562</v>
       </c>
       <c r="F10" t="n">
-        <v>5123865.5895</v>
+        <v>994567.0792</v>
       </c>
       <c r="G10" t="n">
-        <v>19924231.82594493</v>
+        <v>-4407989.422855069</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -769,7 +793,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -780,32 +808,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.59</v>
+        <v>1.616</v>
       </c>
       <c r="C11" t="n">
-        <v>1.588</v>
+        <v>1.616</v>
       </c>
       <c r="D11" t="n">
-        <v>1.59</v>
+        <v>1.616</v>
       </c>
       <c r="E11" t="n">
-        <v>1.588</v>
+        <v>1.616</v>
       </c>
       <c r="F11" t="n">
-        <v>975890.8432</v>
+        <v>2889</v>
       </c>
       <c r="G11" t="n">
-        <v>18948340.98274493</v>
+        <v>-4410878.422855069</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1.617</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -816,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.59</v>
+        <v>1.616</v>
       </c>
       <c r="C12" t="n">
-        <v>1.603</v>
+        <v>1.616</v>
       </c>
       <c r="D12" t="n">
-        <v>1.603</v>
+        <v>1.616</v>
       </c>
       <c r="E12" t="n">
-        <v>1.59</v>
+        <v>1.616</v>
       </c>
       <c r="F12" t="n">
-        <v>410506.4553</v>
+        <v>2005</v>
       </c>
       <c r="G12" t="n">
-        <v>19358847.43804493</v>
+        <v>-4410878.422855069</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -840,12 +874,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>1.616</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -856,36 +892,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.614</v>
+        <v>1.615</v>
       </c>
       <c r="C13" t="n">
-        <v>1.612</v>
+        <v>1.571</v>
       </c>
       <c r="D13" t="n">
-        <v>1.614</v>
+        <v>1.616</v>
       </c>
       <c r="E13" t="n">
-        <v>1.612</v>
+        <v>1.571</v>
       </c>
       <c r="F13" t="n">
-        <v>8391679.51</v>
+        <v>186728.6523</v>
       </c>
       <c r="G13" t="n">
-        <v>27750526.94804493</v>
+        <v>-4597607.075155069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1.588</v>
-      </c>
+      <c r="J13" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -898,36 +934,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.62</v>
+        <v>1.571</v>
       </c>
       <c r="C14" t="n">
         <v>1.6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.734</v>
+        <v>1.616</v>
       </c>
       <c r="E14" t="n">
-        <v>1.6</v>
+        <v>1.561</v>
       </c>
       <c r="F14" t="n">
-        <v>246685.6331</v>
+        <v>3526906.2632</v>
       </c>
       <c r="G14" t="n">
-        <v>27503841.31494493</v>
+        <v>-1070700.811955069</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1.588</v>
-      </c>
+      <c r="J14" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -940,32 +976,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="C15" t="n">
-        <v>1.631</v>
+        <v>1.616</v>
       </c>
       <c r="D15" t="n">
-        <v>1.65</v>
+        <v>1.616</v>
       </c>
       <c r="E15" t="n">
-        <v>1.631</v>
+        <v>1.6</v>
       </c>
       <c r="F15" t="n">
-        <v>404798.4128</v>
+        <v>1594543.5962</v>
       </c>
       <c r="G15" t="n">
-        <v>27908639.72774493</v>
+        <v>523842.7842449308</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1.6</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -976,32 +1018,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.631</v>
+        <v>1.638</v>
       </c>
       <c r="C16" t="n">
-        <v>1.67</v>
+        <v>1.638</v>
       </c>
       <c r="D16" t="n">
-        <v>1.679</v>
+        <v>1.638</v>
       </c>
       <c r="E16" t="n">
-        <v>1.631</v>
+        <v>1.638</v>
       </c>
       <c r="F16" t="n">
-        <v>165502.3811</v>
+        <v>3007</v>
       </c>
       <c r="G16" t="n">
-        <v>28074142.10884493</v>
+        <v>526849.7842449308</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1.616</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1012,22 +1060,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.63</v>
+        <v>1.638</v>
       </c>
       <c r="C17" t="n">
-        <v>1.64</v>
+        <v>1.675</v>
       </c>
       <c r="D17" t="n">
-        <v>1.64</v>
+        <v>1.675</v>
       </c>
       <c r="E17" t="n">
-        <v>1.63</v>
+        <v>1.638</v>
       </c>
       <c r="F17" t="n">
-        <v>316238.067</v>
+        <v>7947</v>
       </c>
       <c r="G17" t="n">
-        <v>27757904.04184493</v>
+        <v>534796.7842449308</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1037,7 +1085,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1048,22 +1100,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="C18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="D18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="E18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="F18" t="n">
-        <v>35665.2565</v>
+        <v>197871.5763</v>
       </c>
       <c r="G18" t="n">
-        <v>27793569.29834493</v>
+        <v>336925.2079449309</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1073,7 +1125,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +1140,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="C19" t="n">
         <v>1.65</v>
       </c>
       <c r="D19" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="E19" t="n">
         <v>1.65</v>
       </c>
       <c r="F19" t="n">
-        <v>284747.4716</v>
+        <v>36952.6733</v>
       </c>
       <c r="G19" t="n">
-        <v>27508821.82674493</v>
+        <v>336925.2079449309</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1109,7 +1165,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1123,19 +1183,19 @@
         <v>1.64</v>
       </c>
       <c r="C20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="D20" t="n">
         <v>1.64</v>
       </c>
       <c r="E20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="F20" t="n">
-        <v>20355.9126</v>
+        <v>61714.36</v>
       </c>
       <c r="G20" t="n">
-        <v>27488465.91414493</v>
+        <v>275210.8479449309</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1145,7 +1205,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1156,22 +1220,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="C21" t="n">
         <v>1.63</v>
       </c>
       <c r="D21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="E21" t="n">
         <v>1.63</v>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>20650</v>
       </c>
       <c r="G21" t="n">
-        <v>27468465.91414493</v>
+        <v>275210.8479449309</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1181,7 +1245,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1192,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.697</v>
+        <v>1.622</v>
       </c>
       <c r="C22" t="n">
-        <v>1.697</v>
+        <v>1.622</v>
       </c>
       <c r="D22" t="n">
-        <v>1.697</v>
+        <v>1.622</v>
       </c>
       <c r="E22" t="n">
-        <v>1.697</v>
+        <v>1.622</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>127859.5063</v>
       </c>
       <c r="G22" t="n">
-        <v>27469465.91414493</v>
+        <v>147351.3416449309</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1217,7 +1285,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1228,22 +1300,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.63</v>
+        <v>1.611</v>
       </c>
       <c r="C23" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1.67</v>
+        <v>1.611</v>
       </c>
       <c r="E23" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="F23" t="n">
-        <v>129654.8962</v>
+        <v>500000.3517</v>
       </c>
       <c r="G23" t="n">
-        <v>27339811.01794493</v>
+        <v>-352649.0100550691</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1253,7 +1325,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.648</v>
+        <v>1.627</v>
       </c>
       <c r="C24" t="n">
-        <v>1.648</v>
+        <v>1.627</v>
       </c>
       <c r="D24" t="n">
-        <v>1.648</v>
+        <v>1.627</v>
       </c>
       <c r="E24" t="n">
-        <v>1.648</v>
+        <v>1.627</v>
       </c>
       <c r="F24" t="n">
-        <v>1036093.2026</v>
+        <v>2005</v>
       </c>
       <c r="G24" t="n">
-        <v>26303717.81534493</v>
+        <v>-350644.0100550691</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1289,7 +1365,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1300,22 +1380,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="C25" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65</v>
+        <v>1.627</v>
       </c>
       <c r="E25" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="F25" t="n">
-        <v>346145.5224</v>
+        <v>2347</v>
       </c>
       <c r="G25" t="n">
-        <v>26649863.33774493</v>
+        <v>-352991.0100550691</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1325,7 +1405,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1336,22 +1420,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.655</v>
+        <v>1.627</v>
       </c>
       <c r="C26" t="n">
-        <v>1.655</v>
+        <v>1.627</v>
       </c>
       <c r="D26" t="n">
-        <v>1.655</v>
+        <v>1.627</v>
       </c>
       <c r="E26" t="n">
-        <v>1.655</v>
+        <v>1.627</v>
       </c>
       <c r="F26" t="n">
-        <v>195066.4397</v>
+        <v>211357.798</v>
       </c>
       <c r="G26" t="n">
-        <v>26844929.77744493</v>
+        <v>-141633.2120550691</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1361,7 +1445,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1372,22 +1460,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.67</v>
+        <v>1.629</v>
       </c>
       <c r="C27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="D27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="E27" t="n">
-        <v>1.67</v>
+        <v>1.629</v>
       </c>
       <c r="F27" t="n">
-        <v>156302.6484</v>
+        <v>373894.9252</v>
       </c>
       <c r="G27" t="n">
-        <v>27001232.42584493</v>
+        <v>232261.7131449309</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1397,7 +1485,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1500,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="C28" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="D28" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="E28" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="F28" t="n">
-        <v>190664.6</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>27191897.02584493</v>
+        <v>212261.7131449309</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1433,7 +1525,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1444,22 +1540,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="C29" t="n">
-        <v>1.67</v>
+        <v>1.632</v>
       </c>
       <c r="D29" t="n">
-        <v>1.68</v>
+        <v>1.632</v>
       </c>
       <c r="E29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="F29" t="n">
-        <v>70520.0453</v>
+        <v>356616</v>
       </c>
       <c r="G29" t="n">
-        <v>27121376.98054493</v>
+        <v>568877.7131449309</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1469,7 +1565,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1480,22 +1580,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.67</v>
+        <v>1.607</v>
       </c>
       <c r="C30" t="n">
-        <v>1.67</v>
+        <v>1.607</v>
       </c>
       <c r="D30" t="n">
-        <v>1.67</v>
+        <v>1.607</v>
       </c>
       <c r="E30" t="n">
-        <v>1.67</v>
+        <v>1.607</v>
       </c>
       <c r="F30" t="n">
-        <v>200000</v>
+        <v>9635.0949</v>
       </c>
       <c r="G30" t="n">
-        <v>27121376.98054493</v>
+        <v>559242.6182449309</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1505,7 +1605,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1516,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.67</v>
+        <v>1.591</v>
       </c>
       <c r="C31" t="n">
-        <v>1.67</v>
+        <v>1.574</v>
       </c>
       <c r="D31" t="n">
-        <v>1.67</v>
+        <v>1.632</v>
       </c>
       <c r="E31" t="n">
-        <v>1.67</v>
+        <v>1.574</v>
       </c>
       <c r="F31" t="n">
-        <v>7293.8772</v>
+        <v>2308730.4631</v>
       </c>
       <c r="G31" t="n">
-        <v>27121376.98054493</v>
+        <v>-1749487.844855069</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1541,7 +1645,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1552,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.611</v>
+        <v>1.581</v>
       </c>
       <c r="C32" t="n">
-        <v>1.67</v>
+        <v>1.632</v>
       </c>
       <c r="D32" t="n">
-        <v>1.67</v>
+        <v>1.632</v>
       </c>
       <c r="E32" t="n">
-        <v>1.57</v>
+        <v>1.581</v>
       </c>
       <c r="F32" t="n">
-        <v>514821.2818</v>
+        <v>820000</v>
       </c>
       <c r="G32" t="n">
-        <v>27121376.98054493</v>
+        <v>-929487.8448550689</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1577,7 +1685,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="C33" t="n">
-        <v>1.64</v>
+        <v>1.614</v>
       </c>
       <c r="D33" t="n">
-        <v>1.64</v>
+        <v>1.614</v>
       </c>
       <c r="E33" t="n">
-        <v>1.63</v>
+        <v>1.577</v>
       </c>
       <c r="F33" t="n">
-        <v>606332.8</v>
+        <v>814190.5181</v>
       </c>
       <c r="G33" t="n">
-        <v>26515044.18054493</v>
+        <v>-1743678.362955069</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1613,7 +1725,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1624,22 +1740,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.656</v>
+        <v>1.59</v>
       </c>
       <c r="C34" t="n">
-        <v>1.658</v>
+        <v>1.675</v>
       </c>
       <c r="D34" t="n">
-        <v>1.658</v>
+        <v>1.675</v>
       </c>
       <c r="E34" t="n">
-        <v>1.656</v>
+        <v>1.59</v>
       </c>
       <c r="F34" t="n">
-        <v>501830.3008343788</v>
+        <v>1652709.0168</v>
       </c>
       <c r="G34" t="n">
-        <v>27016874.48137931</v>
+        <v>-90969.34615506884</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1649,7 +1765,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1660,22 +1780,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.63</v>
+        <v>1.675</v>
       </c>
       <c r="C35" t="n">
-        <v>1.63</v>
+        <v>1.621</v>
       </c>
       <c r="D35" t="n">
-        <v>1.63</v>
+        <v>1.675</v>
       </c>
       <c r="E35" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="F35" t="n">
-        <v>85518.7224</v>
+        <v>465294.6656</v>
       </c>
       <c r="G35" t="n">
-        <v>26931355.75897931</v>
+        <v>-556264.0117550688</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1685,7 +1805,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1820,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.63</v>
+        <v>1.627</v>
       </c>
       <c r="C36" t="n">
-        <v>1.63</v>
+        <v>1.614</v>
       </c>
       <c r="D36" t="n">
-        <v>1.63</v>
+        <v>1.627</v>
       </c>
       <c r="E36" t="n">
-        <v>1.63</v>
+        <v>1.614</v>
       </c>
       <c r="F36" t="n">
-        <v>85518.7224</v>
+        <v>200000</v>
       </c>
       <c r="G36" t="n">
-        <v>26931355.75897931</v>
+        <v>-756264.0117550688</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1721,7 +1845,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1732,22 +1860,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.63</v>
+        <v>1.614</v>
       </c>
       <c r="C37" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="D37" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="E37" t="n">
-        <v>1.63</v>
+        <v>1.614</v>
       </c>
       <c r="F37" t="n">
-        <v>22418.9058</v>
+        <v>320000</v>
       </c>
       <c r="G37" t="n">
-        <v>26931355.75897931</v>
+        <v>-436264.0117550688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1757,7 +1885,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1900,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="C38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="D38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="E38" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="F38" t="n">
-        <v>9000</v>
+        <v>410723.9813</v>
       </c>
       <c r="G38" t="n">
-        <v>26922355.75897931</v>
+        <v>-25540.0304550688</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1793,7 +1925,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1804,22 +1940,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="C39" t="n">
-        <v>1.62</v>
+        <v>1.645</v>
       </c>
       <c r="D39" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="E39" t="n">
-        <v>1.62</v>
+        <v>1.645</v>
       </c>
       <c r="F39" t="n">
-        <v>3733.2604</v>
+        <v>31339</v>
       </c>
       <c r="G39" t="n">
-        <v>26922355.75897931</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1829,7 +1965,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1840,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="C40" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="D40" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="E40" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>3501</v>
       </c>
       <c r="G40" t="n">
-        <v>26923355.75897931</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1865,7 +2005,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1876,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="C41" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="D41" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="E41" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>8460.6</v>
       </c>
       <c r="G41" t="n">
-        <v>26923355.75897931</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1901,7 +2045,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +2060,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="C42" t="n">
-        <v>1.654</v>
+        <v>1.645</v>
       </c>
       <c r="D42" t="n">
-        <v>1.654</v>
+        <v>1.645</v>
       </c>
       <c r="E42" t="n">
-        <v>1.65</v>
+        <v>1.645</v>
       </c>
       <c r="F42" t="n">
-        <v>253984</v>
+        <v>55392.7036</v>
       </c>
       <c r="G42" t="n">
-        <v>27177339.75897931</v>
+        <v>-56879.0304550688</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1937,7 +2085,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.654</v>
+        <v>1.643</v>
       </c>
       <c r="C43" t="n">
-        <v>1.654</v>
+        <v>1.643</v>
       </c>
       <c r="D43" t="n">
-        <v>1.654</v>
+        <v>1.643</v>
       </c>
       <c r="E43" t="n">
-        <v>1.654</v>
+        <v>1.6</v>
       </c>
       <c r="F43" t="n">
-        <v>7778</v>
+        <v>558380.8624</v>
       </c>
       <c r="G43" t="n">
-        <v>27177339.75897931</v>
+        <v>-615259.8928550688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1973,7 +2125,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1984,22 +2140,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.654</v>
+        <v>1.64</v>
       </c>
       <c r="C44" t="n">
-        <v>1.654</v>
+        <v>1.643</v>
       </c>
       <c r="D44" t="n">
-        <v>1.654</v>
+        <v>1.643</v>
       </c>
       <c r="E44" t="n">
-        <v>1.654</v>
+        <v>1.64</v>
       </c>
       <c r="F44" t="n">
-        <v>150495</v>
+        <v>51850</v>
       </c>
       <c r="G44" t="n">
-        <v>27177339.75897931</v>
+        <v>-615259.8928550688</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2009,7 +2165,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2020,22 +2180,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.654</v>
+        <v>1.601</v>
       </c>
       <c r="C45" t="n">
-        <v>1.654</v>
+        <v>1.644</v>
       </c>
       <c r="D45" t="n">
-        <v>1.654</v>
+        <v>1.644</v>
       </c>
       <c r="E45" t="n">
-        <v>1.654</v>
+        <v>1.601</v>
       </c>
       <c r="F45" t="n">
-        <v>20000</v>
+        <v>371922.4916</v>
       </c>
       <c r="G45" t="n">
-        <v>27177339.75897931</v>
+        <v>-243337.4012550688</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2045,7 +2205,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2056,22 +2220,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.65</v>
+        <v>1.611</v>
       </c>
       <c r="C46" t="n">
-        <v>1.654</v>
+        <v>1.611</v>
       </c>
       <c r="D46" t="n">
-        <v>1.654</v>
+        <v>1.611</v>
       </c>
       <c r="E46" t="n">
-        <v>1.65</v>
+        <v>1.611</v>
       </c>
       <c r="F46" t="n">
-        <v>9071</v>
+        <v>174520.3986</v>
       </c>
       <c r="G46" t="n">
-        <v>27177339.75897931</v>
+        <v>-417857.7998550688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2081,7 +2245,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2092,22 +2260,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.654</v>
+        <v>1.612</v>
       </c>
       <c r="C47" t="n">
-        <v>1.654</v>
+        <v>1.637</v>
       </c>
       <c r="D47" t="n">
-        <v>1.654</v>
+        <v>1.638</v>
       </c>
       <c r="E47" t="n">
-        <v>1.654</v>
+        <v>1.612</v>
       </c>
       <c r="F47" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G47" t="n">
-        <v>27177339.75897931</v>
+        <v>-377857.7998550688</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2117,7 +2285,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2128,22 +2300,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.654</v>
+        <v>1.61</v>
       </c>
       <c r="C48" t="n">
-        <v>1.659</v>
+        <v>1.61</v>
       </c>
       <c r="D48" t="n">
-        <v>1.659</v>
+        <v>1.61</v>
       </c>
       <c r="E48" t="n">
-        <v>1.654</v>
+        <v>1.61</v>
       </c>
       <c r="F48" t="n">
-        <v>60000</v>
+        <v>23334.7259</v>
       </c>
       <c r="G48" t="n">
-        <v>27237339.75897931</v>
+        <v>-401192.5257550688</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2153,7 +2325,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2164,22 +2340,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.659</v>
+        <v>1.61</v>
       </c>
       <c r="C49" t="n">
-        <v>1.659</v>
+        <v>1.6</v>
       </c>
       <c r="D49" t="n">
-        <v>1.659</v>
+        <v>1.61</v>
       </c>
       <c r="E49" t="n">
-        <v>1.659</v>
+        <v>1.6</v>
       </c>
       <c r="F49" t="n">
-        <v>1188.16</v>
+        <v>75022.0941</v>
       </c>
       <c r="G49" t="n">
-        <v>27237339.75897931</v>
+        <v>-476214.6198550688</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2189,7 +2365,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +2380,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="C50" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="D50" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="E50" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>154520.398</v>
       </c>
       <c r="G50" t="n">
-        <v>27237339.75897931</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2225,7 +2405,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2236,22 +2420,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="C51" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="D51" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="E51" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="F51" t="n">
-        <v>13127.1</v>
+        <v>771345.0072</v>
       </c>
       <c r="G51" t="n">
-        <v>27237339.75897931</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2261,7 +2445,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2272,32 +2460,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="C52" t="n">
-        <v>1.67</v>
+        <v>1.599</v>
       </c>
       <c r="D52" t="n">
-        <v>1.67</v>
+        <v>1.599</v>
       </c>
       <c r="E52" t="n">
-        <v>1.659</v>
+        <v>1.599</v>
       </c>
       <c r="F52" t="n">
-        <v>375437.95</v>
+        <v>787.8552</v>
       </c>
       <c r="G52" t="n">
-        <v>27612777.70897931</v>
+        <v>-630735.0178550688</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.599</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2308,32 +2502,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.625</v>
+        <v>1.588</v>
       </c>
       <c r="C53" t="n">
-        <v>1.734</v>
+        <v>1.588</v>
       </c>
       <c r="D53" t="n">
-        <v>1.734</v>
+        <v>1.588</v>
       </c>
       <c r="E53" t="n">
-        <v>1.625</v>
+        <v>1.588</v>
       </c>
       <c r="F53" t="n">
-        <v>939985.1186</v>
+        <v>321182.4247</v>
       </c>
       <c r="G53" t="n">
-        <v>28552762.82757931</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.599</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2344,32 +2544,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.734</v>
+        <v>1.582</v>
       </c>
       <c r="C54" t="n">
-        <v>1.734</v>
+        <v>1.588</v>
       </c>
       <c r="D54" t="n">
-        <v>1.734</v>
+        <v>1.588</v>
       </c>
       <c r="E54" t="n">
-        <v>1.734</v>
+        <v>1.58</v>
       </c>
       <c r="F54" t="n">
-        <v>84639</v>
+        <v>337554.7571</v>
       </c>
       <c r="G54" t="n">
-        <v>28552762.82757931</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.588</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2380,32 +2586,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="C55" t="n">
-        <v>1.63</v>
+        <v>1.588</v>
       </c>
       <c r="D55" t="n">
-        <v>1.73</v>
+        <v>1.588</v>
       </c>
       <c r="E55" t="n">
-        <v>1.63</v>
+        <v>1.542</v>
       </c>
       <c r="F55" t="n">
-        <v>8601.863600000001</v>
+        <v>1662453.4058</v>
       </c>
       <c r="G55" t="n">
-        <v>28544160.96397931</v>
+        <v>-951917.4425550688</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.588</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2416,32 +2628,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.728</v>
+        <v>1.58</v>
       </c>
       <c r="C56" t="n">
-        <v>1.728</v>
+        <v>1.58</v>
       </c>
       <c r="D56" t="n">
-        <v>1.728</v>
+        <v>1.58</v>
       </c>
       <c r="E56" t="n">
-        <v>1.728</v>
+        <v>1.58</v>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>212651.1</v>
       </c>
       <c r="G56" t="n">
-        <v>28546160.96397931</v>
+        <v>-1164568.542555069</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.588</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2452,32 +2670,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.725</v>
+        <v>1.58</v>
       </c>
       <c r="C57" t="n">
-        <v>1.722</v>
+        <v>1.588</v>
       </c>
       <c r="D57" t="n">
-        <v>1.725</v>
+        <v>1.588</v>
       </c>
       <c r="E57" t="n">
-        <v>1.722</v>
+        <v>1.58</v>
       </c>
       <c r="F57" t="n">
-        <v>13616.8157</v>
+        <v>309736.5866</v>
       </c>
       <c r="G57" t="n">
-        <v>28532544.14827931</v>
+        <v>-854831.9559550688</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.58</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2488,32 +2712,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="C58" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="D58" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="E58" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="F58" t="n">
-        <v>3000</v>
+        <v>46028.906</v>
       </c>
       <c r="G58" t="n">
-        <v>28529544.14827931</v>
+        <v>-900860.8619550688</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.588</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2524,32 +2754,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.7</v>
+        <v>1.554</v>
       </c>
       <c r="C59" t="n">
-        <v>1.69</v>
+        <v>1.554</v>
       </c>
       <c r="D59" t="n">
-        <v>1.7</v>
+        <v>1.554</v>
       </c>
       <c r="E59" t="n">
-        <v>1.69</v>
+        <v>1.554</v>
       </c>
       <c r="F59" t="n">
-        <v>10889.0492</v>
+        <v>5854.9625</v>
       </c>
       <c r="G59" t="n">
-        <v>28529544.14827931</v>
+        <v>-906715.8244550688</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.58</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2560,32 +2796,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.673</v>
+        <v>1.58</v>
       </c>
       <c r="C60" t="n">
-        <v>1.673</v>
+        <v>1.58</v>
       </c>
       <c r="D60" t="n">
-        <v>1.673</v>
+        <v>1.58</v>
       </c>
       <c r="E60" t="n">
-        <v>1.673</v>
+        <v>1.58</v>
       </c>
       <c r="F60" t="n">
-        <v>298.8644</v>
+        <v>40000</v>
       </c>
       <c r="G60" t="n">
-        <v>28529245.28387931</v>
+        <v>-866715.8244550688</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.554</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2596,32 +2838,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.673</v>
+        <v>1.577</v>
       </c>
       <c r="C61" t="n">
-        <v>1.673</v>
+        <v>1.578</v>
       </c>
       <c r="D61" t="n">
-        <v>1.673</v>
+        <v>1.578</v>
       </c>
       <c r="E61" t="n">
-        <v>1.673</v>
+        <v>1.577</v>
       </c>
       <c r="F61" t="n">
-        <v>298.6858</v>
+        <v>38053</v>
       </c>
       <c r="G61" t="n">
-        <v>28529245.28387931</v>
+        <v>-904768.8244550688</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.58</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2632,32 +2880,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.673</v>
+        <v>1.578</v>
       </c>
       <c r="C62" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="D62" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="E62" t="n">
-        <v>1.673</v>
+        <v>1.578</v>
       </c>
       <c r="F62" t="n">
-        <v>79154.129</v>
+        <v>91673</v>
       </c>
       <c r="G62" t="n">
-        <v>28529245.28387931</v>
+        <v>-813095.8244550688</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.578</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2668,32 +2922,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="C63" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="D63" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="E63" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="F63" t="n">
-        <v>11509</v>
+        <v>8099</v>
       </c>
       <c r="G63" t="n">
-        <v>28529245.28387931</v>
+        <v>-813095.8244550688</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.583</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2704,32 +2964,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="C64" t="n">
-        <v>1.673</v>
+        <v>1.588</v>
       </c>
       <c r="D64" t="n">
-        <v>1.673</v>
+        <v>1.588</v>
       </c>
       <c r="E64" t="n">
-        <v>1.673</v>
+        <v>1.583</v>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>455699.0022</v>
       </c>
       <c r="G64" t="n">
-        <v>28529245.28387931</v>
+        <v>-357396.8222550688</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.583</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2740,32 +3006,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.673</v>
+        <v>1.588</v>
       </c>
       <c r="C65" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="D65" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="E65" t="n">
-        <v>1.673</v>
+        <v>1.588</v>
       </c>
       <c r="F65" t="n">
-        <v>2503</v>
+        <v>40000</v>
       </c>
       <c r="G65" t="n">
-        <v>28529245.28387931</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.588</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2776,32 +3048,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="C66" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="D66" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="E66" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="F66" t="n">
-        <v>1589</v>
+        <v>80000</v>
       </c>
       <c r="G66" t="n">
-        <v>28529245.28387931</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.599</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2812,32 +3090,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="C67" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="D67" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="E67" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="F67" t="n">
-        <v>45407</v>
+        <v>1721</v>
       </c>
       <c r="G67" t="n">
-        <v>28529245.28387931</v>
+        <v>-317396.8222550688</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.599</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2848,32 +3132,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="C68" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="D68" t="n">
-        <v>1.673</v>
+        <v>1.62</v>
       </c>
       <c r="E68" t="n">
-        <v>1.673</v>
+        <v>1.599</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>6333000</v>
       </c>
       <c r="G68" t="n">
-        <v>28529245.28387931</v>
+        <v>6015603.177744932</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.599</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2884,32 +3174,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.673</v>
+        <v>1.619</v>
       </c>
       <c r="C69" t="n">
-        <v>1.673</v>
+        <v>1.679</v>
       </c>
       <c r="D69" t="n">
-        <v>1.673</v>
+        <v>1.679</v>
       </c>
       <c r="E69" t="n">
-        <v>1.673</v>
+        <v>1.619</v>
       </c>
       <c r="F69" t="n">
-        <v>21000</v>
+        <v>6255829.5176</v>
       </c>
       <c r="G69" t="n">
-        <v>28529245.28387931</v>
+        <v>12271432.69534493</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.62</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2920,22 +3216,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.673</v>
+        <v>1.63</v>
       </c>
       <c r="C70" t="n">
-        <v>1.707</v>
+        <v>1.581</v>
       </c>
       <c r="D70" t="n">
-        <v>1.707</v>
+        <v>1.679</v>
       </c>
       <c r="E70" t="n">
-        <v>1.673</v>
+        <v>1.581</v>
       </c>
       <c r="F70" t="n">
-        <v>75297</v>
+        <v>1576310.9328</v>
       </c>
       <c r="G70" t="n">
-        <v>28604542.28387931</v>
+        <v>10695121.76254493</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2945,7 +3241,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +3256,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.707</v>
+        <v>1.669</v>
       </c>
       <c r="C71" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="D71" t="n">
-        <v>1.707</v>
+        <v>1.679</v>
       </c>
       <c r="E71" t="n">
-        <v>1.707</v>
+        <v>1.641</v>
       </c>
       <c r="F71" t="n">
-        <v>6889.3025</v>
+        <v>830342.959</v>
       </c>
       <c r="G71" t="n">
-        <v>28604542.28387931</v>
+        <v>11525464.72154493</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2981,7 +3281,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2992,22 +3296,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.709</v>
+        <v>1.643</v>
       </c>
       <c r="C72" t="n">
-        <v>1.708</v>
+        <v>1.63</v>
       </c>
       <c r="D72" t="n">
-        <v>1.709</v>
+        <v>1.643</v>
       </c>
       <c r="E72" t="n">
-        <v>1.708</v>
+        <v>1.63</v>
       </c>
       <c r="F72" t="n">
-        <v>1714.35</v>
+        <v>512546.9659</v>
       </c>
       <c r="G72" t="n">
-        <v>28606256.63387932</v>
+        <v>11012917.75564493</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3017,7 +3321,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3028,22 +3336,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.708</v>
+        <v>1.659</v>
       </c>
       <c r="C73" t="n">
-        <v>1.707</v>
+        <v>1.573</v>
       </c>
       <c r="D73" t="n">
-        <v>1.708</v>
+        <v>1.67</v>
       </c>
       <c r="E73" t="n">
-        <v>1.707</v>
+        <v>1.573</v>
       </c>
       <c r="F73" t="n">
-        <v>20000</v>
+        <v>495799.9054</v>
       </c>
       <c r="G73" t="n">
-        <v>28586256.63387932</v>
+        <v>10517117.85024493</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3053,7 +3361,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +3376,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="C74" t="n">
-        <v>1.708</v>
+        <v>1.659</v>
       </c>
       <c r="D74" t="n">
-        <v>1.708</v>
+        <v>1.659</v>
       </c>
       <c r="E74" t="n">
-        <v>1.707</v>
+        <v>1.65</v>
       </c>
       <c r="F74" t="n">
-        <v>3746.4075</v>
+        <v>247042.7777</v>
       </c>
       <c r="G74" t="n">
-        <v>28590003.04137931</v>
+        <v>10764160.62794493</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3089,7 +3401,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3100,22 +3416,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="C75" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="D75" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="E75" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="F75" t="n">
-        <v>13665.4175</v>
+        <v>202847.4733</v>
       </c>
       <c r="G75" t="n">
-        <v>28576337.62387931</v>
+        <v>10561313.15464493</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3125,7 +3441,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +3456,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="C76" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="D76" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="E76" t="n">
-        <v>1.675</v>
+        <v>1.648</v>
       </c>
       <c r="F76" t="n">
-        <v>21844.3201</v>
+        <v>6823217.1062</v>
       </c>
       <c r="G76" t="n">
-        <v>28554493.30377932</v>
+        <v>17384530.26084493</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3161,7 +3481,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +3496,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.7</v>
+        <v>1.631</v>
       </c>
       <c r="C77" t="n">
-        <v>1.7</v>
+        <v>1.631</v>
       </c>
       <c r="D77" t="n">
-        <v>1.7</v>
+        <v>1.631</v>
       </c>
       <c r="E77" t="n">
-        <v>1.7</v>
+        <v>1.631</v>
       </c>
       <c r="F77" t="n">
-        <v>2677.0871</v>
+        <v>46860.2659</v>
       </c>
       <c r="G77" t="n">
-        <v>28557170.39087931</v>
+        <v>17337669.99494493</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3197,7 +3521,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3208,22 +3536,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.676</v>
+        <v>1.591</v>
       </c>
       <c r="C78" t="n">
-        <v>1.676</v>
+        <v>1.591</v>
       </c>
       <c r="D78" t="n">
-        <v>1.676</v>
+        <v>1.591</v>
       </c>
       <c r="E78" t="n">
-        <v>1.676</v>
+        <v>1.591</v>
       </c>
       <c r="F78" t="n">
-        <v>292185.3692</v>
+        <v>1695.1428</v>
       </c>
       <c r="G78" t="n">
-        <v>28264985.02167932</v>
+        <v>17335974.85214493</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3233,7 +3561,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3244,22 +3576,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.678</v>
+        <v>1.628</v>
       </c>
       <c r="C79" t="n">
-        <v>1.678</v>
+        <v>1.629</v>
       </c>
       <c r="D79" t="n">
-        <v>1.678</v>
+        <v>1.629</v>
       </c>
       <c r="E79" t="n">
-        <v>1.678</v>
+        <v>1.628</v>
       </c>
       <c r="F79" t="n">
-        <v>42721</v>
+        <v>1721</v>
       </c>
       <c r="G79" t="n">
-        <v>28307706.02167932</v>
+        <v>17337695.85214493</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3269,7 +3601,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3280,22 +3616,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.678</v>
+        <v>1.629</v>
       </c>
       <c r="C80" t="n">
-        <v>1.678</v>
+        <v>1.542</v>
       </c>
       <c r="D80" t="n">
-        <v>1.678</v>
+        <v>1.636</v>
       </c>
       <c r="E80" t="n">
-        <v>1.678</v>
+        <v>1.542</v>
       </c>
       <c r="F80" t="n">
-        <v>22553.009</v>
+        <v>2537329.6157</v>
       </c>
       <c r="G80" t="n">
-        <v>28307706.02167932</v>
+        <v>14800366.23644493</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3305,7 +3641,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3656,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.677</v>
+        <v>1.609</v>
       </c>
       <c r="C81" t="n">
-        <v>1.677</v>
+        <v>1.607</v>
       </c>
       <c r="D81" t="n">
-        <v>1.677</v>
+        <v>1.61</v>
       </c>
       <c r="E81" t="n">
-        <v>1.677</v>
+        <v>1.543</v>
       </c>
       <c r="F81" t="n">
-        <v>5880.1896</v>
+        <v>5123865.5895</v>
       </c>
       <c r="G81" t="n">
-        <v>28301825.83207932</v>
+        <v>19924231.82594493</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,7 +3681,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3352,22 +3696,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.675</v>
+        <v>1.59</v>
       </c>
       <c r="C82" t="n">
-        <v>1.675</v>
+        <v>1.588</v>
       </c>
       <c r="D82" t="n">
-        <v>1.675</v>
+        <v>1.59</v>
       </c>
       <c r="E82" t="n">
-        <v>1.675</v>
+        <v>1.588</v>
       </c>
       <c r="F82" t="n">
-        <v>1600000</v>
+        <v>975890.8432</v>
       </c>
       <c r="G82" t="n">
-        <v>26701825.83207932</v>
+        <v>18948340.98274493</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3377,7 +3721,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3736,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.676</v>
+        <v>1.59</v>
       </c>
       <c r="C83" t="n">
-        <v>1.676</v>
+        <v>1.603</v>
       </c>
       <c r="D83" t="n">
-        <v>1.676</v>
+        <v>1.603</v>
       </c>
       <c r="E83" t="n">
-        <v>1.676</v>
+        <v>1.59</v>
       </c>
       <c r="F83" t="n">
-        <v>16556.25</v>
+        <v>410506.4553</v>
       </c>
       <c r="G83" t="n">
-        <v>26718382.08207932</v>
+        <v>19358847.43804493</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3413,7 +3761,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3776,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.674</v>
+        <v>1.614</v>
       </c>
       <c r="C84" t="n">
-        <v>1.674</v>
+        <v>1.612</v>
       </c>
       <c r="D84" t="n">
-        <v>1.674</v>
+        <v>1.614</v>
       </c>
       <c r="E84" t="n">
-        <v>1.674</v>
+        <v>1.612</v>
       </c>
       <c r="F84" t="n">
-        <v>8241.566000000001</v>
+        <v>8391679.51</v>
       </c>
       <c r="G84" t="n">
-        <v>26710140.51607932</v>
+        <v>27750526.94804493</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3449,7 +3801,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3460,22 +3816,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.676</v>
+        <v>1.62</v>
       </c>
       <c r="C85" t="n">
-        <v>1.676</v>
+        <v>1.6</v>
       </c>
       <c r="D85" t="n">
-        <v>1.676</v>
+        <v>1.734</v>
       </c>
       <c r="E85" t="n">
-        <v>1.676</v>
+        <v>1.6</v>
       </c>
       <c r="F85" t="n">
-        <v>99154</v>
+        <v>246685.6331</v>
       </c>
       <c r="G85" t="n">
-        <v>26809294.51607932</v>
+        <v>27503841.31494493</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3485,7 +3841,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3856,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.674</v>
+        <v>1.65</v>
       </c>
       <c r="C86" t="n">
-        <v>1.673</v>
+        <v>1.631</v>
       </c>
       <c r="D86" t="n">
-        <v>1.674</v>
+        <v>1.65</v>
       </c>
       <c r="E86" t="n">
-        <v>1.673</v>
+        <v>1.631</v>
       </c>
       <c r="F86" t="n">
-        <v>896.0577</v>
+        <v>404798.4128</v>
       </c>
       <c r="G86" t="n">
-        <v>26808398.45837932</v>
+        <v>27908639.72774493</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3521,7 +3881,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3896,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.673</v>
+        <v>1.631</v>
       </c>
       <c r="C87" t="n">
-        <v>1.673</v>
+        <v>1.67</v>
       </c>
       <c r="D87" t="n">
-        <v>1.673</v>
+        <v>1.679</v>
       </c>
       <c r="E87" t="n">
-        <v>1.673</v>
+        <v>1.631</v>
       </c>
       <c r="F87" t="n">
-        <v>27335.2939</v>
+        <v>165502.3811</v>
       </c>
       <c r="G87" t="n">
-        <v>26808398.45837932</v>
+        <v>28074142.10884493</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3557,7 +3921,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3936,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="D88" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="F88" t="n">
-        <v>8266.17</v>
+        <v>316238.067</v>
       </c>
       <c r="G88" t="n">
-        <v>26816664.62837932</v>
+        <v>27757904.04184493</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3593,7 +3961,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3976,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.695</v>
+        <v>1.67</v>
       </c>
       <c r="C89" t="n">
-        <v>1.695</v>
+        <v>1.67</v>
       </c>
       <c r="D89" t="n">
-        <v>1.695</v>
+        <v>1.67</v>
       </c>
       <c r="E89" t="n">
-        <v>1.695</v>
+        <v>1.67</v>
       </c>
       <c r="F89" t="n">
-        <v>20000</v>
+        <v>35665.2565</v>
       </c>
       <c r="G89" t="n">
-        <v>26796664.62837932</v>
+        <v>27793569.29834493</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3629,7 +4001,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +4016,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.695</v>
+        <v>1.66</v>
       </c>
       <c r="C90" t="n">
-        <v>1.695</v>
+        <v>1.65</v>
       </c>
       <c r="D90" t="n">
-        <v>1.695</v>
+        <v>1.66</v>
       </c>
       <c r="E90" t="n">
-        <v>1.695</v>
+        <v>1.65</v>
       </c>
       <c r="F90" t="n">
-        <v>244535.3101</v>
+        <v>284747.4716</v>
       </c>
       <c r="G90" t="n">
-        <v>26796664.62837932</v>
+        <v>27508821.82674493</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +4056,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.695</v>
+        <v>1.64</v>
       </c>
       <c r="C91" t="n">
-        <v>1.695</v>
+        <v>1.64</v>
       </c>
       <c r="D91" t="n">
-        <v>1.695</v>
+        <v>1.64</v>
       </c>
       <c r="E91" t="n">
-        <v>1.695</v>
+        <v>1.64</v>
       </c>
       <c r="F91" t="n">
-        <v>49714.0223</v>
+        <v>20355.9126</v>
       </c>
       <c r="G91" t="n">
-        <v>26796664.62837932</v>
+        <v>27488465.91414493</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +4096,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.695</v>
+        <v>1.63</v>
       </c>
       <c r="C92" t="n">
-        <v>1.695</v>
+        <v>1.63</v>
       </c>
       <c r="D92" t="n">
-        <v>1.695</v>
+        <v>1.63</v>
       </c>
       <c r="E92" t="n">
-        <v>1.695</v>
+        <v>1.63</v>
       </c>
       <c r="F92" t="n">
-        <v>1090</v>
+        <v>20000</v>
       </c>
       <c r="G92" t="n">
-        <v>26796664.62837932</v>
+        <v>27468465.91414493</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +4136,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.672</v>
+        <v>1.697</v>
       </c>
       <c r="C93" t="n">
-        <v>1.695</v>
+        <v>1.697</v>
       </c>
       <c r="D93" t="n">
-        <v>1.695</v>
+        <v>1.697</v>
       </c>
       <c r="E93" t="n">
-        <v>1.672</v>
+        <v>1.697</v>
       </c>
       <c r="F93" t="n">
-        <v>119559.9115</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>26796664.62837932</v>
+        <v>27469465.91414493</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3773,7 +4161,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +4176,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.663</v>
+        <v>1.63</v>
       </c>
       <c r="C94" t="n">
-        <v>1.663</v>
+        <v>1.67</v>
       </c>
       <c r="D94" t="n">
-        <v>1.663</v>
+        <v>1.67</v>
       </c>
       <c r="E94" t="n">
-        <v>1.663</v>
+        <v>1.63</v>
       </c>
       <c r="F94" t="n">
-        <v>2661.9365</v>
+        <v>129654.8962</v>
       </c>
       <c r="G94" t="n">
-        <v>26794002.69187932</v>
+        <v>27339811.01794493</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3809,7 +4201,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +4216,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.672</v>
+        <v>1.648</v>
       </c>
       <c r="C95" t="n">
-        <v>1.706</v>
+        <v>1.648</v>
       </c>
       <c r="D95" t="n">
-        <v>1.706</v>
+        <v>1.648</v>
       </c>
       <c r="E95" t="n">
-        <v>1.672</v>
+        <v>1.648</v>
       </c>
       <c r="F95" t="n">
-        <v>316716.1863</v>
+        <v>1036093.2026</v>
       </c>
       <c r="G95" t="n">
-        <v>27110718.87817932</v>
+        <v>26303717.81534493</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3845,7 +4241,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +4256,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="C96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="D96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="E96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="F96" t="n">
-        <v>9994.0448</v>
+        <v>346145.5224</v>
       </c>
       <c r="G96" t="n">
-        <v>27100724.83337932</v>
+        <v>26649863.33774493</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3881,7 +4281,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +4296,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.705</v>
+        <v>1.655</v>
       </c>
       <c r="C97" t="n">
-        <v>1.72</v>
+        <v>1.655</v>
       </c>
       <c r="D97" t="n">
-        <v>1.72</v>
+        <v>1.655</v>
       </c>
       <c r="E97" t="n">
-        <v>1.705</v>
+        <v>1.655</v>
       </c>
       <c r="F97" t="n">
-        <v>28717.3988</v>
+        <v>195066.4397</v>
       </c>
       <c r="G97" t="n">
-        <v>27129442.23217932</v>
+        <v>26844929.77744493</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3917,7 +4321,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +4336,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="C98" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="D98" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="E98" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="F98" t="n">
-        <v>340587.7553</v>
+        <v>156302.6484</v>
       </c>
       <c r="G98" t="n">
-        <v>27129442.23217932</v>
+        <v>27001232.42584493</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3964,32 +4376,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="C99" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="D99" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="E99" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="F99" t="n">
-        <v>312836.8902</v>
+        <v>190664.6</v>
       </c>
       <c r="G99" t="n">
-        <v>26816605.34197932</v>
+        <v>27191897.02584493</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4000,32 +4416,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="C100" t="n">
-        <v>1.719</v>
+        <v>1.67</v>
       </c>
       <c r="D100" t="n">
-        <v>1.719</v>
+        <v>1.68</v>
       </c>
       <c r="E100" t="n">
-        <v>1.719</v>
+        <v>1.67</v>
       </c>
       <c r="F100" t="n">
-        <v>15575.5441</v>
+        <v>70520.0453</v>
       </c>
       <c r="G100" t="n">
-        <v>26816605.34197932</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4036,32 +4456,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="C101" t="n">
-        <v>1.653</v>
+        <v>1.67</v>
       </c>
       <c r="D101" t="n">
-        <v>1.654</v>
+        <v>1.67</v>
       </c>
       <c r="E101" t="n">
-        <v>1.653</v>
+        <v>1.67</v>
       </c>
       <c r="F101" t="n">
-        <v>1329.0553</v>
+        <v>200000</v>
       </c>
       <c r="G101" t="n">
-        <v>26815276.28667932</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4072,36 +4496,2802 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.653</v>
+        <v>1.67</v>
       </c>
       <c r="C102" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="E102" t="n">
-        <v>1.653</v>
+        <v>1.67</v>
       </c>
       <c r="F102" t="n">
-        <v>182781.4203</v>
+        <v>7293.8772</v>
       </c>
       <c r="G102" t="n">
-        <v>26998057.70697932</v>
+        <v>27121376.98054493</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.611</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F103" t="n">
+        <v>514821.2818</v>
+      </c>
+      <c r="G103" t="n">
+        <v>27121376.98054493</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F104" t="n">
+        <v>606332.8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>26515044.18054493</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="F105" t="n">
+        <v>501830.3008343788</v>
+      </c>
+      <c r="G105" t="n">
+        <v>27016874.48137931</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F106" t="n">
+        <v>85518.7224</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26931355.75897931</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F107" t="n">
+        <v>85518.7224</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26931355.75897931</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F108" t="n">
+        <v>22418.9058</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26931355.75897931</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>26922355.75897931</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3733.2604</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26922355.75897931</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26923355.75897931</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>26923355.75897931</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F113" t="n">
+        <v>253984</v>
+      </c>
+      <c r="G113" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7778</v>
+      </c>
+      <c r="G114" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F115" t="n">
+        <v>150495</v>
+      </c>
+      <c r="G115" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9071</v>
+      </c>
+      <c r="G117" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>27177339.75897931</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="F119" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>27237339.75897931</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1188.16</v>
+      </c>
+      <c r="G120" t="n">
+        <v>27237339.75897931</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>27237339.75897931</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="F122" t="n">
+        <v>13127.1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>27237339.75897931</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="F123" t="n">
+        <v>375437.95</v>
+      </c>
+      <c r="G123" t="n">
+        <v>27612777.70897931</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="F124" t="n">
+        <v>939985.1186</v>
+      </c>
+      <c r="G124" t="n">
+        <v>28552762.82757931</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="F125" t="n">
+        <v>84639</v>
+      </c>
+      <c r="G125" t="n">
+        <v>28552762.82757931</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8601.863600000001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>28544160.96397931</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>28546160.96397931</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13616.8157</v>
+      </c>
+      <c r="G128" t="n">
+        <v>28532544.14827931</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>28529544.14827931</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10889.0492</v>
+      </c>
+      <c r="G130" t="n">
+        <v>28529544.14827931</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F131" t="n">
+        <v>298.8644</v>
+      </c>
+      <c r="G131" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F132" t="n">
+        <v>298.6858</v>
+      </c>
+      <c r="G132" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F133" t="n">
+        <v>79154.129</v>
+      </c>
+      <c r="G133" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11509</v>
+      </c>
+      <c r="G134" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F135" t="n">
+        <v>800</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2503</v>
+      </c>
+      <c r="G136" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1589</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F138" t="n">
+        <v>45407</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>28529245.28387931</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F141" t="n">
+        <v>75297</v>
+      </c>
+      <c r="G141" t="n">
+        <v>28604542.28387931</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6889.3025</v>
+      </c>
+      <c r="G142" t="n">
+        <v>28604542.28387931</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1714.35</v>
+      </c>
+      <c r="G143" t="n">
+        <v>28606256.63387932</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28586256.63387932</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3746.4075</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28590003.04137931</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F146" t="n">
+        <v>13665.4175</v>
+      </c>
+      <c r="G146" t="n">
+        <v>28576337.62387931</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21844.3201</v>
+      </c>
+      <c r="G147" t="n">
+        <v>28554493.30377932</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2677.0871</v>
+      </c>
+      <c r="G148" t="n">
+        <v>28557170.39087931</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F149" t="n">
+        <v>292185.3692</v>
+      </c>
+      <c r="G149" t="n">
+        <v>28264985.02167932</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="F150" t="n">
+        <v>42721</v>
+      </c>
+      <c r="G150" t="n">
+        <v>28307706.02167932</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22553.009</v>
+      </c>
+      <c r="G151" t="n">
+        <v>28307706.02167932</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5880.1896</v>
+      </c>
+      <c r="G152" t="n">
+        <v>28301825.83207932</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>26701825.83207932</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16556.25</v>
+      </c>
+      <c r="G154" t="n">
+        <v>26718382.08207932</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8241.566000000001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>26710140.51607932</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="F156" t="n">
+        <v>99154</v>
+      </c>
+      <c r="G156" t="n">
+        <v>26809294.51607932</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F157" t="n">
+        <v>896.0577</v>
+      </c>
+      <c r="G157" t="n">
+        <v>26808398.45837932</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="F158" t="n">
+        <v>27335.2939</v>
+      </c>
+      <c r="G158" t="n">
+        <v>26808398.45837932</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8266.17</v>
+      </c>
+      <c r="G159" t="n">
+        <v>26816664.62837932</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F161" t="n">
+        <v>244535.3101</v>
+      </c>
+      <c r="G161" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F162" t="n">
+        <v>49714.0223</v>
+      </c>
+      <c r="G162" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G163" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F164" t="n">
+        <v>119559.9115</v>
+      </c>
+      <c r="G164" t="n">
+        <v>26796664.62837932</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2661.9365</v>
+      </c>
+      <c r="G165" t="n">
+        <v>26794002.69187932</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="F166" t="n">
+        <v>316716.1863</v>
+      </c>
+      <c r="G166" t="n">
+        <v>27110718.87817932</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9994.0448</v>
+      </c>
+      <c r="G167" t="n">
+        <v>27100724.83337932</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="F168" t="n">
+        <v>28717.3988</v>
+      </c>
+      <c r="G168" t="n">
+        <v>27129442.23217932</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>340587.7553</v>
+      </c>
+      <c r="G169" t="n">
+        <v>27129442.23217932</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F170" t="n">
+        <v>312836.8902</v>
+      </c>
+      <c r="G170" t="n">
+        <v>26816605.34197932</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15575.5441</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26816605.34197932</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1329.0553</v>
+      </c>
+      <c r="G172" t="n">
+        <v>26815276.28667932</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="F173" t="n">
+        <v>182781.4203</v>
+      </c>
+      <c r="G173" t="n">
+        <v>26998057.70697932</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-3111036.167855069</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>-3274314.891855069</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>-3057493.891855069</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>-2894400.343655069</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,15 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +616,15 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +649,15 @@
         <v>-3553422.343655069</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +682,15 @@
         <v>-3413422.343655069</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,20 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,24 +748,19 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.617</v>
       </c>
       <c r="J11" t="n">
         <v>1.617</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,24 +785,23 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.616</v>
       </c>
       <c r="J12" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,24 +826,21 @@
         <v>-4597607.075155069</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,24 +865,21 @@
         <v>-1070700.811955069</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,24 +904,21 @@
         <v>523842.7842449308</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1036,24 +943,23 @@
         <v>526849.7842449308</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.616</v>
       </c>
       <c r="J16" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,20 +986,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,20 +1025,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,20 +1064,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,20 +1103,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,20 +1142,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,20 +1181,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1320,20 +1220,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,20 +1259,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1400,20 +1298,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,20 +1337,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,20 +1376,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1520,20 +1415,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1560,20 +1454,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1600,20 +1493,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1638,22 +1530,23 @@
         <v>-1749487.844855069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>1.607</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1678,22 +1571,23 @@
         <v>-929487.8448550689</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>1.574</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,20 +1614,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1760,20 +1653,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,20 +1692,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1840,20 +1731,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,20 +1770,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1920,20 +1809,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1958,22 +1846,23 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1998,22 +1887,23 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>1.645</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2038,22 +1928,23 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>1.645</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,22 +1969,23 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>1.645</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,20 +2012,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,20 +2051,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2198,22 +2088,23 @@
         <v>-243337.4012550688</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1.643</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2240,20 +2131,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2278,22 +2168,23 @@
         <v>-377857.7998550688</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>1.611</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2318,22 +2209,23 @@
         <v>-401192.5257550688</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>1.637</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2358,22 +2250,23 @@
         <v>-476214.6198550688</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1.61</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2398,22 +2291,23 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2438,22 +2332,23 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1.599</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2478,24 +2373,23 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1.599</v>
       </c>
       <c r="J52" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2520,24 +2414,23 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1.599</v>
       </c>
       <c r="J53" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2562,24 +2455,23 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="J54" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2604,24 +2496,23 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="J55" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2646,24 +2537,23 @@
         <v>-1164568.542555069</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="J56" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2688,24 +2578,23 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="J57" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2730,24 +2619,21 @@
         <v>-900860.8619550688</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,24 +2658,21 @@
         <v>-906715.8244550688</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2814,24 +2697,21 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>1.554</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2856,24 +2736,21 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2898,24 +2775,21 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>1.578</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,24 +2814,21 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,24 +2853,21 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3024,24 +2892,21 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3066,24 +2931,21 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3108,24 +2970,21 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3150,24 +3009,21 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3192,24 +3048,21 @@
         <v>12271432.69534493</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1.617</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3236,20 +3089,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3276,20 +3128,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3316,20 +3167,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3356,20 +3206,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3396,20 +3245,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3436,20 +3284,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3476,20 +3323,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3516,20 +3362,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3556,20 +3401,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3596,20 +3440,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3636,20 +3479,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3676,20 +3518,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3716,20 +3557,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3756,20 +3596,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3796,20 +3635,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3836,20 +3674,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3876,20 +3713,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3916,20 +3752,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3956,20 +3791,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3996,20 +3830,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4036,20 +3869,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4076,20 +3908,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4116,20 +3947,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4156,20 +3986,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4196,20 +4025,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4236,20 +4064,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4276,20 +4103,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4316,20 +4142,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4356,20 +4181,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4396,20 +4220,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4436,20 +4259,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4476,20 +4298,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4516,20 +4337,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4556,20 +4376,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4596,20 +4415,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4636,20 +4454,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4676,20 +4493,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4716,20 +4532,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4756,20 +4571,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4796,20 +4610,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4836,20 +4649,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4876,20 +4688,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4916,20 +4727,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4956,20 +4766,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4996,20 +4805,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5036,20 +4844,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5076,20 +4883,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5116,20 +4922,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5156,20 +4961,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5196,20 +5000,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5236,20 +5039,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5276,20 +5078,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5316,20 +5117,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5356,20 +5156,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5396,20 +5195,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5436,20 +5234,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5476,20 +5273,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5516,20 +5312,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5556,20 +5351,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5596,20 +5390,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5636,20 +5429,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5676,20 +5468,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5716,20 +5507,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5756,20 +5546,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5796,20 +5585,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5836,20 +5624,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5876,20 +5663,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5916,20 +5702,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5956,20 +5741,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5996,20 +5780,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6036,20 +5819,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6076,20 +5858,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6116,20 +5897,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6156,20 +5936,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6196,20 +5975,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6236,20 +6014,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6274,22 +6051,21 @@
         <v>28576337.62387931</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.033961038961039</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6316,20 +6092,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6356,20 +6125,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6396,20 +6158,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6436,20 +6191,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6476,20 +6224,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6516,20 +6257,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6556,20 +6290,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6596,18 +6323,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L154" t="n">
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6634,16 +6356,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6668,18 +6387,15 @@
         <v>26809294.51607932</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6704,18 +6420,15 @@
         <v>26808398.45837932</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6742,16 +6455,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6778,16 +6488,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6814,16 +6521,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6850,16 +6554,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6886,16 +6587,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6922,16 +6620,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6956,18 +6651,15 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6994,16 +6686,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7030,16 +6719,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7066,16 +6752,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7100,18 +6783,15 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7138,16 +6818,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7174,16 +6851,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7210,16 +6884,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7246,16 +6917,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7282,18 +6950,15 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3111036.167855069</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-3274314.891855069</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.62</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-3057493.891855069</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.61</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-2894400.343655069</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.62</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.648</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.63</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-3553422.343655069</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.63</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-3413422.343655069</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.562</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-4407989.422855069</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.653</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,15 +796,17 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1.617</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,17 +835,15 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1.616</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -826,15 +874,15 @@
         <v>-4597607.075155069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -865,12 +913,12 @@
         <v>-1070700.811955069</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -904,12 +952,12 @@
         <v>523842.7842449308</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -943,14 +991,10 @@
         <v>526849.7842449308</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -987,9 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1026,9 +1068,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1065,9 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1104,9 +1142,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1143,9 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1182,9 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1221,9 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1257,12 +1287,12 @@
         <v>-350644.0100550691</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1296,12 +1326,12 @@
         <v>-352991.0100550691</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.627</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,9 +1368,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1377,9 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,9 +1442,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1455,9 +1479,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,9 +1516,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1530,14 +1550,10 @@
         <v>-1749487.844855069</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.607</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1571,14 +1587,10 @@
         <v>-929487.8448550689</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.574</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,9 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,12 +1661,12 @@
         <v>-90969.34615506884</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1693,9 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,9 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,9 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,9 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,14 +1848,10 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,14 +1885,10 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.645</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,14 +1922,10 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.645</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,14 +1959,10 @@
         <v>-56879.0304550688</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.645</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2013,9 +1999,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,9 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2088,14 +2070,10 @@
         <v>-243337.4012550688</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.643</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,9 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,14 +2144,10 @@
         <v>-377857.7998550688</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.611</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,14 +2181,10 @@
         <v>-401192.5257550688</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.637</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,14 +2218,10 @@
         <v>-476214.6198550688</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,14 +2255,10 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,14 +2292,10 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,14 +2329,10 @@
         <v>-630735.0178550688</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,14 +2366,10 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2455,14 +2403,12 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1.588</v>
       </c>
-      <c r="J54" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,14 +2442,12 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1.588</v>
       </c>
-      <c r="J55" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,14 +2481,10 @@
         <v>-1164568.542555069</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,14 +2518,12 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1.58</v>
       </c>
-      <c r="J57" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,9 +2560,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,9 +2597,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,12 +2631,12 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,12 +2670,12 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,12 +2709,12 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,12 +2748,12 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,12 +2787,12 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,12 +2826,12 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,12 +2865,12 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,12 +2904,12 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,12 +2943,12 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1.617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,9 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,9 +3022,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,9 +3059,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,9 +3096,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,9 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,9 +3170,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,9 +3281,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,9 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,9 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,9 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,9 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,9 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,9 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,9 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,9 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,9 +3651,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,9 +3688,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,9 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,9 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,9 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,9 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,9 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,9 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,9 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,9 +3984,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,9 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,9 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,9 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,9 +4132,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,9 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,9 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,9 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,9 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,9 +4391,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,9 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,9 +4465,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,9 +4502,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,9 +4539,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,9 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,9 +4613,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,9 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,9 +4687,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,9 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,9 +4761,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,9 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,9 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,9 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,9 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,9 +4983,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,9 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,9 +5057,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,9 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,9 +5131,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,9 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5391,9 +5205,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,9 +5242,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,9 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,9 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,9 +5353,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5586,9 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5625,9 +5427,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,9 +5464,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,9 +5501,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,20 +5535,16 @@
         <v>28529245.28387931</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.617</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5781,14 +5573,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5820,14 +5606,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5859,14 +5639,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5898,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5937,14 +5705,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5976,14 +5738,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6015,14 +5771,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6051,19 +5801,13 @@
         <v>28576337.62387931</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1.033961038961039</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -6090,7 +5834,7 @@
         <v>28554493.30377932</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6123,7 +5867,7 @@
         <v>28557170.39087931</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6156,7 +5900,7 @@
         <v>28264985.02167932</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6189,7 +5933,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6222,7 +5966,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6387,7 +6131,7 @@
         <v>26809294.51607932</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6420,7 +6164,7 @@
         <v>26808398.45837932</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6651,7 +6395,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6783,7 +6527,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6816,7 +6560,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6849,7 +6593,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6959,6 +6703,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3111036.167855069</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -562,11 +562,9 @@
         <v>-2894400.343655069</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -718,11 +714,9 @@
         <v>-3413422.343655069</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +751,9 @@
         <v>-4407989.422855069</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +788,9 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -874,11 +864,9 @@
         <v>-4597607.075155069</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +901,9 @@
         <v>-1070700.811955069</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +938,9 @@
         <v>523842.7842449308</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1287,11 +1271,9 @@
         <v>-350644.0100550691</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1326,11 +1308,9 @@
         <v>-352991.0100550691</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1661,11 +1641,9 @@
         <v>-90969.34615506884</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2403,11 +2381,9 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2442,11 +2418,9 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2518,11 +2492,9 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2631,11 +2603,9 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.554</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2670,11 +2640,9 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2709,11 +2677,9 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2748,11 +2714,9 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2787,11 +2751,9 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2826,11 +2788,9 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2865,11 +2825,9 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2904,11 +2862,9 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2943,11 +2899,9 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4092,18 +4046,16 @@
         <v>27191897.02584493</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4129,15 +4081,11 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4166,15 +4114,11 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4203,15 +4147,11 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4240,15 +4180,11 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4277,15 +4213,11 @@
         <v>26515044.18054493</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4314,15 +4246,11 @@
         <v>27016874.48137931</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4351,15 +4279,11 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4388,15 +4312,11 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4349,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4382,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4415,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4448,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +4481,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4610,15 +4510,11 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4647,15 +4543,11 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4684,15 +4576,11 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4721,15 +4609,11 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4758,15 +4642,11 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4679,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4836,11 +4712,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4745,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +4778,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4947,11 +4811,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +4844,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +4877,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5058,11 +4910,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5095,11 +4943,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5132,11 +4976,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5009,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5042,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +5075,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5280,11 +5108,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5317,11 +5141,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5174,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5391,11 +5207,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5428,11 +5240,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5273,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5502,11 +5306,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5535,16 +5335,14 @@
         <v>28529245.28387931</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5801,7 +5599,7 @@
         <v>28576337.62387931</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5834,7 +5632,7 @@
         <v>28554493.30377932</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5867,7 +5665,7 @@
         <v>28557170.39087931</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5900,7 +5698,7 @@
         <v>28264985.02167932</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5933,7 +5731,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5966,7 +5764,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6527,7 +6325,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6560,7 +6358,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6593,7 +6391,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6703,6 +6501,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -562,9 +562,11 @@
         <v>-2894400.343655069</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.62</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -636,11 +638,9 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -675,11 +675,9 @@
         <v>-3553422.343655069</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -825,11 +823,9 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -2381,9 +2377,11 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.588</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2418,9 +2416,11 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.588</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2455,9 +2455,11 @@
         <v>-1164568.542555069</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.588</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2492,9 +2494,11 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.58</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2529,9 +2533,11 @@
         <v>-900860.8619550688</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.588</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2566,9 +2572,11 @@
         <v>-906715.8244550688</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.58</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2603,9 +2611,11 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.554</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2640,9 +2650,11 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.58</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2677,9 +2689,11 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.578</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2714,9 +2728,11 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.583</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2751,9 +2767,11 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.583</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2788,9 +2806,11 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.588</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2825,9 +2845,11 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.599</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2862,9 +2884,11 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.599</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2899,9 +2923,11 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.599</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4046,16 +4072,18 @@
         <v>27191897.02584493</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4081,11 +4109,15 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4146,15 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4183,15 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4220,15 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4257,15 @@
         <v>26515044.18054493</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4294,15 @@
         <v>27016874.48137931</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4331,15 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4368,15 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4409,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4446,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4483,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4520,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4557,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4590,15 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4627,15 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4664,15 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4701,15 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4738,15 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4779,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4816,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4853,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4890,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4927,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4964,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5001,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5038,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5075,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5112,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5149,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5186,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5223,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5260,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5297,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5334,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5371,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5408,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5445,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5482,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5519,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5556,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5593,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5630,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5667,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5704,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5741,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5566,14 +5774,16 @@
         <v>28590003.04137931</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5599,7 +5809,7 @@
         <v>28576337.62387931</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5632,7 +5842,7 @@
         <v>28554493.30377932</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5665,7 +5875,7 @@
         <v>28557170.39087931</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5698,7 +5908,7 @@
         <v>28264985.02167932</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5731,7 +5941,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5764,7 +5974,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5830,7 +6040,7 @@
         <v>26701825.83207932</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6094,7 +6304,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6127,7 +6337,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6160,7 +6370,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6193,7 +6403,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6226,7 +6436,7 @@
         <v>26794002.69187932</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6292,7 +6502,7 @@
         <v>27100724.83337932</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6325,7 +6535,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6358,7 +6568,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6391,7 +6601,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6424,7 +6634,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6457,7 +6667,7 @@
         <v>26815276.28667932</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6490,7 +6700,7 @@
         <v>26998057.70697932</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest MXC.xlsx
+++ b/BackTest/2020-01-16 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>584784.198</v>
       </c>
       <c r="G2" t="n">
-        <v>-3111036.167855069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>163278.724</v>
       </c>
       <c r="G3" t="n">
-        <v>-3274314.891855069</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>1.62</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>216821</v>
       </c>
       <c r="G4" t="n">
-        <v>-3057493.891855069</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>1.61</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>163093.5482</v>
       </c>
       <c r="G5" t="n">
-        <v>-2894400.343655069</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>1.62</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +581,21 @@
         <v>159022</v>
       </c>
       <c r="G6" t="n">
-        <v>-3053422.343655069</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.648</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +617,21 @@
         <v>1282978</v>
       </c>
       <c r="G7" t="n">
-        <v>-3053422.343655069</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +653,19 @@
         <v>500000</v>
       </c>
       <c r="G8" t="n">
-        <v>-3553422.343655069</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +687,21 @@
         <v>140000</v>
       </c>
       <c r="G9" t="n">
-        <v>-3413422.343655069</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.562</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +723,19 @@
         <v>994567.0792</v>
       </c>
       <c r="G10" t="n">
-        <v>-4407989.422855069</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +757,21 @@
         <v>2889</v>
       </c>
       <c r="G11" t="n">
-        <v>-4410878.422855069</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.617</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +793,19 @@
         <v>2005</v>
       </c>
       <c r="G12" t="n">
-        <v>-4410878.422855069</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +827,19 @@
         <v>186728.6523</v>
       </c>
       <c r="G13" t="n">
-        <v>-4597607.075155069</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +861,19 @@
         <v>3526906.2632</v>
       </c>
       <c r="G14" t="n">
-        <v>-1070700.811955069</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +895,19 @@
         <v>1594543.5962</v>
       </c>
       <c r="G15" t="n">
-        <v>523842.7842449308</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +929,19 @@
         <v>3007</v>
       </c>
       <c r="G16" t="n">
-        <v>526849.7842449308</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +963,19 @@
         <v>7947</v>
       </c>
       <c r="G17" t="n">
-        <v>534796.7842449308</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +997,19 @@
         <v>197871.5763</v>
       </c>
       <c r="G18" t="n">
-        <v>336925.2079449309</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,22 +1031,19 @@
         <v>36952.6733</v>
       </c>
       <c r="G19" t="n">
-        <v>336925.2079449309</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +1065,19 @@
         <v>61714.36</v>
       </c>
       <c r="G20" t="n">
-        <v>275210.8479449309</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1099,19 @@
         <v>20650</v>
       </c>
       <c r="G21" t="n">
-        <v>275210.8479449309</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,22 +1133,19 @@
         <v>127859.5063</v>
       </c>
       <c r="G22" t="n">
-        <v>147351.3416449309</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,22 +1167,19 @@
         <v>500000.3517</v>
       </c>
       <c r="G23" t="n">
-        <v>-352649.0100550691</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,22 +1201,19 @@
         <v>2005</v>
       </c>
       <c r="G24" t="n">
-        <v>-350644.0100550691</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,22 +1235,19 @@
         <v>2347</v>
       </c>
       <c r="G25" t="n">
-        <v>-352991.0100550691</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,22 +1269,19 @@
         <v>211357.798</v>
       </c>
       <c r="G26" t="n">
-        <v>-141633.2120550691</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,22 +1303,19 @@
         <v>373894.9252</v>
       </c>
       <c r="G27" t="n">
-        <v>232261.7131449309</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1337,19 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>212261.7131449309</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1449,22 +1371,19 @@
         <v>356616</v>
       </c>
       <c r="G29" t="n">
-        <v>568877.7131449309</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,22 +1405,19 @@
         <v>9635.0949</v>
       </c>
       <c r="G30" t="n">
-        <v>559242.6182449309</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,22 +1439,19 @@
         <v>2308730.4631</v>
       </c>
       <c r="G31" t="n">
-        <v>-1749487.844855069</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1560,22 +1473,19 @@
         <v>820000</v>
       </c>
       <c r="G32" t="n">
-        <v>-929487.8448550689</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,22 +1507,19 @@
         <v>814190.5181</v>
       </c>
       <c r="G33" t="n">
-        <v>-1743678.362955069</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1634,22 +1541,19 @@
         <v>1652709.0168</v>
       </c>
       <c r="G34" t="n">
-        <v>-90969.34615506884</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1671,22 +1575,19 @@
         <v>465294.6656</v>
       </c>
       <c r="G35" t="n">
-        <v>-556264.0117550688</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1708,22 +1609,19 @@
         <v>200000</v>
       </c>
       <c r="G36" t="n">
-        <v>-756264.0117550688</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1745,22 +1643,19 @@
         <v>320000</v>
       </c>
       <c r="G37" t="n">
-        <v>-436264.0117550688</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1782,22 +1677,19 @@
         <v>410723.9813</v>
       </c>
       <c r="G38" t="n">
-        <v>-25540.0304550688</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1819,22 +1711,19 @@
         <v>31339</v>
       </c>
       <c r="G39" t="n">
-        <v>-56879.0304550688</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1856,22 +1745,19 @@
         <v>3501</v>
       </c>
       <c r="G40" t="n">
-        <v>-56879.0304550688</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1893,22 +1779,19 @@
         <v>8460.6</v>
       </c>
       <c r="G41" t="n">
-        <v>-56879.0304550688</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,22 +1813,19 @@
         <v>55392.7036</v>
       </c>
       <c r="G42" t="n">
-        <v>-56879.0304550688</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,22 +1847,19 @@
         <v>558380.8624</v>
       </c>
       <c r="G43" t="n">
-        <v>-615259.8928550688</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,22 +1881,19 @@
         <v>51850</v>
       </c>
       <c r="G44" t="n">
-        <v>-615259.8928550688</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2041,22 +1915,19 @@
         <v>371922.4916</v>
       </c>
       <c r="G45" t="n">
-        <v>-243337.4012550688</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,22 +1949,19 @@
         <v>174520.3986</v>
       </c>
       <c r="G46" t="n">
-        <v>-417857.7998550688</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2115,22 +1983,19 @@
         <v>40000</v>
       </c>
       <c r="G47" t="n">
-        <v>-377857.7998550688</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,22 +2017,19 @@
         <v>23334.7259</v>
       </c>
       <c r="G48" t="n">
-        <v>-401192.5257550688</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2189,22 +2051,19 @@
         <v>75022.0941</v>
       </c>
       <c r="G49" t="n">
-        <v>-476214.6198550688</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2226,22 +2085,19 @@
         <v>154520.398</v>
       </c>
       <c r="G50" t="n">
-        <v>-630735.0178550688</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2263,22 +2119,19 @@
         <v>771345.0072</v>
       </c>
       <c r="G51" t="n">
-        <v>-630735.0178550688</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2300,22 +2153,19 @@
         <v>787.8552</v>
       </c>
       <c r="G52" t="n">
-        <v>-630735.0178550688</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2337,22 +2187,19 @@
         <v>321182.4247</v>
       </c>
       <c r="G53" t="n">
-        <v>-951917.4425550688</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,24 +2221,19 @@
         <v>337554.7571</v>
       </c>
       <c r="G54" t="n">
-        <v>-951917.4425550688</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2413,24 +2255,19 @@
         <v>1662453.4058</v>
       </c>
       <c r="G55" t="n">
-        <v>-951917.4425550688</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2452,24 +2289,19 @@
         <v>212651.1</v>
       </c>
       <c r="G56" t="n">
-        <v>-1164568.542555069</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2491,24 +2323,19 @@
         <v>309736.5866</v>
       </c>
       <c r="G57" t="n">
-        <v>-854831.9559550688</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2530,24 +2357,19 @@
         <v>46028.906</v>
       </c>
       <c r="G58" t="n">
-        <v>-900860.8619550688</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2569,24 +2391,19 @@
         <v>5854.9625</v>
       </c>
       <c r="G59" t="n">
-        <v>-906715.8244550688</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2608,24 +2425,19 @@
         <v>40000</v>
       </c>
       <c r="G60" t="n">
-        <v>-866715.8244550688</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.554</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2647,24 +2459,19 @@
         <v>38053</v>
       </c>
       <c r="G61" t="n">
-        <v>-904768.8244550688</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2686,24 +2493,19 @@
         <v>91673</v>
       </c>
       <c r="G62" t="n">
-        <v>-813095.8244550688</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.578</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2725,24 +2527,19 @@
         <v>8099</v>
       </c>
       <c r="G63" t="n">
-        <v>-813095.8244550688</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2764,24 +2561,19 @@
         <v>455699.0022</v>
       </c>
       <c r="G64" t="n">
-        <v>-357396.8222550688</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.583</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2803,24 +2595,19 @@
         <v>40000</v>
       </c>
       <c r="G65" t="n">
-        <v>-317396.8222550688</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2842,24 +2629,19 @@
         <v>80000</v>
       </c>
       <c r="G66" t="n">
-        <v>-317396.8222550688</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2881,24 +2663,19 @@
         <v>1721</v>
       </c>
       <c r="G67" t="n">
-        <v>-317396.8222550688</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2920,24 +2697,19 @@
         <v>6333000</v>
       </c>
       <c r="G68" t="n">
-        <v>6015603.177744932</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2959,22 +2731,19 @@
         <v>6255829.5176</v>
       </c>
       <c r="G69" t="n">
-        <v>12271432.69534493</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2996,22 +2765,19 @@
         <v>1576310.9328</v>
       </c>
       <c r="G70" t="n">
-        <v>10695121.76254493</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3033,22 +2799,19 @@
         <v>830342.959</v>
       </c>
       <c r="G71" t="n">
-        <v>11525464.72154493</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3070,22 +2833,19 @@
         <v>512546.9659</v>
       </c>
       <c r="G72" t="n">
-        <v>11012917.75564493</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3107,22 +2867,19 @@
         <v>495799.9054</v>
       </c>
       <c r="G73" t="n">
-        <v>10517117.85024493</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3144,22 +2901,19 @@
         <v>247042.7777</v>
       </c>
       <c r="G74" t="n">
-        <v>10764160.62794493</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3181,22 +2935,19 @@
         <v>202847.4733</v>
       </c>
       <c r="G75" t="n">
-        <v>10561313.15464493</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3218,22 +2969,19 @@
         <v>6823217.1062</v>
       </c>
       <c r="G76" t="n">
-        <v>17384530.26084493</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3255,22 +3003,19 @@
         <v>46860.2659</v>
       </c>
       <c r="G77" t="n">
-        <v>17337669.99494493</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3292,22 +3037,19 @@
         <v>1695.1428</v>
       </c>
       <c r="G78" t="n">
-        <v>17335974.85214493</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3329,22 +3071,19 @@
         <v>1721</v>
       </c>
       <c r="G79" t="n">
-        <v>17337695.85214493</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3366,22 +3105,19 @@
         <v>2537329.6157</v>
       </c>
       <c r="G80" t="n">
-        <v>14800366.23644493</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3403,22 +3139,19 @@
         <v>5123865.5895</v>
       </c>
       <c r="G81" t="n">
-        <v>19924231.82594493</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3440,22 +3173,19 @@
         <v>975890.8432</v>
       </c>
       <c r="G82" t="n">
-        <v>18948340.98274493</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3477,22 +3207,19 @@
         <v>410506.4553</v>
       </c>
       <c r="G83" t="n">
-        <v>19358847.43804493</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3514,22 +3241,19 @@
         <v>8391679.51</v>
       </c>
       <c r="G84" t="n">
-        <v>27750526.94804493</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3551,22 +3275,19 @@
         <v>246685.6331</v>
       </c>
       <c r="G85" t="n">
-        <v>27503841.31494493</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3588,22 +3309,19 @@
         <v>404798.4128</v>
       </c>
       <c r="G86" t="n">
-        <v>27908639.72774493</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3625,22 +3343,19 @@
         <v>165502.3811</v>
       </c>
       <c r="G87" t="n">
-        <v>28074142.10884493</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3662,22 +3377,19 @@
         <v>316238.067</v>
       </c>
       <c r="G88" t="n">
-        <v>27757904.04184493</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3699,22 +3411,19 @@
         <v>35665.2565</v>
       </c>
       <c r="G89" t="n">
-        <v>27793569.29834493</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3736,22 +3445,19 @@
         <v>284747.4716</v>
       </c>
       <c r="G90" t="n">
-        <v>27508821.82674493</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3773,22 +3479,19 @@
         <v>20355.9126</v>
       </c>
       <c r="G91" t="n">
-        <v>27488465.91414493</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3810,22 +3513,19 @@
         <v>20000</v>
       </c>
       <c r="G92" t="n">
-        <v>27468465.91414493</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3847,22 +3547,19 @@
         <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>27469465.91414493</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3884,22 +3581,19 @@
         <v>129654.8962</v>
       </c>
       <c r="G94" t="n">
-        <v>27339811.01794493</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3921,22 +3615,19 @@
         <v>1036093.2026</v>
       </c>
       <c r="G95" t="n">
-        <v>26303717.81534493</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3958,22 +3649,19 @@
         <v>346145.5224</v>
       </c>
       <c r="G96" t="n">
-        <v>26649863.33774493</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3995,22 +3683,19 @@
         <v>195066.4397</v>
       </c>
       <c r="G97" t="n">
-        <v>26844929.77744493</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4032,22 +3717,19 @@
         <v>156302.6484</v>
       </c>
       <c r="G98" t="n">
-        <v>27001232.42584493</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4069,22 +3751,19 @@
         <v>190664.6</v>
       </c>
       <c r="G99" t="n">
-        <v>27191897.02584493</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4106,22 +3785,19 @@
         <v>70520.0453</v>
       </c>
       <c r="G100" t="n">
-        <v>27121376.98054493</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4143,22 +3819,19 @@
         <v>200000</v>
       </c>
       <c r="G101" t="n">
-        <v>27121376.98054493</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4180,22 +3853,19 @@
         <v>7293.8772</v>
       </c>
       <c r="G102" t="n">
-        <v>27121376.98054493</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4217,22 +3887,19 @@
         <v>514821.2818</v>
       </c>
       <c r="G103" t="n">
-        <v>27121376.98054493</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4254,22 +3921,19 @@
         <v>606332.8</v>
       </c>
       <c r="G104" t="n">
-        <v>26515044.18054493</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4291,22 +3955,19 @@
         <v>501830.3008343788</v>
       </c>
       <c r="G105" t="n">
-        <v>27016874.48137931</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4328,22 +3989,19 @@
         <v>85518.7224</v>
       </c>
       <c r="G106" t="n">
-        <v>26931355.75897931</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4365,22 +4023,19 @@
         <v>85518.7224</v>
       </c>
       <c r="G107" t="n">
-        <v>26931355.75897931</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4402,22 +4057,19 @@
         <v>22418.9058</v>
       </c>
       <c r="G108" t="n">
-        <v>26931355.75897931</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4439,22 +4091,19 @@
         <v>9000</v>
       </c>
       <c r="G109" t="n">
-        <v>26922355.75897931</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4476,22 +4125,19 @@
         <v>3733.2604</v>
       </c>
       <c r="G110" t="n">
-        <v>26922355.75897931</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4513,22 +4159,19 @@
         <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>26923355.75897931</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4550,22 +4193,19 @@
         <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>26923355.75897931</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4587,22 +4227,19 @@
         <v>253984</v>
       </c>
       <c r="G113" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4624,22 +4261,19 @@
         <v>7778</v>
       </c>
       <c r="G114" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4661,22 +4295,19 @@
         <v>150495</v>
       </c>
       <c r="G115" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4698,22 +4329,19 @@
         <v>20000</v>
       </c>
       <c r="G116" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4735,22 +4363,19 @@
         <v>9071</v>
       </c>
       <c r="G117" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4772,22 +4397,19 @@
         <v>100000</v>
       </c>
       <c r="G118" t="n">
-        <v>27177339.75897931</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4809,22 +4431,19 @@
         <v>60000</v>
       </c>
       <c r="G119" t="n">
-        <v>27237339.75897931</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4846,22 +4465,19 @@
         <v>1188.16</v>
       </c>
       <c r="G120" t="n">
-        <v>27237339.75897931</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4883,22 +4499,19 @@
         <v>20000</v>
       </c>
       <c r="G121" t="n">
-        <v>27237339.75897931</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4920,22 +4533,19 @@
         <v>13127.1</v>
       </c>
       <c r="G122" t="n">
-        <v>27237339.75897931</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4957,22 +4567,19 @@
         <v>375437.95</v>
       </c>
       <c r="G123" t="n">
-        <v>27612777.70897931</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4994,22 +4601,19 @@
         <v>939985.1186</v>
       </c>
       <c r="G124" t="n">
-        <v>28552762.82757931</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5031,22 +4635,19 @@
         <v>84639</v>
       </c>
       <c r="G125" t="n">
-        <v>28552762.82757931</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5068,22 +4669,19 @@
         <v>8601.863600000001</v>
       </c>
       <c r="G126" t="n">
-        <v>28544160.96397931</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5105,22 +4703,19 @@
         <v>2000</v>
       </c>
       <c r="G127" t="n">
-        <v>28546160.96397931</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5142,22 +4737,19 @@
         <v>13616.8157</v>
       </c>
       <c r="G128" t="n">
-        <v>28532544.14827931</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5179,22 +4771,19 @@
         <v>3000</v>
       </c>
       <c r="G129" t="n">
-        <v>28529544.14827931</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5216,22 +4805,19 @@
         <v>10889.0492</v>
       </c>
       <c r="G130" t="n">
-        <v>28529544.14827931</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5253,22 +4839,19 @@
         <v>298.8644</v>
       </c>
       <c r="G131" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5290,22 +4873,19 @@
         <v>298.6858</v>
       </c>
       <c r="G132" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5327,22 +4907,19 @@
         <v>79154.129</v>
       </c>
       <c r="G133" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5364,22 +4941,19 @@
         <v>11509</v>
       </c>
       <c r="G134" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5401,22 +4975,19 @@
         <v>800</v>
       </c>
       <c r="G135" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5438,22 +5009,19 @@
         <v>2503</v>
       </c>
       <c r="G136" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5475,22 +5043,19 @@
         <v>1589</v>
       </c>
       <c r="G137" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5512,22 +5077,19 @@
         <v>45407</v>
       </c>
       <c r="G138" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5549,22 +5111,19 @@
         <v>1000</v>
       </c>
       <c r="G139" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5586,22 +5145,19 @@
         <v>21000</v>
       </c>
       <c r="G140" t="n">
-        <v>28529245.28387931</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5623,22 +5179,19 @@
         <v>75297</v>
       </c>
       <c r="G141" t="n">
-        <v>28604542.28387931</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5660,22 +5213,19 @@
         <v>6889.3025</v>
       </c>
       <c r="G142" t="n">
-        <v>28604542.28387931</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5697,22 +5247,19 @@
         <v>1714.35</v>
       </c>
       <c r="G143" t="n">
-        <v>28606256.63387932</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5734,22 +5281,19 @@
         <v>20000</v>
       </c>
       <c r="G144" t="n">
-        <v>28586256.63387932</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5771,20 +5315,19 @@
         <v>3746.4075</v>
       </c>
       <c r="G145" t="n">
-        <v>28590003.04137931</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
       </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5806,18 +5349,19 @@
         <v>13665.4175</v>
       </c>
       <c r="G146" t="n">
-        <v>28576337.62387931</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5839,18 +5383,19 @@
         <v>21844.3201</v>
       </c>
       <c r="G147" t="n">
-        <v>28554493.30377932</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5872,18 +5417,19 @@
         <v>2677.0871</v>
       </c>
       <c r="G148" t="n">
-        <v>28557170.39087931</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5905,18 +5451,19 @@
         <v>292185.3692</v>
       </c>
       <c r="G149" t="n">
-        <v>28264985.02167932</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5938,18 +5485,19 @@
         <v>42721</v>
       </c>
       <c r="G150" t="n">
-        <v>28307706.02167932</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5971,18 +5519,19 @@
         <v>22553.009</v>
       </c>
       <c r="G151" t="n">
-        <v>28307706.02167932</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6004,18 +5553,19 @@
         <v>5880.1896</v>
       </c>
       <c r="G152" t="n">
-        <v>28301825.83207932</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6037,18 +5587,19 @@
         <v>1600000</v>
       </c>
       <c r="G153" t="n">
-        <v>26701825.83207932</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6070,18 +5621,19 @@
         <v>16556.25</v>
       </c>
       <c r="G154" t="n">
-        <v>26718382.08207932</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6103,18 +5655,19 @@
         <v>8241.566000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>26710140.51607932</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6136,18 +5689,19 @@
         <v>99154</v>
       </c>
       <c r="G156" t="n">
-        <v>26809294.51607932</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6169,18 +5723,19 @@
         <v>896.0577</v>
       </c>
       <c r="G157" t="n">
-        <v>26808398.45837932</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6202,18 +5757,19 @@
         <v>27335.2939</v>
       </c>
       <c r="G158" t="n">
-        <v>26808398.45837932</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6235,18 +5791,19 @@
         <v>8266.17</v>
       </c>
       <c r="G159" t="n">
-        <v>26816664.62837932</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6268,18 +5825,19 @@
         <v>20000</v>
       </c>
       <c r="G160" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6301,18 +5859,19 @@
         <v>244535.3101</v>
       </c>
       <c r="G161" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6334,18 +5893,17 @@
         <v>49714.0223</v>
       </c>
       <c r="G162" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6367,18 +5925,15 @@
         <v>1090</v>
       </c>
       <c r="G163" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6400,18 +5955,15 @@
         <v>119559.9115</v>
       </c>
       <c r="G164" t="n">
-        <v>26796664.62837932</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6433,18 +5985,15 @@
         <v>2661.9365</v>
       </c>
       <c r="G165" t="n">
-        <v>26794002.69187932</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6466,18 +6015,15 @@
         <v>316716.1863</v>
       </c>
       <c r="G166" t="n">
-        <v>27110718.87817932</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6499,18 +6045,15 @@
         <v>9994.0448</v>
       </c>
       <c r="G167" t="n">
-        <v>27100724.83337932</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6532,18 +6075,15 @@
         <v>28717.3988</v>
       </c>
       <c r="G168" t="n">
-        <v>27129442.23217932</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6565,18 +6105,15 @@
         <v>340587.7553</v>
       </c>
       <c r="G169" t="n">
-        <v>27129442.23217932</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6598,18 +6135,15 @@
         <v>312836.8902</v>
       </c>
       <c r="G170" t="n">
-        <v>26816605.34197932</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6631,18 +6165,15 @@
         <v>15575.5441</v>
       </c>
       <c r="G171" t="n">
-        <v>26816605.34197932</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6664,18 +6195,15 @@
         <v>1329.0553</v>
       </c>
       <c r="G172" t="n">
-        <v>26815276.28667932</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6697,18 +6225,15 @@
         <v>182781.4203</v>
       </c>
       <c r="G173" t="n">
-        <v>26998057.70697932</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
